--- a/english.xlsx
+++ b/english.xlsx
@@ -4,13 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>word</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,6 +88,10 @@
   </si>
   <si>
     <t>An implement, container, or other article, especially for household use.</t>
+  </si>
+  <si>
+    <t>the word that coding canvas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -434,18 +437,18 @@
   <dimension ref="A1:C1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.09765625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.59765625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="36.796875" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="8.796875" style="1"/>
+    <col min="1" max="1" width="4.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="36.75" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -453,7 +456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -461,7 +464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -469,7 +472,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -477,7 +480,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -485,7 +488,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -496,7 +499,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -504,7 +507,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -512,7 +515,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -520,7 +523,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -528,7 +531,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -536,7 +539,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -544,7 +547,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -552,7 +555,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -563,7 +566,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -574,1437 +577,1440 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="C16" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>204</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>205</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>207</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>208</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>210</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>211</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>212</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>213</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>214</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>215</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>216</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>217</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>218</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>219</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>220</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>221</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>222</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>223</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>224</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>225</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>226</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>227</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>228</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>229</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>230</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>231</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>232</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>233</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>234</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>235</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>236</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>237</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>238</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>239</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>240</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>241</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>242</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>243</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>244</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>245</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>246</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>247</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>248</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>249</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>251</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>252</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>253</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>254</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>255</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>256</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>257</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>258</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>259</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>260</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>261</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>262</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>263</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>264</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>265</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>266</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>267</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>268</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>269</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>270</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>271</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>272</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>273</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>274</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>275</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>276</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>277</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>278</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>279</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>280</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>281</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>282</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>283</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>284</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>285</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>286</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>287</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>288</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>289</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>290</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>291</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>292</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>293</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>294</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>295</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>296</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>297</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>298</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>299</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>300</v>
       </c>
     </row>
-    <row r="1048576" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1048576" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1048576" s="1">
         <f>SUM(A2:A1048575)</f>
         <v>45150</v>

--- a/english.xlsx
+++ b/english.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>word</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,6 +91,18 @@
   </si>
   <si>
     <t>the word that coding canvas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bundle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tie or roll up together</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>one size fit all</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -437,7 +449,7 @@
   <dimension ref="A1:C1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -585,82 +597,91 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>

--- a/english.xlsx
+++ b/english.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="grammar" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>word</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,13 +105,71 @@
   <si>
     <t>one size fit all</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Parts of speech: Understanding the basic parts of speech is crucial to understanding how sentences are constructed. The parts of speech include nouns (person, place, or thing), verbs (action or state of being), adjectives (describing words), adverbs (words that modify verbs, adjectives, or other adverbs), pronouns (words that take the place of nouns), prepositions (words that show the relationship between nouns and other words), conjunctions (words that connect words, phrases, or clauses), and interjections (words that express strong emotions).</t>
+  </si>
+  <si>
+    <t>2. Sentence structure: English sentences typically have a subject (the noun or pronoun that performs the action) and a predicate (the verb and any other elements that modify it). Sentences can be further divided into clauses (groups of words that contain a subject and predicate) and phrases (groups of words that function as a unit within a sentence).</t>
+  </si>
+  <si>
+    <t>3. Tenses: Verbs in English have different tenses to indicate when an action takes place. The most common tenses are present (I walk), past (I walked), and future (I will walk).</t>
+  </si>
+  <si>
+    <t>4. Agreement: In English, nouns and verbs must agree in number (singular or plural). For example, "I am" is correct, but "I is" is not. Pronouns must also agree in gender (he/him, she/her, they/them).</t>
+  </si>
+  <si>
+    <t>5. Word order: English has a fairly strict word order, with the subject typically coming before the verb and the object coming after. Adjectives typically come before the noun they modify, and adverbs typically come after the verb they modify.</t>
+  </si>
+  <si>
+    <t>6. Punctuation: Proper punctuation is essential to conveying meaning in written English. Some common punctuation marks include commas (used to separate items in a list or to separate clauses), periods (used to indicate the end of a sentence), question marks (used to indicate a question), and exclamation points (used to indicate strong emotion).</t>
+  </si>
+  <si>
+    <t>Operation order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the process or state of excluding or being excluded.</t>
+  </si>
+  <si>
+    <t>having the power to put plans, actions, or laws into effect.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(of a road, route, or line) separate from another route, especially a main one, and go in a different direction.</t>
+  </si>
+  <si>
+    <t>remove or take away (something) from a particular place or position.</t>
+  </si>
+  <si>
+    <t>an exchange of diverging or opposite views, typically a heated or angry one.</t>
+  </si>
+  <si>
+    <t>capable of causing someone to believe that something is true or real.</t>
+  </si>
+  <si>
+    <t>clear, logical, and convincing.</t>
+  </si>
+  <si>
+    <t>govern</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Conduct the policy, actions, and affairs of (a state, organization, or people).</t>
+  </si>
+  <si>
+    <t>sequence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A particular order in which related events, movements, or things follow each other.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,6 +193,23 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -155,7 +231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -166,6 +242,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -448,14 +527,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F39" sqref="F38:F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="36.75" style="3" customWidth="1"/>
     <col min="4" max="16384" width="8.75" style="1"/>
   </cols>
@@ -518,6 +597,9 @@
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C7" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -526,6 +608,9 @@
       <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="C8" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -534,6 +619,9 @@
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C9" s="5" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
@@ -542,6 +630,9 @@
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C10" s="4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
@@ -550,6 +641,9 @@
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="C11" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
@@ -558,6 +652,9 @@
       <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="C12" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
@@ -566,6 +663,9 @@
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="C13" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
@@ -620,15 +720,30 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
+      <c r="B19" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
+      <c r="B20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -2042,4 +2157,53 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:B6"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="255.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/english.xlsx
+++ b/english.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>word</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -163,6 +163,16 @@
   </si>
   <si>
     <t>A particular order in which related events, movements, or things follow each other.</t>
+  </si>
+  <si>
+    <t>Laverage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>use borrowed capital for (an investment), expecting the profits made to be greater than the interest payable.</t>
+  </si>
+  <si>
+    <t>use (something) to maximum advantage.</t>
   </si>
 </sst>
 </file>
@@ -231,7 +241,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -245,6 +255,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -527,15 +540,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F39" sqref="F38:F39"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="36.75" style="3" customWidth="1"/>
+    <col min="3" max="3" width="110.25" style="3" customWidth="1"/>
     <col min="4" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
@@ -750,10 +763,20 @@
       <c r="A22" s="1">
         <v>21</v>
       </c>
+      <c r="B22" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -2153,6 +2176,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B22:B23"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/english.xlsx
+++ b/english.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="grammar" sheetId="2" r:id="rId2"/>
+    <sheet name="word" sheetId="1" r:id="rId1"/>
+    <sheet name="pronounciation" sheetId="3" r:id="rId2"/>
+    <sheet name="grammar" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="116">
   <si>
     <t>word</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -169,17 +170,310 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>use (something) to maximum advantage.</t>
+  </si>
+  <si>
+    <t>en·trust</t>
+  </si>
+  <si>
+    <t>assign the responsibility for doing something to (someone).</t>
+  </si>
+  <si>
+    <t>sav·ing</t>
+  </si>
+  <si>
+    <t>an economy of or reduction in money, time, or another resource.</t>
+  </si>
+  <si>
+    <t>the money one has saved, especially through a bank or investment plan.</t>
+  </si>
+  <si>
+    <t>dis·tinc·tive</t>
+  </si>
+  <si>
+    <t>subject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>example</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[owl]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[i]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>similar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>characteristic of one person or thing, and so serving to distinguish it from others.</t>
+  </si>
+  <si>
+    <t>unlikely</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not likely to happen, be done, or be true; improbable.</t>
+  </si>
+  <si>
+    <t>comply </t>
+  </si>
+  <si>
+    <t>(of a person or group) act in accordance with a wish or command.</t>
+  </si>
+  <si>
+    <t>con·form</t>
+  </si>
+  <si>
+    <t>comply with rules, standards, or laws.</t>
+  </si>
+  <si>
+    <t>Assign a job or role to (someone)</t>
+  </si>
+  <si>
+    <t>appoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>determine or decide on (a time or a place).</t>
+  </si>
+  <si>
     <t>use borrowed capital for (an investment), expecting the profits made to be greater than the interest payable.</t>
-  </si>
-  <si>
-    <t>use (something) to maximum advantage.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>go, show, rule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>representative </t>
+  </si>
+  <si>
+    <t>Typical of a class, group, or body of opinion.</t>
+  </si>
+  <si>
+    <t>sovereign</t>
+  </si>
+  <si>
+    <t>delegate</t>
+  </si>
+  <si>
+    <t>a person sent or authorized to represent others, in particular an elected representative sent to a conference.</t>
+  </si>
+  <si>
+    <t>"the power delegated to him must never be misused"</t>
+  </si>
+  <si>
+    <t>all-in-one</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>entrust (a task or responsibility) to another person, typically one who is less senior than oneself.</t>
+  </si>
+  <si>
+    <t>A supreme ruler, especially a monarch.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pivot</t>
+  </si>
+  <si>
+    <t>the central point, pin, or shaft on which a mechanism turns or oscillates.</t>
+  </si>
+  <si>
+    <t>a person or thing that plays a central part in an activity or organization.</t>
+  </si>
+  <si>
+    <t>sound like center and important</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lay </t>
+  </si>
+  <si>
+    <t>Put down, especially gently or carefully.</t>
+  </si>
+  <si>
+    <t>ad·vis·a·ble</t>
+  </si>
+  <si>
+    <t> to be recommended; sensible.</t>
+  </si>
+  <si>
+    <r>
+      <t>cast</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="7"/>
+        <color rgb="FFE8EAED"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t>cause (light or shadow) to appear on a surface.</t>
+  </si>
+  <si>
+    <t>register (a vote).</t>
+  </si>
+  <si>
+    <t>an object made by shaping molten metal or similar material in a mold.</t>
+  </si>
+  <si>
+    <t>apperentice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a person who is learning a trade from a skilled employer, having agreed to work for a fixed period at low wages.</t>
+  </si>
+  <si>
+    <t>firm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>having a solid, almost unyielding surface or structure.</t>
+  </si>
+  <si>
+    <t>strongly felt and unlikely to change.</t>
+  </si>
+  <si>
+    <t>in a resolute and determined manner.</t>
+  </si>
+  <si>
+    <t>a business concern, especially one involving a partnership of two or more people.</t>
+  </si>
+  <si>
+    <t>carry out</t>
+  </si>
+  <si>
+    <t>perform a task.</t>
+  </si>
+  <si>
+    <t>inflict</t>
+  </si>
+  <si>
+    <t>cause (something unpleasant or painful) to be suffered by someone or something.</t>
+  </si>
+  <si>
+    <t>impose something unwelcome on.</t>
+  </si>
+  <si>
+    <t>im·pose</t>
+  </si>
+  <si>
+    <t>constituting</t>
+  </si>
+  <si>
+    <t>be (a part) of a whole.</t>
+  </si>
+  <si>
+    <t>give legal or constitutional form to (an institution); establish by law.</t>
+  </si>
+  <si>
+    <t>proportion</t>
+  </si>
+  <si>
+    <t>a part, share, or number considered in comparative relation to a whole.</t>
+  </si>
+  <si>
+    <t>adversary</t>
+  </si>
+  <si>
+    <t>one's opponent in a contest, conflict, or dispute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[plur·uhl]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>summer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tran·si·tive</t>
+  </si>
+  <si>
+    <t>able to take a direct object</t>
+  </si>
+  <si>
+    <r>
+      <t>e.g. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>saw</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> in </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>he saw the donkey</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>e.g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>denote</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[a]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apple</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,27 +489,55 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="12"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="8"/>
+      <color rgb="FFBDC1C6"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
+      <color theme="10"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="17"/>
+      <color rgb="FFE8EAED"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="7"/>
+      <color rgb="FFE8EAED"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
       <color rgb="FF222222"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -238,10 +560,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -249,18 +572,39 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -538,21 +882,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1048576"/>
+  <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="110.25" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="8.75" style="1"/>
+    <col min="1" max="1" width="4.09765625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.09765625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.8984375" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="8.69921875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -560,1617 +904,1803 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
+      <c r="C18" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="4" t="s">
+      <c r="B23" s="5"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
+      <c r="C24" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A25" s="2">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
+      <c r="B25" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A26" s="2">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
+      <c r="B26" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A27" s="2">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
+      <c r="B27" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A28" s="2">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
+      <c r="B28" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A29" s="2">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
+      <c r="B29" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A30" s="2">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
+      <c r="B30" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A31" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
+      <c r="B31" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A32" s="2">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
+      <c r="B32" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A33" s="2">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
+      <c r="B33" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A34" s="2">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
+      <c r="B34" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A35" s="2">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
+      <c r="B35" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A36" s="2">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
+      <c r="B36" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="21" x14ac:dyDescent="0.45">
+      <c r="A37" s="2">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
+      <c r="B37" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A38" s="2">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
+      <c r="B38" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A39" s="2">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
+      <c r="B39" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A40" s="2">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
+      <c r="B40" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A41" s="2">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
+      <c r="B41" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A42" s="2">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="1">
+      <c r="B42" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A43" s="2">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="1">
+      <c r="B43" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A44" s="2">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="1">
+      <c r="B44" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="21" x14ac:dyDescent="0.45">
+      <c r="A45" s="2">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="1">
+      <c r="B45" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A46" s="2">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" s="1">
+      <c r="B46" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A47" s="2">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" s="1">
+      <c r="B47" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A48" s="2">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A49" s="2">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A50" s="2">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A51" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A52" s="2">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A53" s="2">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A54" s="2">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A55" s="2">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" s="1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A56" s="2">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" s="1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A57" s="2">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" s="1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A58" s="2">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" s="1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A59" s="2">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" s="1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A60" s="2">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" s="1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A61" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" s="1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A62" s="2">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" s="1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A63" s="2">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" s="1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A64" s="2">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" s="1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A65" s="2">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" s="1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A66" s="2">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" s="1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A67" s="2">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68" s="1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A68" s="2">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69" s="1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A69" s="2">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70" s="1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A70" s="2">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71" s="1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A71" s="2">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72" s="1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A72" s="2">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73" s="1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A73" s="2">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74" s="1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A74" s="2">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75" s="1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A75" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" s="1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A76" s="2">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77" s="1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A77" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78" s="1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A78" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A79" s="1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A79" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80" s="1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A80" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" s="1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A81" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" s="1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A82" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83" s="1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A83" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" s="1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A84" s="2">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85" s="1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A85" s="2">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" s="1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A86" s="2">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87" s="1">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A87" s="2">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88" s="1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A88" s="2">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A89" s="1">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A89" s="2">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90" s="1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A90" s="2">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A91" s="1">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A91" s="2">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A92" s="1">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A92" s="2">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A93" s="1">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A93" s="2">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A94" s="1">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A94" s="2">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A95" s="1">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A95" s="2">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A96" s="1">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A96" s="2">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A97" s="1">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A97" s="2">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A98" s="1">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A98" s="2">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A99" s="1">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A99" s="2">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A100" s="1">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A100" s="2">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A101" s="1">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A101" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A102" s="1">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A102" s="2">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A103" s="1">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A103" s="2">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A104" s="1">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A104" s="2">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A105" s="1">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A105" s="2">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A106" s="1">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A106" s="2">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A107" s="1">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A107" s="2">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A108" s="1">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A108" s="2">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A109" s="1">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A109" s="2">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A110" s="1">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A110" s="2">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A111" s="1">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A111" s="2">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A112" s="1">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A112" s="2">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A113" s="1">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A113" s="2">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A114" s="1">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A114" s="2">
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A115" s="1">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A115" s="2">
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A116" s="1">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A116" s="2">
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A117" s="1">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A117" s="2">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A118" s="1">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A118" s="2">
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A119" s="1">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A119" s="2">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A120" s="1">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A120" s="2">
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A121" s="1">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A121" s="2">
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A122" s="1">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A122" s="2">
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A123" s="1">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A123" s="2">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A124" s="1">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A124" s="2">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A125" s="1">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A125" s="2">
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A126" s="1">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A126" s="2">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A127" s="1">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A127" s="2">
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A128" s="1">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A128" s="2">
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A129" s="1">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A129" s="2">
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A130" s="1">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A130" s="2">
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A131" s="1">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A131" s="2">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A132" s="1">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A132" s="2">
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A133" s="1">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A133" s="2">
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A134" s="1">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A134" s="2">
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A135" s="1">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A135" s="2">
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A136" s="1">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A136" s="2">
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A137" s="1">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A137" s="2">
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A138" s="1">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A138" s="2">
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A139" s="1">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A139" s="2">
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A140" s="1">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A140" s="2">
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A141" s="1">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A141" s="2">
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A142" s="1">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A142" s="2">
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A143" s="1">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A143" s="2">
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A144" s="1">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A144" s="2">
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A145" s="1">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A145" s="2">
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A146" s="1">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A146" s="2">
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A147" s="1">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A147" s="2">
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A148" s="1">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A148" s="2">
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A149" s="1">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A149" s="2">
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A150" s="1">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A150" s="2">
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A151" s="1">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A151" s="2">
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A152" s="1">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A152" s="2">
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A153" s="1">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A153" s="2">
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A154" s="1">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A154" s="2">
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A155" s="1">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A155" s="2">
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A156" s="1">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A156" s="2">
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A157" s="1">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A157" s="2">
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A158" s="1">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A158" s="2">
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A159" s="1">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A159" s="2">
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A160" s="1">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A160" s="2">
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A161" s="1">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A161" s="2">
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A162" s="1">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A162" s="2">
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A163" s="1">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A163" s="2">
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A164" s="1">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A164" s="2">
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A165" s="1">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A165" s="2">
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A166" s="1">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A166" s="2">
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A167" s="1">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A167" s="2">
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A168" s="1">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A168" s="2">
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A169" s="1">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A169" s="2">
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A170" s="1">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A170" s="2">
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A171" s="1">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A171" s="2">
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A172" s="1">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A172" s="2">
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A173" s="1">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A173" s="2">
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A174" s="1">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A174" s="2">
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A175" s="1">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A175" s="2">
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A176" s="1">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A176" s="2">
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A177" s="1">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A177" s="2">
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A178" s="1">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A178" s="2">
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A179" s="1">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A179" s="2">
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A180" s="1">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A180" s="2">
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A181" s="1">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A181" s="2">
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A182" s="1">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A182" s="2">
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A183" s="1">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A183" s="2">
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A184" s="1">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A184" s="2">
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A185" s="1">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A185" s="2">
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A186" s="1">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A186" s="2">
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A187" s="1">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A187" s="2">
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A188" s="1">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A188" s="2">
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A189" s="1">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A189" s="2">
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A190" s="1">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A190" s="2">
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A191" s="1">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A191" s="2">
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A192" s="1">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A192" s="2">
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A193" s="1">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A193" s="2">
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A194" s="1">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A194" s="2">
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A195" s="1">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A195" s="2">
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A196" s="1">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A196" s="2">
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A197" s="1">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A197" s="2">
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A198" s="1">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A198" s="2">
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A199" s="1">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A199" s="2">
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A200" s="1">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A200" s="2">
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A201" s="1">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A201" s="2">
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A202" s="1">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A202" s="2">
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A203" s="1">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A203" s="2">
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A204" s="1">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A204" s="2">
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A205" s="1">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A205" s="2">
         <v>204</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A206" s="1">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A206" s="2">
         <v>205</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A207" s="1">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A207" s="2">
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A208" s="1">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A208" s="2">
         <v>207</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A209" s="1">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A209" s="2">
         <v>208</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A210" s="1">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A210" s="2">
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A211" s="1">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A211" s="2">
         <v>210</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A212" s="1">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A212" s="2">
         <v>211</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A213" s="1">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A213" s="2">
         <v>212</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A214" s="1">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A214" s="2">
         <v>213</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A215" s="1">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A215" s="2">
         <v>214</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A216" s="1">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A216" s="2">
         <v>215</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A217" s="1">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A217" s="2">
         <v>216</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A218" s="1">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A218" s="2">
         <v>217</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A219" s="1">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A219" s="2">
         <v>218</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A220" s="1">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A220" s="2">
         <v>219</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A221" s="1">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A221" s="2">
         <v>220</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A222" s="1">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A222" s="2">
         <v>221</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A223" s="1">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A223" s="2">
         <v>222</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A224" s="1">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A224" s="2">
         <v>223</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A225" s="1">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A225" s="2">
         <v>224</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A226" s="1">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A226" s="2">
         <v>225</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A227" s="1">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A227" s="2">
         <v>226</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A228" s="1">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A228" s="2">
         <v>227</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A229" s="1">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A229" s="2">
         <v>228</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A230" s="1">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A230" s="2">
         <v>229</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A231" s="1">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A231" s="2">
         <v>230</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A232" s="1">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A232" s="2">
         <v>231</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A233" s="1">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A233" s="2">
         <v>232</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A234" s="1">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A234" s="2">
         <v>233</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A235" s="1">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A235" s="2">
         <v>234</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A236" s="1">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A236" s="2">
         <v>235</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A237" s="1">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A237" s="2">
         <v>236</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A238" s="1">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A238" s="2">
         <v>237</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A239" s="1">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A239" s="2">
         <v>238</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A240" s="1">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A240" s="2">
         <v>239</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A241" s="1">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A241" s="2">
         <v>240</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A242" s="1">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A242" s="2">
         <v>241</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A243" s="1">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A243" s="2">
         <v>242</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A244" s="1">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A244" s="2">
         <v>243</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A245" s="1">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A245" s="2">
         <v>244</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A246" s="1">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A246" s="2">
         <v>245</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A247" s="1">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A247" s="2">
         <v>246</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A248" s="1">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A248" s="2">
         <v>247</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A249" s="1">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A249" s="2">
         <v>248</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A250" s="1">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A250" s="2">
         <v>249</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A251" s="1">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A251" s="2">
         <v>250</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A252" s="1">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A252" s="2">
         <v>251</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A253" s="1">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A253" s="2">
         <v>252</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A254" s="1">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A254" s="2">
         <v>253</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A255" s="1">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A255" s="2">
         <v>254</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A256" s="1">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A256" s="2">
         <v>255</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A257" s="1">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A257" s="2">
         <v>256</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A258" s="1">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A258" s="2">
         <v>257</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A259" s="1">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A259" s="2">
         <v>258</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A260" s="1">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A260" s="2">
         <v>259</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A261" s="1">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A261" s="2">
         <v>260</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A262" s="1">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A262" s="2">
         <v>261</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A263" s="1">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A263" s="2">
         <v>262</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A264" s="1">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A264" s="2">
         <v>263</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A265" s="1">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A265" s="2">
         <v>264</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A266" s="1">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A266" s="2">
         <v>265</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A267" s="1">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A267" s="2">
         <v>266</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A268" s="1">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A268" s="2">
         <v>267</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A269" s="1">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A269" s="2">
         <v>268</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A270" s="1">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A270" s="2">
         <v>269</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A271" s="1">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A271" s="2">
         <v>270</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A272" s="1">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A272" s="2">
         <v>271</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A273" s="1">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A273" s="2">
         <v>272</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A274" s="1">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A274" s="2">
         <v>273</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A275" s="1">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A275" s="2">
         <v>274</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A276" s="1">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A276" s="2">
         <v>275</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A277" s="1">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A277" s="2">
         <v>276</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A278" s="1">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A278" s="2">
         <v>277</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A279" s="1">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A279" s="2">
         <v>278</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A280" s="1">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A280" s="2">
         <v>279</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A281" s="1">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A281" s="2">
         <v>280</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A282" s="1">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A282" s="2">
         <v>281</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A283" s="1">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A283" s="2">
         <v>282</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A284" s="1">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A284" s="2">
         <v>283</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A285" s="1">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A285" s="2">
         <v>284</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A286" s="1">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A286" s="2">
         <v>285</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A287" s="1">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A287" s="2">
         <v>286</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A288" s="1">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A288" s="2">
         <v>287</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A289" s="1">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A289" s="2">
         <v>288</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A290" s="1">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A290" s="2">
         <v>289</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A291" s="1">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A291" s="2">
         <v>290</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A292" s="1">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A292" s="2">
         <v>291</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A293" s="1">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A293" s="2">
         <v>292</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A294" s="1">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A294" s="2">
         <v>293</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A295" s="1">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A295" s="2">
         <v>294</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A296" s="1">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A296" s="2">
         <v>295</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A297" s="1">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A297" s="2">
         <v>296</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A298" s="1">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A298" s="2">
         <v>297</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A299" s="1">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A299" s="2">
         <v>298</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A300" s="1">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A300" s="2">
         <v>299</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A301" s="1">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A301" s="2">
         <v>300</v>
       </c>
     </row>
-    <row r="1048576" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1048576" s="1">
+    <row r="1048576" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1048576" s="2">
         <f>SUM(A2:A1048575)</f>
         <v>45150</v>
       </c>
@@ -2180,50 +2710,1841 @@
     <mergeCell ref="B22:B23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D33" r:id="rId1" display="https://www.google.com/search?sxsrf=APwXEdfRNgvMGYwg--15DxTaEFwNRdF8ug:1682214644759&amp;q=oneself&amp;si=AMnBZoFHF1DJLZWpTBtQDK262RMpfBGsjUctGHm4RNC_D-luTgjJAvMtsn9NK1L7j1qAjELr1Rki3knsHek5bbSAHPBSKCQfkA%3D%3D&amp;expnd=1"/>
+    <hyperlink ref="C35" r:id="rId2" display="https://www.google.com/search?sxsrf=APwXEddY1z9sQwwqiKc3q-q4ZWOhkAO61w:1682231607742&amp;q=oscillates&amp;si=AMnBZoFY6cJe4EcBOpcoqxHCe-IfgUwKKfkq-ShVKBQznqEfJyiEamacpfx0NoI4SbjK22mB7Ta7W0lv7ySY3JWM9DAK-xqGbQ%3D%3D&amp;expnd=1&amp;biw=1536&amp;bih=722&amp;dpr=1.25"/>
+    <hyperlink ref="E38" r:id="rId3" display="https://www.google.com/search?hl=en&amp;sxsrf=APwXEdcOhYMBIuiKLItePJSUtHfGWpm8cA:1682234416676&amp;q=molten&amp;si=AMnBZoEP2YukYW07_nAjizsjQPEkgtbzjWW61xJz2V7DNZJzAs6qvI0OaO_7AQYhYx0946u9fzR0uK1PPWwVRBZZo3vL2UHk1Q%3D%3D&amp;expnd=1"/>
+    <hyperlink ref="C39" r:id="rId4" display="https://www.google.com/search?sxsrf=APwXEdcKjMSV3ibwtnj7tIew4ue-8EzP0g:1682234816952&amp;q=wages&amp;si=AMnBZoGP34IVl-vQ5XB3AyP2dfbgI6igy29Jks2Iwmvxqis94C6nWBRDDwGvRNtd66zKznL6M5VPoSqnwnI6DzkmocVzpEPQ8g%3D%3D&amp;expnd=1"/>
+    <hyperlink ref="E40" r:id="rId5" display="https://www.google.com/search?hl=en&amp;sxsrf=APwXEddfvwPE-ynRNWr0DUMSkA6YBNw8Iw:1682235052565&amp;q=resolute&amp;si=AMnBZoFm76bvId4K9j6r5bU9rVYrgS4B1d0kRmL9589zGk0I5BnshdVmKLnlpzkkKeM9vd7nBDEY_eYD7EpaUxawW7JWimtoyA%3D%3D&amp;expnd=1"/>
+    <hyperlink ref="C42" r:id="rId6" display="https://www.google.com/search?biw=1536&amp;bih=722&amp;sxsrf=APwXEdcW4X1Oie4qP0gW5lSQmy6cVpdTTw:1682235457369&amp;q=unpleasant&amp;si=AMnBZoFY6cJe4EcBOpcoqxHCe-If1uTtJ6VBc-_1b4jiYeuA5FDypCd8umsfx6EyUOK0yjsl0d1foIMBWA6ehw7jnchdrFgXFg%3D%3D&amp;expnd=1"/>
+    <hyperlink ref="D42" r:id="rId7" display="https://www.google.com/search?biw=1536&amp;bih=722&amp;sxsrf=APwXEdcW4X1Oie4qP0gW5lSQmy6cVpdTTw:1682235457369&amp;q=unwelcome&amp;si=AMnBZoFEI0LGJdD1jElhAGFwRnmoYxvLTEUiQimfmsTKDsX0XDi1g5LA-2dVkRSjTRQUhkLTlNXWY6qQt4k_HNe39qov36CYlQ%3D%3D&amp;expnd=1"/>
+    <hyperlink ref="C43" r:id="rId8" display="https://www.google.com/search?sxsrf=APwXEdcW4X1Oie4qP0gW5lSQmy6cVpdTTw:1682235457369&amp;q=unwelcome&amp;si=AMnBZoFEI0LGJdD1jElhAGFwRnmoYxvLTEUiQimfmsTKDsX0XDi1g5LA-2dVkRSjTRQUhkLTlNXWY6qQt4k_HNe39qov36CYlQ%3D%3D&amp;expnd=1&amp;biw=1536&amp;bih=722&amp;dpr=1.25"/>
+    <hyperlink ref="D44" r:id="rId9" display="https://www.google.com/search?hl=en&amp;sxsrf=APwXEdcSx77T0OyZqlDlozXDyQc6IcnxXw:1682236155032&amp;q=constitutional&amp;si=AMnBZoGo5JO1-RMo7Hmdi0jk7E03OlilGNxCLEemQ4vJUYxlaNZgNpfKDBi8pKWpkR_RdgGKd_h8-NmYHc4OPdvu4PPfv2jlnB6yXbkUYDy9R6tZ2lVQm34%3D&amp;expnd=1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D345"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="10" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.69921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A50">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A52">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A53">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A54">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A55">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A56">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A57">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A58">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A59">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A60">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A61">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A62">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A63">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A64">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A65">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A66">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A67">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A68">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A69">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A70">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A71">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A72">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A73">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A74">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A75">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A76">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A77">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A78">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A79">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A80">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A81">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A82">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A83">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A84">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A85">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A86">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A87">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A88">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A89">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A90">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A91">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A92">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A93">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A94">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A95">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A96">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A97">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A98">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A99">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A100">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A101">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A102">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A103">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A104">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A105">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A106">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A107">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A108">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A109">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A110">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A111">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A112">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A113">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A114">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A115">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A116">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A117">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A118">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A119">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A120">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A121">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A122">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A123">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A124">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A125">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A126">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A127">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A128">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A129">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A130">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A131">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A132">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A133">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A134">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A135">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A136">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A137">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A138">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A139">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A140">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A141">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A142">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A143">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A144">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A145">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A146">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A147">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A148">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A149">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A150">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A151">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A152">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A153">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A154">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A155">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A156">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A157">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A158">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A159">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A160">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A161">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A162">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A163">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A164">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A165">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A166">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A167">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A168">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A169">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A170">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A171">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A172">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A173">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A174">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A175">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A176">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A177">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A178">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A179">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A180">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A181">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A182">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A183">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A184">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A185">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A186">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A187">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A188">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A189">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A190">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A191">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A192">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A193">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A194">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A195">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A196">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A197">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A198">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A199">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A200">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A201">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A202">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A203">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A204">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A205">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A206">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A207">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A208">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A209">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A210">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A211">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A212">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A213">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A214">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A215">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A216">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A217">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A218">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A219">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A220">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A221">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A222">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A223">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A224">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A225">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A226">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A227">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A228">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A229">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A230">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A231">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A232">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A233">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A234">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A235">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A236">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A237">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A238">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A239">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A240">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A241">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A242">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A243">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A244">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A245">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A246">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A247">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A248">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A249">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A250">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A251">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A252">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A253">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A254">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A255">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A256">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A257">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A258">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A259">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A260">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A261">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A262">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A263">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A264">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A265">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A266">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A267">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A268">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A269">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A270">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A271">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A272">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A273">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A274">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A275">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A276">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A277">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A278">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A279">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A280">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A281">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A282">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A283">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A284">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A285">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A286">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A287">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A288">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A289">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A290">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A291">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A292">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A293">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A294">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A295">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A296">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A297">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A298">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A299">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A300">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A301">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A302">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A303">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A304">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A305">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A306">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A307">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A308">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A309">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A310">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A311">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A312">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A313">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A314">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A315">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A316">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A317">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A318">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A319">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A320">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A321">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A322">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A323">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A324">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A325">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A326">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A327">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A328">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A329">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A330">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A331">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A332">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A333">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A334">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A335">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A336">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A337">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A338">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A339">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A340">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A341">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A342">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A343">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A344">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A345">
+        <v>344</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:B6"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="255.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="255.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>27</v>
       </c>
@@ -2231,5 +4552,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/english.xlsx
+++ b/english.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="word" sheetId="1" r:id="rId1"/>
-    <sheet name="pronounciation" sheetId="3" r:id="rId2"/>
-    <sheet name="grammar" sheetId="2" r:id="rId3"/>
+    <sheet name="GdEx" sheetId="5" r:id="rId2"/>
+    <sheet name="pronounciation" sheetId="3" r:id="rId3"/>
+    <sheet name="grammar" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="135">
   <si>
     <t>word</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -273,10 +274,6 @@
     <t>"the power delegated to him must never be misused"</t>
   </si>
   <si>
-    <t>all-in-one</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>entrust (a task or responsibility) to another person, typically one who is less senior than oneself.</t>
   </si>
   <si>
@@ -309,21 +306,6 @@
     <t> to be recommended; sensible.</t>
   </si>
   <si>
-    <r>
-      <t>cast</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="7"/>
-        <color rgb="FFE8EAED"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
     <t>cause (light or shadow) to appear on a surface.</t>
   </si>
   <si>
@@ -408,6 +390,22 @@
   </si>
   <si>
     <t>able to take a direct object</t>
+  </si>
+  <si>
+    <t>e.g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>denote</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[a]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apple</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -416,64 +414,128 @@
     <r>
       <rPr>
         <i/>
-        <sz val="8"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
       </rPr>
       <t>saw</t>
     </r>
     <r>
       <rPr>
-        <sz val="8"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
       </rPr>
       <t> in </t>
     </r>
     <r>
       <rPr>
         <i/>
-        <sz val="8"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
       </rPr>
       <t>he saw the donkey</t>
     </r>
     <r>
       <rPr>
-        <sz val="8"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
       </rPr>
       <t>.</t>
     </r>
   </si>
   <si>
-    <t>e.g</t>
+    <t>cast</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>denote</t>
+    <t>used with an abstract noun so that the phrase formed has the same meaning as the verb related to the noun used, e.g., “lay the blame on” means ‘to blame’.</t>
+  </si>
+  <si>
+    <t>simmilar with on especially used in abstract noun</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[a]</t>
+    <t>Good Word</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>apple</t>
+    <t>the power or right to give orders, make decisions, and enforce obedience.</t>
+  </si>
+  <si>
+    <t>suspect</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>have an idea or impression of the existence, presence, or truth of (something) without certain proof.</t>
+  </si>
+  <si>
+    <t>doubt the genuineness or truth of.</t>
+  </si>
+  <si>
+    <t>a person thought to be guilty of a crime or offense.</t>
+  </si>
+  <si>
+    <t>not to be relied on or trusted; possibly dangerous or false.</t>
+  </si>
+  <si>
+    <t>211vna</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>genuine</t>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>truly what something is said to be; authentic.</t>
+  </si>
+  <si>
+    <t>(of a person, emotion, or action) sincere.</t>
+  </si>
+  <si>
+    <t>bind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sincere</t>
+  </si>
+  <si>
+    <t>free from pretense or deceit; proceeding from genuine feelings.</t>
+  </si>
+  <si>
+    <t>(of a person) saying what they genuinely feel or believe; not dishonest or hypocritical.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -483,13 +545,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -516,31 +571,29 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <vertAlign val="superscript"/>
-      <sz val="7"/>
-      <color rgb="FFE8EAED"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="8"/>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -562,44 +615,38 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -882,1856 +929,3488 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1048576"/>
+  <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.09765625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.09765625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.8984375" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="8.69921875" style="2"/>
+    <col min="1" max="1" width="4.09765625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="6.3984375" style="13" customWidth="1"/>
+    <col min="3" max="3" width="16.09765625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="8.8984375" style="7" customWidth="1"/>
+    <col min="5" max="16384" width="8.69921875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2" s="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="11" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" s="2">
+      <c r="D2" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" s="2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" s="2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" s="2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" s="2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8" s="2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9" s="2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A10" s="2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A11" s="2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A12" s="2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A13" s="2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="D13" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A14" s="2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" s="6">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A15" s="2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" s="6">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A16" s="2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16" s="6">
         <v>15</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="D16" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A17" s="2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A17" s="6">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D17" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A18" s="2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A18" s="6">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A19" s="6">
+        <v>18</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A20" s="6">
+        <v>19</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A21" s="6">
+        <v>20</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A22" s="6">
         <v>21</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C22" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A23" s="6">
+        <v>22</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A24" s="6">
+        <v>23</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A25" s="6">
+        <v>24</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A26" s="6">
+        <v>25</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A27" s="6">
+        <v>26</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A28" s="6">
+        <v>27</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A29" s="6">
+        <v>28</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A30" s="6">
+        <v>29</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30" s="10" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A19" s="2">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A20" s="2">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A31" s="6">
+        <v>30</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A32" s="6">
+        <v>31</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A33" s="6">
+        <v>32</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A34" s="6">
+        <v>33</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A35" s="6">
+        <v>34</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A36" s="6">
+        <v>35</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A37" s="6">
         <v>36</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C37" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A38" s="6">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A21" s="2">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2" t="s">
+      <c r="C38" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A39" s="6">
         <v>38</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C39" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A40" s="6">
         <v>39</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A22" s="2">
-        <v>21</v>
-      </c>
-      <c r="B22" s="5" t="s">
+      <c r="C40" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A41" s="6">
         <v>40</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C41" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A42" s="6">
+        <v>41</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A43" s="6">
+        <v>42</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A44" s="6">
+        <v>43</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A45" s="6">
+        <v>44</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A46" s="6">
+        <v>45</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A47" s="6">
+        <v>46</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A48" s="6">
+        <v>47</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A49" s="6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A50" s="6">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A51" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A52" s="6">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A53" s="6">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A54" s="6">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A55" s="6">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A56" s="6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A57" s="6">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A58" s="6">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A59" s="6">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A60" s="6">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A61" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A62" s="6">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A63" s="6">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A64" s="6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A65" s="6">
         <v>64</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A23" s="2">
-        <v>22</v>
-      </c>
-      <c r="B23" s="5"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A24" s="2">
-        <v>23</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A25" s="2">
-        <v>24</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A26" s="2">
-        <v>25</v>
-      </c>
-      <c r="B26" s="4" t="s">
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A66" s="6">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A67" s="6">
         <v>66</v>
       </c>
-      <c r="C26" s="4" t="s">
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A68" s="6">
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A27" s="2">
-        <v>26</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A28" s="2">
-        <v>27</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A29" s="2">
-        <v>28</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A30" s="2">
-        <v>29</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A31" s="2">
-        <v>30</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A32" s="2">
-        <v>31</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A33" s="2">
-        <v>32</v>
-      </c>
-      <c r="B33" s="2" t="s">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A69" s="6">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A70" s="6">
         <v>69</v>
       </c>
-      <c r="C33" s="4" t="s">
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A71" s="6">
         <v>70</v>
       </c>
-      <c r="D33" s="9" t="s">
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A72" s="6">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A73" s="6">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A74" s="6">
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A34" s="2">
-        <v>33</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C34" s="4" t="s">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A75" s="6">
         <v>74</v>
       </c>
-      <c r="D34" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="22.2" x14ac:dyDescent="0.45">
-      <c r="A35" s="2">
-        <v>34</v>
-      </c>
-      <c r="B35" s="10" t="s">
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A76" s="6">
         <v>75</v>
       </c>
-      <c r="C35" s="9" t="s">
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A77" s="6">
         <v>76</v>
       </c>
-      <c r="D35" s="8" t="s">
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A78" s="6">
         <v>77</v>
       </c>
-      <c r="E35" s="2" t="s">
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A79" s="6">
         <v>78</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A36" s="2">
-        <v>35</v>
-      </c>
-      <c r="B36" s="8" t="s">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A80" s="6">
         <v>79</v>
       </c>
-      <c r="C36" s="11" t="s">
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A81" s="6">
         <v>80</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="21" x14ac:dyDescent="0.45">
-      <c r="A37" s="2">
-        <v>36</v>
-      </c>
-      <c r="B37" s="12" t="s">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A82" s="6">
         <v>81</v>
       </c>
-      <c r="C37" s="8" t="s">
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A83" s="6">
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="22.2" x14ac:dyDescent="0.45">
-      <c r="A38" s="2">
-        <v>37</v>
-      </c>
-      <c r="B38" s="10" t="s">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A84" s="6">
         <v>83</v>
       </c>
-      <c r="C38" s="8" t="s">
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A85" s="6">
         <v>84</v>
       </c>
-      <c r="D38" s="8" t="s">
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A86" s="6">
         <v>85</v>
       </c>
-      <c r="E38" s="9" t="s">
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A87" s="6">
         <v>86</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A39" s="2">
-        <v>38</v>
-      </c>
-      <c r="B39" s="2" t="s">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A88" s="6">
         <v>87</v>
       </c>
-      <c r="C39" s="9" t="s">
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A89" s="6">
         <v>88</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A40" s="2">
-        <v>39</v>
-      </c>
-      <c r="B40" s="2" t="s">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A90" s="6">
         <v>89</v>
       </c>
-      <c r="C40" s="8" t="s">
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A91" s="6">
         <v>90</v>
       </c>
-      <c r="D40" s="8" t="s">
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A92" s="6">
         <v>91</v>
       </c>
-      <c r="E40" s="9" t="s">
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A93" s="6">
         <v>92</v>
       </c>
-      <c r="F40" s="8" t="s">
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A94" s="6">
         <v>93</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="22.2" x14ac:dyDescent="0.45">
-      <c r="A41" s="2">
-        <v>40</v>
-      </c>
-      <c r="B41" s="10" t="s">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A95" s="6">
         <v>94</v>
       </c>
-      <c r="C41" s="8" t="s">
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A96" s="6">
         <v>95</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="22.2" x14ac:dyDescent="0.45">
-      <c r="A42" s="2">
-        <v>41</v>
-      </c>
-      <c r="B42" s="10" t="s">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A97" s="6">
         <v>96</v>
       </c>
-      <c r="C42" s="9" t="s">
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A98" s="6">
         <v>97</v>
       </c>
-      <c r="D42" s="9" t="s">
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A99" s="6">
         <v>98</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A43" s="2">
-        <v>42</v>
-      </c>
-      <c r="B43" s="13" t="s">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A100" s="6">
         <v>99</v>
       </c>
-      <c r="C43" s="9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="22.2" x14ac:dyDescent="0.45">
-      <c r="A44" s="2">
-        <v>43</v>
-      </c>
-      <c r="B44" s="10" t="s">
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A101" s="6">
         <v>100</v>
       </c>
-      <c r="C44" s="8" t="s">
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A102" s="6">
         <v>101</v>
       </c>
-      <c r="D44" s="9" t="s">
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A103" s="6">
         <v>102</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="21" x14ac:dyDescent="0.45">
-      <c r="A45" s="2">
-        <v>44</v>
-      </c>
-      <c r="B45" s="14" t="s">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A104" s="6">
         <v>103</v>
       </c>
-      <c r="C45" s="8" t="s">
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A105" s="6">
         <v>104</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="22.2" x14ac:dyDescent="0.45">
-      <c r="A46" s="2">
-        <v>45</v>
-      </c>
-      <c r="B46" s="10" t="s">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A106" s="6">
         <v>105</v>
       </c>
-      <c r="C46" s="8" t="s">
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A107" s="6">
         <v>106</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="22.2" x14ac:dyDescent="0.45">
-      <c r="A47" s="2">
-        <v>46</v>
-      </c>
-      <c r="B47" s="10" t="s">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A108" s="6">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A109" s="6">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A110" s="6">
         <v>109</v>
       </c>
-      <c r="C47" s="11" t="s">
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A111" s="6">
         <v>110</v>
       </c>
-      <c r="D47" s="11" t="s">
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A112" s="6">
         <v>111</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A48" s="2">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A49" s="2">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A50" s="2">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A51" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A52" s="2">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A53" s="2">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A54" s="2">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A55" s="2">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A56" s="2">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A57" s="2">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A58" s="2">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A59" s="2">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A60" s="2">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A61" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A62" s="2">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A63" s="2">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A64" s="2">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A65" s="2">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A66" s="2">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A67" s="2">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A68" s="2">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A69" s="2">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A70" s="2">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A71" s="2">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A72" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A73" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A74" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A75" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A76" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A77" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A78" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A79" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A80" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A81" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A82" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A83" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A84" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A85" s="2">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A86" s="2">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A87" s="2">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A88" s="2">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A89" s="2">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A90" s="2">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A91" s="2">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A92" s="2">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A93" s="2">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A94" s="2">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A95" s="2">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A96" s="2">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A97" s="2">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A98" s="2">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A99" s="2">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A100" s="2">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A101" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A102" s="2">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A103" s="2">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A104" s="2">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A105" s="2">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A106" s="2">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A107" s="2">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A108" s="2">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A109" s="2">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A110" s="2">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A111" s="2">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A112" s="2">
-        <v>111</v>
-      </c>
-    </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A113" s="2">
+      <c r="A113" s="6">
         <v>112</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A114" s="2">
+      <c r="A114" s="6">
         <v>113</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A115" s="2">
+      <c r="A115" s="6">
         <v>114</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A116" s="2">
+      <c r="A116" s="6">
         <v>115</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A117" s="2">
+      <c r="A117" s="6">
         <v>116</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A118" s="2">
+      <c r="A118" s="6">
         <v>117</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A119" s="2">
+      <c r="A119" s="6">
         <v>118</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A120" s="2">
+      <c r="A120" s="6">
         <v>119</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A121" s="2">
+      <c r="A121" s="6">
         <v>120</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A122" s="2">
+      <c r="A122" s="6">
         <v>121</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A123" s="2">
+      <c r="A123" s="6">
         <v>122</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A124" s="2">
+      <c r="A124" s="6">
         <v>123</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A125" s="2">
+      <c r="A125" s="6">
         <v>124</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A126" s="2">
+      <c r="A126" s="6">
         <v>125</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A127" s="2">
+      <c r="A127" s="6">
         <v>126</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A128" s="2">
+      <c r="A128" s="6">
         <v>127</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A129" s="2">
+      <c r="A129" s="6">
         <v>128</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A130" s="2">
+      <c r="A130" s="6">
         <v>129</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A131" s="2">
+      <c r="A131" s="6">
         <v>130</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A132" s="2">
+      <c r="A132" s="6">
         <v>131</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A133" s="2">
+      <c r="A133" s="6">
         <v>132</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A134" s="2">
+      <c r="A134" s="6">
         <v>133</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A135" s="2">
+      <c r="A135" s="6">
         <v>134</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A136" s="2">
+      <c r="A136" s="6">
         <v>135</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A137" s="2">
+      <c r="A137" s="6">
         <v>136</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A138" s="2">
+      <c r="A138" s="6">
         <v>137</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A139" s="2">
+      <c r="A139" s="6">
         <v>138</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A140" s="2">
+      <c r="A140" s="6">
         <v>139</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A141" s="2">
+      <c r="A141" s="6">
         <v>140</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A142" s="2">
+      <c r="A142" s="6">
         <v>141</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A143" s="2">
+      <c r="A143" s="6">
         <v>142</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A144" s="2">
+      <c r="A144" s="6">
         <v>143</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A145" s="2">
+      <c r="A145" s="6">
         <v>144</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A146" s="2">
+      <c r="A146" s="6">
         <v>145</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A147" s="2">
+      <c r="A147" s="6">
         <v>146</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A148" s="2">
+      <c r="A148" s="6">
         <v>147</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A149" s="2">
+      <c r="A149" s="6">
         <v>148</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A150" s="2">
+      <c r="A150" s="6">
         <v>149</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A151" s="2">
+      <c r="A151" s="6">
         <v>150</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A152" s="2">
+      <c r="A152" s="6">
         <v>151</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A153" s="2">
+      <c r="A153" s="6">
         <v>152</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A154" s="2">
+      <c r="A154" s="6">
         <v>153</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A155" s="2">
+      <c r="A155" s="6">
         <v>154</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A156" s="2">
+      <c r="A156" s="6">
         <v>155</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A157" s="2">
+      <c r="A157" s="6">
         <v>156</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A158" s="2">
+      <c r="A158" s="6">
         <v>157</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A159" s="2">
+      <c r="A159" s="6">
         <v>158</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A160" s="2">
+      <c r="A160" s="6">
         <v>159</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A161" s="2">
+      <c r="A161" s="6">
         <v>160</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A162" s="2">
+      <c r="A162" s="6">
         <v>161</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A163" s="2">
+      <c r="A163" s="6">
         <v>162</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A164" s="2">
+      <c r="A164" s="6">
         <v>163</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A165" s="2">
+      <c r="A165" s="6">
         <v>164</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A166" s="2">
+      <c r="A166" s="6">
         <v>165</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A167" s="2">
+      <c r="A167" s="6">
         <v>166</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A168" s="2">
+      <c r="A168" s="6">
         <v>167</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A169" s="2">
+      <c r="A169" s="6">
         <v>168</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A170" s="2">
+      <c r="A170" s="6">
         <v>169</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A171" s="2">
+      <c r="A171" s="6">
         <v>170</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A172" s="2">
+      <c r="A172" s="6">
         <v>171</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A173" s="2">
+      <c r="A173" s="6">
         <v>172</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A174" s="2">
+      <c r="A174" s="6">
         <v>173</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A175" s="2">
+      <c r="A175" s="6">
         <v>174</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A176" s="2">
+      <c r="A176" s="6">
         <v>175</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A177" s="2">
+      <c r="A177" s="6">
         <v>176</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A178" s="2">
+      <c r="A178" s="6">
         <v>177</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A179" s="2">
+      <c r="A179" s="6">
         <v>178</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A180" s="2">
+      <c r="A180" s="6">
         <v>179</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A181" s="2">
+      <c r="A181" s="6">
         <v>180</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A182" s="2">
+      <c r="A182" s="6">
         <v>181</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A183" s="2">
+      <c r="A183" s="6">
         <v>182</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A184" s="2">
+      <c r="A184" s="6">
         <v>183</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A185" s="2">
+      <c r="A185" s="6">
         <v>184</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A186" s="2">
+      <c r="A186" s="6">
         <v>185</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A187" s="2">
+      <c r="A187" s="6">
         <v>186</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A188" s="2">
+      <c r="A188" s="6">
         <v>187</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A189" s="2">
+      <c r="A189" s="6">
         <v>188</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A190" s="2">
+      <c r="A190" s="6">
         <v>189</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A191" s="2">
+      <c r="A191" s="6">
         <v>190</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A192" s="2">
+      <c r="A192" s="6">
         <v>191</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A193" s="2">
+      <c r="A193" s="6">
         <v>192</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A194" s="2">
+      <c r="A194" s="6">
         <v>193</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A195" s="2">
+      <c r="A195" s="6">
         <v>194</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A196" s="2">
+      <c r="A196" s="6">
         <v>195</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A197" s="2">
+      <c r="A197" s="6">
         <v>196</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A198" s="2">
+      <c r="A198" s="6">
         <v>197</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A199" s="2">
+      <c r="A199" s="6">
         <v>198</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A200" s="2">
+      <c r="A200" s="6">
         <v>199</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A201" s="2">
+      <c r="A201" s="6">
         <v>200</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A202" s="2">
+      <c r="A202" s="6">
         <v>201</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A203" s="2">
+      <c r="A203" s="6">
         <v>202</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A204" s="2">
+      <c r="A204" s="6">
         <v>203</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A205" s="2">
+      <c r="A205" s="6">
         <v>204</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A206" s="2">
+      <c r="A206" s="6">
         <v>205</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A207" s="2">
+      <c r="A207" s="6">
         <v>206</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A208" s="2">
+      <c r="A208" s="6">
         <v>207</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A209" s="2">
+      <c r="A209" s="6">
         <v>208</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A210" s="2">
+      <c r="A210" s="6">
         <v>209</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A211" s="2">
+      <c r="A211" s="6">
         <v>210</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A212" s="2">
+      <c r="A212" s="6">
         <v>211</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A213" s="2">
+      <c r="A213" s="6">
         <v>212</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A214" s="2">
+      <c r="A214" s="6">
         <v>213</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A215" s="2">
+      <c r="A215" s="6">
         <v>214</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A216" s="2">
+      <c r="A216" s="6">
         <v>215</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A217" s="2">
+      <c r="A217" s="6">
         <v>216</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A218" s="2">
+      <c r="A218" s="6">
         <v>217</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A219" s="2">
+      <c r="A219" s="6">
         <v>218</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A220" s="2">
+      <c r="A220" s="6">
         <v>219</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A221" s="2">
+      <c r="A221" s="6">
         <v>220</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A222" s="2">
+      <c r="A222" s="6">
         <v>221</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A223" s="2">
+      <c r="A223" s="6">
         <v>222</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A224" s="2">
+      <c r="A224" s="6">
         <v>223</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A225" s="2">
+      <c r="A225" s="6">
         <v>224</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A226" s="2">
+      <c r="A226" s="6">
         <v>225</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A227" s="2">
+      <c r="A227" s="6">
         <v>226</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A228" s="2">
+      <c r="A228" s="6">
         <v>227</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A229" s="2">
+      <c r="A229" s="6">
         <v>228</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A230" s="2">
+      <c r="A230" s="6">
         <v>229</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A231" s="2">
+      <c r="A231" s="6">
         <v>230</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A232" s="2">
+      <c r="A232" s="6">
         <v>231</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A233" s="2">
+      <c r="A233" s="6">
         <v>232</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A234" s="2">
+      <c r="A234" s="6">
         <v>233</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A235" s="2">
+      <c r="A235" s="6">
         <v>234</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A236" s="2">
+      <c r="A236" s="6">
         <v>235</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A237" s="2">
+      <c r="A237" s="6">
         <v>236</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A238" s="2">
+      <c r="A238" s="6">
         <v>237</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A239" s="2">
+      <c r="A239" s="6">
         <v>238</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A240" s="2">
+      <c r="A240" s="6">
         <v>239</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A241" s="2">
+      <c r="A241" s="6">
         <v>240</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A242" s="2">
+      <c r="A242" s="6">
         <v>241</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A243" s="2">
+      <c r="A243" s="6">
         <v>242</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A244" s="2">
+      <c r="A244" s="6">
         <v>243</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A245" s="2">
+      <c r="A245" s="6">
         <v>244</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A246" s="2">
+      <c r="A246" s="6">
         <v>245</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A247" s="2">
+      <c r="A247" s="6">
         <v>246</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A248" s="2">
+      <c r="A248" s="6">
         <v>247</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A249" s="2">
+      <c r="A249" s="6">
         <v>248</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A250" s="2">
+      <c r="A250" s="6">
         <v>249</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A251" s="2">
+      <c r="A251" s="6">
         <v>250</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A252" s="2">
+      <c r="A252" s="6">
         <v>251</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A253" s="2">
+      <c r="A253" s="6">
         <v>252</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A254" s="2">
+      <c r="A254" s="6">
         <v>253</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A255" s="2">
+      <c r="A255" s="6">
         <v>254</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A256" s="2">
+      <c r="A256" s="6">
         <v>255</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A257" s="2">
+      <c r="A257" s="6">
         <v>256</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A258" s="2">
+      <c r="A258" s="6">
         <v>257</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A259" s="2">
+      <c r="A259" s="6">
         <v>258</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A260" s="2">
+      <c r="A260" s="6">
         <v>259</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A261" s="2">
+      <c r="A261" s="6">
         <v>260</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A262" s="2">
+      <c r="A262" s="6">
         <v>261</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A263" s="2">
+      <c r="A263" s="6">
         <v>262</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A264" s="2">
+      <c r="A264" s="6">
         <v>263</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A265" s="2">
+      <c r="A265" s="6">
         <v>264</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A266" s="2">
+      <c r="A266" s="6">
         <v>265</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A267" s="2">
+      <c r="A267" s="6">
         <v>266</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A268" s="2">
+      <c r="A268" s="6">
         <v>267</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A269" s="2">
+      <c r="A269" s="6">
         <v>268</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A270" s="2">
+      <c r="A270" s="6">
         <v>269</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A271" s="2">
+      <c r="A271" s="6">
         <v>270</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A272" s="2">
+      <c r="A272" s="6">
         <v>271</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A273" s="2">
+      <c r="A273" s="6">
         <v>272</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A274" s="2">
+      <c r="A274" s="6">
         <v>273</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A275" s="2">
+      <c r="A275" s="6">
         <v>274</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A276" s="2">
+      <c r="A276" s="6">
         <v>275</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A277" s="2">
+      <c r="A277" s="6">
         <v>276</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A278" s="2">
+      <c r="A278" s="6">
         <v>277</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A279" s="2">
+      <c r="A279" s="6">
         <v>278</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A280" s="2">
+      <c r="A280" s="6">
         <v>279</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A281" s="2">
+      <c r="A281" s="6">
         <v>280</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A282" s="2">
+      <c r="A282" s="6">
         <v>281</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A283" s="2">
+      <c r="A283" s="6">
         <v>282</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A284" s="2">
+      <c r="A284" s="6">
         <v>283</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A285" s="2">
+      <c r="A285" s="6">
         <v>284</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A286" s="2">
+      <c r="A286" s="6">
         <v>285</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A287" s="2">
+      <c r="A287" s="6">
         <v>286</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A288" s="2">
+      <c r="A288" s="6">
         <v>287</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A289" s="2">
+      <c r="A289" s="6">
         <v>288</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A290" s="2">
+      <c r="A290" s="6">
         <v>289</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A291" s="2">
+      <c r="A291" s="6">
         <v>290</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A292" s="2">
+      <c r="A292" s="6">
         <v>291</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A293" s="2">
+      <c r="A293" s="6">
         <v>292</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A294" s="2">
+      <c r="A294" s="6">
         <v>293</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A295" s="2">
+      <c r="A295" s="6">
         <v>294</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A296" s="2">
+      <c r="A296" s="6">
         <v>295</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A297" s="2">
+      <c r="A297" s="6">
         <v>296</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A298" s="2">
+      <c r="A298" s="6">
         <v>297</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A299" s="2">
+      <c r="A299" s="6">
         <v>298</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A300" s="2">
+      <c r="A300" s="6">
         <v>299</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A301" s="2">
+      <c r="A301" s="6">
         <v>300</v>
       </c>
     </row>
     <row r="1048576" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1048576" s="2">
+      <c r="A1048576" s="6">
         <f>SUM(A2:A1048575)</f>
         <v>45150</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B22:B23"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D33" r:id="rId1" display="https://www.google.com/search?sxsrf=APwXEdfRNgvMGYwg--15DxTaEFwNRdF8ug:1682214644759&amp;q=oneself&amp;si=AMnBZoFHF1DJLZWpTBtQDK262RMpfBGsjUctGHm4RNC_D-luTgjJAvMtsn9NK1L7j1qAjELr1Rki3knsHek5bbSAHPBSKCQfkA%3D%3D&amp;expnd=1"/>
-    <hyperlink ref="C35" r:id="rId2" display="https://www.google.com/search?sxsrf=APwXEddY1z9sQwwqiKc3q-q4ZWOhkAO61w:1682231607742&amp;q=oscillates&amp;si=AMnBZoFY6cJe4EcBOpcoqxHCe-IfgUwKKfkq-ShVKBQznqEfJyiEamacpfx0NoI4SbjK22mB7Ta7W0lv7ySY3JWM9DAK-xqGbQ%3D%3D&amp;expnd=1&amp;biw=1536&amp;bih=722&amp;dpr=1.25"/>
-    <hyperlink ref="E38" r:id="rId3" display="https://www.google.com/search?hl=en&amp;sxsrf=APwXEdcOhYMBIuiKLItePJSUtHfGWpm8cA:1682234416676&amp;q=molten&amp;si=AMnBZoEP2YukYW07_nAjizsjQPEkgtbzjWW61xJz2V7DNZJzAs6qvI0OaO_7AQYhYx0946u9fzR0uK1PPWwVRBZZo3vL2UHk1Q%3D%3D&amp;expnd=1"/>
-    <hyperlink ref="C39" r:id="rId4" display="https://www.google.com/search?sxsrf=APwXEdcKjMSV3ibwtnj7tIew4ue-8EzP0g:1682234816952&amp;q=wages&amp;si=AMnBZoGP34IVl-vQ5XB3AyP2dfbgI6igy29Jks2Iwmvxqis94C6nWBRDDwGvRNtd66zKznL6M5VPoSqnwnI6DzkmocVzpEPQ8g%3D%3D&amp;expnd=1"/>
-    <hyperlink ref="E40" r:id="rId5" display="https://www.google.com/search?hl=en&amp;sxsrf=APwXEddfvwPE-ynRNWr0DUMSkA6YBNw8Iw:1682235052565&amp;q=resolute&amp;si=AMnBZoFm76bvId4K9j6r5bU9rVYrgS4B1d0kRmL9589zGk0I5BnshdVmKLnlpzkkKeM9vd7nBDEY_eYD7EpaUxawW7JWimtoyA%3D%3D&amp;expnd=1"/>
-    <hyperlink ref="C42" r:id="rId6" display="https://www.google.com/search?biw=1536&amp;bih=722&amp;sxsrf=APwXEdcW4X1Oie4qP0gW5lSQmy6cVpdTTw:1682235457369&amp;q=unpleasant&amp;si=AMnBZoFY6cJe4EcBOpcoqxHCe-If1uTtJ6VBc-_1b4jiYeuA5FDypCd8umsfx6EyUOK0yjsl0d1foIMBWA6ehw7jnchdrFgXFg%3D%3D&amp;expnd=1"/>
-    <hyperlink ref="D42" r:id="rId7" display="https://www.google.com/search?biw=1536&amp;bih=722&amp;sxsrf=APwXEdcW4X1Oie4qP0gW5lSQmy6cVpdTTw:1682235457369&amp;q=unwelcome&amp;si=AMnBZoFEI0LGJdD1jElhAGFwRnmoYxvLTEUiQimfmsTKDsX0XDi1g5LA-2dVkRSjTRQUhkLTlNXWY6qQt4k_HNe39qov36CYlQ%3D%3D&amp;expnd=1"/>
-    <hyperlink ref="C43" r:id="rId8" display="https://www.google.com/search?sxsrf=APwXEdcW4X1Oie4qP0gW5lSQmy6cVpdTTw:1682235457369&amp;q=unwelcome&amp;si=AMnBZoFEI0LGJdD1jElhAGFwRnmoYxvLTEUiQimfmsTKDsX0XDi1g5LA-2dVkRSjTRQUhkLTlNXWY6qQt4k_HNe39qov36CYlQ%3D%3D&amp;expnd=1&amp;biw=1536&amp;bih=722&amp;dpr=1.25"/>
-    <hyperlink ref="D44" r:id="rId9" display="https://www.google.com/search?hl=en&amp;sxsrf=APwXEdcSx77T0OyZqlDlozXDyQc6IcnxXw:1682236155032&amp;q=constitutional&amp;si=AMnBZoGo5JO1-RMo7Hmdi0jk7E03OlilGNxCLEemQ4vJUYxlaNZgNpfKDBi8pKWpkR_RdgGKd_h8-NmYHc4OPdvu4PPfv2jlnB6yXbkUYDy9R6tZ2lVQm34%3D&amp;expnd=1"/>
+    <hyperlink ref="E45" r:id="rId1" display="https://www.google.com/search?sxsrf=APwXEdc_u1p7RGsdP5YgVrTzcvZuTqGykw:1682294446651&amp;q=genuineness&amp;si=AMnBZoG9fGMZkoPgk-g4eVoaZFdEOkIa0eqhSuybWt8EFZuYfKM-XYnb6pm5LRZ6NAiCPqdJ2m5y98ndipfP97DreJiijtoF72M_aGNXbBE-Byyz9ILM-uk%3D&amp;expnd=1"/>
+    <hyperlink ref="F45" r:id="rId2" display="https://www.google.com/search?sxsrf=APwXEdc_u1p7RGsdP5YgVrTzcvZuTqGykw:1682294446651&amp;q=offense&amp;si=AMnBZoFHF1DJLZWpTBtQDK262RMpDt0YejzPVVhcMf4e0jpHf5u0fqlnOZNQG3pX3U43keMzn3B_dTdUSjMGGlaDdbSE94l_KQ%3D%3D&amp;expnd=1"/>
+    <hyperlink ref="G45" r:id="rId3" display="https://www.google.com/search?sxsrf=APwXEdc_u1p7RGsdP5YgVrTzcvZuTqGykw:1682294446651&amp;q=relied&amp;si=AMnBZoEP2YukYW07_nAjizsjQPEkIwKRPkUuNSe2uwNWC1jdw-dvLF27w0SCF1l-OMfI9-h4_0UbLCZvcqG-kvuYe5zvBKgz0Q%3D%3D&amp;expnd=1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F1048576"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="4.09765625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="16.09765625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="8.8984375" style="7" customWidth="1"/>
+    <col min="4" max="16384" width="8.69921875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B1" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="6"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="C7" s="8"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="C8" s="8"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="C9" s="8"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="C10" s="8"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="C11" s="8"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="C13" s="8"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A18" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A19" s="6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A20" s="6">
+        <v>19</v>
+      </c>
+      <c r="C20" s="8"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A21" s="6">
+        <v>20</v>
+      </c>
+      <c r="C21" s="8"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A22" s="6">
+        <v>21</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A23" s="6">
+        <v>22</v>
+      </c>
+      <c r="C23" s="8"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A24" s="6">
+        <v>23</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A25" s="6">
+        <v>24</v>
+      </c>
+      <c r="C25" s="8"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A26" s="6">
+        <v>25</v>
+      </c>
+      <c r="C26" s="8"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A27" s="6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A28" s="6">
+        <v>27</v>
+      </c>
+      <c r="C28" s="8"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A29" s="6">
+        <v>28</v>
+      </c>
+      <c r="C29" s="8"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A30" s="6">
+        <v>29</v>
+      </c>
+      <c r="C30" s="8"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A31" s="6">
+        <v>30</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A32" s="6">
+        <v>31</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="10"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A33" s="6">
+        <v>32</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="9"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A34" s="6">
+        <v>33</v>
+      </c>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A35" s="6">
+        <v>34</v>
+      </c>
+      <c r="C35" s="10"/>
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A36" s="6">
+        <v>35</v>
+      </c>
+      <c r="B36" s="12"/>
+      <c r="C36" s="10"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A37" s="6">
+        <v>36</v>
+      </c>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A38" s="6">
+        <v>37</v>
+      </c>
+      <c r="C38" s="10"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A39" s="6">
+        <v>38</v>
+      </c>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A40" s="6">
+        <v>39</v>
+      </c>
+      <c r="C40" s="10"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A41" s="6">
+        <v>40</v>
+      </c>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A42" s="6">
+        <v>41</v>
+      </c>
+      <c r="B42" s="12"/>
+      <c r="C42" s="10"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A43" s="6">
+        <v>42</v>
+      </c>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A44" s="6">
+        <v>43</v>
+      </c>
+      <c r="C44" s="10"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A45" s="6">
+        <v>44</v>
+      </c>
+      <c r="C45" s="10"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A46" s="6">
+        <v>45</v>
+      </c>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A47" s="6">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A48" s="6">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A49" s="6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A50" s="6">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A51" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A52" s="6">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A53" s="6">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A54" s="6">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A55" s="6">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A56" s="6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A57" s="6">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A58" s="6">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A59" s="6">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A60" s="6">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A61" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A62" s="6">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A63" s="6">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A64" s="6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A65" s="6">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A66" s="6">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A67" s="6">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A68" s="6">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A69" s="6">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A70" s="6">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A71" s="6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A72" s="6">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A73" s="6">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A74" s="6">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A75" s="6">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A76" s="6">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A77" s="6">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A78" s="6">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A79" s="6">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A80" s="6">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A81" s="6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A82" s="6">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A83" s="6">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A84" s="6">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A85" s="6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A86" s="6">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A87" s="6">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A88" s="6">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A89" s="6">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A90" s="6">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A91" s="6">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A92" s="6">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A93" s="6">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A94" s="6">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A95" s="6">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A96" s="6">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A97" s="6">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A98" s="6">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A99" s="6">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A100" s="6">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A101" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A102" s="6">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A103" s="6">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A104" s="6">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A105" s="6">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A106" s="6">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A107" s="6">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A108" s="6">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A109" s="6">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A110" s="6">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A111" s="6">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A112" s="6">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A113" s="6">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A114" s="6">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A115" s="6">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A116" s="6">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A117" s="6">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A118" s="6">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A119" s="6">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A120" s="6">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A121" s="6">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A122" s="6">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A123" s="6">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A124" s="6">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A125" s="6">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A126" s="6">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A127" s="6">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A128" s="6">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A129" s="6">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A130" s="6">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A131" s="6">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A132" s="6">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A133" s="6">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A134" s="6">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A135" s="6">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A136" s="6">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A137" s="6">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A138" s="6">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A139" s="6">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A140" s="6">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A141" s="6">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A142" s="6">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A143" s="6">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A144" s="6">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A145" s="6">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A146" s="6">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A147" s="6">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A148" s="6">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A149" s="6">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A150" s="6">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A151" s="6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A152" s="6">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A153" s="6">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A154" s="6">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A155" s="6">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A156" s="6">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A157" s="6">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A158" s="6">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A159" s="6">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A160" s="6">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A161" s="6">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A162" s="6">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A163" s="6">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A164" s="6">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A165" s="6">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A166" s="6">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A167" s="6">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A168" s="6">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A169" s="6">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A170" s="6">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A171" s="6">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A172" s="6">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A173" s="6">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A174" s="6">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A175" s="6">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A176" s="6">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A177" s="6">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A178" s="6">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A179" s="6">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A180" s="6">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A181" s="6">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A182" s="6">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A183" s="6">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A184" s="6">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A185" s="6">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A186" s="6">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A187" s="6">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A188" s="6">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A189" s="6">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A190" s="6">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A191" s="6">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A192" s="6">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A193" s="6">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A194" s="6">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A195" s="6">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A196" s="6">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A197" s="6">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A198" s="6">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A199" s="6">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A200" s="6">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A201" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A202" s="6">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A203" s="6">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A204" s="6">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A205" s="6">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A206" s="6">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A207" s="6">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A208" s="6">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A209" s="6">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A210" s="6">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A211" s="6">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A212" s="6">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A213" s="6">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A214" s="6">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A215" s="6">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A216" s="6">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A217" s="6">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A218" s="6">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A219" s="6">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A220" s="6">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A221" s="6">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A222" s="6">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A223" s="6">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A224" s="6">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A225" s="6">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A226" s="6">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A227" s="6">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A228" s="6">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A229" s="6">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A230" s="6">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A231" s="6">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A232" s="6">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A233" s="6">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A234" s="6">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A235" s="6">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A236" s="6">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A237" s="6">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A238" s="6">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A239" s="6">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A240" s="6">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A241" s="6">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A242" s="6">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A243" s="6">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A244" s="6">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A245" s="6">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A246" s="6">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A247" s="6">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A248" s="6">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A249" s="6">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A250" s="6">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A251" s="6">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A252" s="6">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A253" s="6">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A254" s="6">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A255" s="6">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A256" s="6">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A257" s="6">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A258" s="6">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A259" s="6">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A260" s="6">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A261" s="6">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A262" s="6">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A263" s="6">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A264" s="6">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A265" s="6">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A266" s="6">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A267" s="6">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A268" s="6">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A269" s="6">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A270" s="6">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A271" s="6">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A272" s="6">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A273" s="6">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A274" s="6">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A275" s="6">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A276" s="6">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A277" s="6">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A278" s="6">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A279" s="6">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A280" s="6">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A281" s="6">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A282" s="6">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A283" s="6">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A284" s="6">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A285" s="6">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A286" s="6">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A287" s="6">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A288" s="6">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A289" s="6">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A290" s="6">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A291" s="6">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A292" s="6">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A293" s="6">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A294" s="6">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A295" s="6">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A296" s="6">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A297" s="6">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A298" s="6">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A299" s="6">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A300" s="6">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A301" s="6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="1048576" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1048576" s="6">
+        <f>SUM(A2:A1048575)</f>
+        <v>45150</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D345"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2748,7 +4427,7 @@
         <v>49</v>
       </c>
       <c r="D1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
@@ -2762,7 +4441,7 @@
         <v>65</v>
       </c>
       <c r="D2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
@@ -2780,11 +4459,11 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>107</v>
+      <c r="B4" s="5" t="s">
+        <v>105</v>
       </c>
       <c r="C4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -2792,10 +4471,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
@@ -4506,12 +6185,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:B6"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>

--- a/english.xlsx
+++ b/english.xlsx
@@ -4,13 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="word" sheetId="1" r:id="rId1"/>
-    <sheet name="GdEx" sheetId="5" r:id="rId2"/>
-    <sheet name="pronounciation" sheetId="3" r:id="rId3"/>
-    <sheet name="grammar" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId2"/>
+    <sheet name="GdEx" sheetId="5" r:id="rId3"/>
+    <sheet name="pronounciation" sheetId="3" r:id="rId4"/>
+    <sheet name="grammar" sheetId="2" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="151">
   <si>
     <t>word</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -530,12 +532,65 @@
   <si>
     <t>(of a person) saying what they genuinely feel or believe; not dishonest or hypocritical.</t>
   </si>
+  <si>
+    <t>enact</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>make (a bill or other proposal) law.</t>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a person whose immediate superior is a senior figure within an organization and who is empowered to act as a substitute for this superior.</t>
+  </si>
+  <si>
+    <t>deputy</t>
+  </si>
+  <si>
+    <t>substitute</t>
+  </si>
+  <si>
+    <t>nv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a person or thing acting or serving in place of another.</t>
+  </si>
+  <si>
+    <t>use or add in place of.</t>
+  </si>
+  <si>
+    <t>p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in place of</t>
+  </si>
+  <si>
+    <t>instead of.</t>
+  </si>
+  <si>
+    <t>advocate</t>
+  </si>
+  <si>
+    <t>a person who publicly supports or recommends a particular cause or policy.</t>
+  </si>
+  <si>
+    <t>publicly recommend or support.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -595,6 +650,18 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFBDC1C6"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="21"/>
+      <color rgb="FFE8EAED"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -617,7 +684,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -648,6 +715,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -931,20 +1000,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.09765625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="6.3984375" style="13" customWidth="1"/>
-    <col min="3" max="3" width="16.09765625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="8.8984375" style="7" customWidth="1"/>
-    <col min="5" max="16384" width="8.69921875" style="6"/>
+    <col min="1" max="1" width="4.125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="6.375" style="13" customWidth="1"/>
+    <col min="3" max="3" width="16.125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="8.875" style="7" customWidth="1"/>
+    <col min="5" max="16384" width="8.75" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C1" s="11" t="s">
         <v>0</v>
       </c>
@@ -952,7 +1021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -963,7 +1032,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -971,7 +1040,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -979,7 +1048,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -987,7 +1056,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -998,7 +1067,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -1009,7 +1078,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1020,7 +1089,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -1031,7 +1100,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -1042,7 +1111,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -1053,7 +1122,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -1064,7 +1133,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -1075,7 +1144,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -1086,7 +1155,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -1097,7 +1166,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -1105,7 +1174,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -1116,7 +1185,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -1127,7 +1196,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -1138,7 +1207,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -1152,7 +1221,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -1163,7 +1232,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -1177,7 +1246,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -1188,7 +1257,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -1199,7 +1268,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -1210,7 +1279,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -1221,7 +1290,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>26</v>
       </c>
@@ -1232,7 +1301,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>27</v>
       </c>
@@ -1243,7 +1312,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>28</v>
       </c>
@@ -1257,7 +1326,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>29</v>
       </c>
@@ -1271,7 +1340,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>30</v>
       </c>
@@ -1285,7 +1354,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>31</v>
       </c>
@@ -1302,7 +1371,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <v>32</v>
       </c>
@@ -1316,7 +1385,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>33</v>
       </c>
@@ -1327,7 +1396,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>34</v>
       </c>
@@ -1344,7 +1413,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
         <v>35</v>
       </c>
@@ -1355,7 +1424,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
         <v>36</v>
       </c>
@@ -1375,7 +1444,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
         <v>37</v>
       </c>
@@ -1386,7 +1455,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
         <v>38</v>
       </c>
@@ -1400,7 +1469,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
         <v>39</v>
       </c>
@@ -1411,7 +1480,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
         <v>40</v>
       </c>
@@ -1425,7 +1494,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
         <v>41</v>
       </c>
@@ -1436,7 +1505,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
         <v>42</v>
       </c>
@@ -1447,7 +1516,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="6">
         <v>43</v>
       </c>
@@ -1461,7 +1530,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="6">
         <v>44</v>
       </c>
@@ -1484,7 +1553,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="22.2" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7" ht="21.75" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
         <v>45</v>
       </c>
@@ -1501,7 +1570,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
         <v>46</v>
       </c>
@@ -1515,7 +1584,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="22.2" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:7" ht="21.75" x14ac:dyDescent="0.3">
       <c r="A48" s="6">
         <v>47</v>
       </c>
@@ -1532,1272 +1601,1323 @@
         <v>134</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B49" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B50" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="26.25" x14ac:dyDescent="0.35">
       <c r="A51" s="6">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B51" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="E51" s="14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="26.25" x14ac:dyDescent="0.35">
       <c r="A52" s="6">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B52" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="6">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B53" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D53" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="E53" s="14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="6">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="6">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="6">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="6">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="6">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="6">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="6">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="6">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="6">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="6">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="6">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="6">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="6">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="6">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="6">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" s="6">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" s="6">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" s="6">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" s="6">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="6">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" s="6">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" s="6">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" s="6">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" s="6">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="6">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" s="6">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" s="6">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="6">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="6">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" s="6">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="6">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" s="6">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" s="6">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" s="6">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" s="6">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" s="6">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" s="6">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" s="6">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" s="6">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="6">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" s="6">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" s="6">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" s="6">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" s="6">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" s="6">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" s="6">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" s="6">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" s="6">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" s="6">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" s="6">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" s="6">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" s="6">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" s="6">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" s="6">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" s="6">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" s="6">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" s="6">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" s="6">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" s="6">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" s="6">
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" s="6">
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" s="6">
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" s="6">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" s="6">
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" s="6">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" s="6">
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" s="6">
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" s="6">
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" s="6">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" s="6">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" s="6">
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" s="6">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" s="6">
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" s="6">
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" s="6">
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" s="6">
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" s="6">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" s="6">
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" s="6">
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" s="6">
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" s="6">
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" s="6">
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" s="6">
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138" s="6">
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139" s="6">
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140" s="6">
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" s="6">
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" s="6">
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143" s="6">
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" s="6">
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" s="6">
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146" s="6">
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" s="6">
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148" s="6">
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149" s="6">
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150" s="6">
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151" s="6">
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152" s="6">
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153" s="6">
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154" s="6">
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155" s="6">
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156" s="6">
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157" s="6">
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158" s="6">
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159" s="6">
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A160" s="6">
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161" s="6">
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162" s="6">
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163" s="6">
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164" s="6">
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165" s="6">
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166" s="6">
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167" s="6">
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168" s="6">
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A169" s="6">
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A170" s="6">
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171" s="6">
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A172" s="6">
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A173" s="6">
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A174" s="6">
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A175" s="6">
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A176" s="6">
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A177" s="6">
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178" s="6">
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A179" s="6">
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A180" s="6">
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A181" s="6">
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A182" s="6">
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A183" s="6">
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A184" s="6">
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A185" s="6">
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A186" s="6">
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A187" s="6">
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A188" s="6">
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A189" s="6">
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A190" s="6">
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A191" s="6">
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A192" s="6">
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A193" s="6">
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A194" s="6">
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A195" s="6">
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A196" s="6">
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A197" s="6">
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A198" s="6">
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A199" s="6">
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A200" s="6">
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A201" s="6">
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A202" s="6">
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A203" s="6">
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A204" s="6">
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A205" s="6">
         <v>204</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A206" s="6">
         <v>205</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A207" s="6">
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A208" s="6">
         <v>207</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A209" s="6">
         <v>208</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A210" s="6">
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A211" s="6">
         <v>210</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A212" s="6">
         <v>211</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A213" s="6">
         <v>212</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A214" s="6">
         <v>213</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A215" s="6">
         <v>214</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A216" s="6">
         <v>215</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A217" s="6">
         <v>216</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A218" s="6">
         <v>217</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A219" s="6">
         <v>218</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A220" s="6">
         <v>219</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A221" s="6">
         <v>220</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A222" s="6">
         <v>221</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A223" s="6">
         <v>222</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A224" s="6">
         <v>223</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A225" s="6">
         <v>224</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A226" s="6">
         <v>225</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A227" s="6">
         <v>226</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A228" s="6">
         <v>227</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A229" s="6">
         <v>228</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A230" s="6">
         <v>229</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A231" s="6">
         <v>230</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A232" s="6">
         <v>231</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A233" s="6">
         <v>232</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A234" s="6">
         <v>233</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A235" s="6">
         <v>234</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A236" s="6">
         <v>235</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A237" s="6">
         <v>236</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A238" s="6">
         <v>237</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A239" s="6">
         <v>238</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A240" s="6">
         <v>239</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A241" s="6">
         <v>240</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A242" s="6">
         <v>241</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A243" s="6">
         <v>242</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A244" s="6">
         <v>243</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A245" s="6">
         <v>244</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A246" s="6">
         <v>245</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A247" s="6">
         <v>246</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A248" s="6">
         <v>247</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A249" s="6">
         <v>248</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A250" s="6">
         <v>249</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A251" s="6">
         <v>250</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A252" s="6">
         <v>251</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A253" s="6">
         <v>252</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A254" s="6">
         <v>253</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A255" s="6">
         <v>254</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A256" s="6">
         <v>255</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A257" s="6">
         <v>256</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A258" s="6">
         <v>257</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A259" s="6">
         <v>258</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A260" s="6">
         <v>259</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A261" s="6">
         <v>260</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A262" s="6">
         <v>261</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A263" s="6">
         <v>262</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A264" s="6">
         <v>263</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A265" s="6">
         <v>264</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A266" s="6">
         <v>265</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A267" s="6">
         <v>266</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A268" s="6">
         <v>267</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A269" s="6">
         <v>268</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A270" s="6">
         <v>269</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A271" s="6">
         <v>270</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A272" s="6">
         <v>271</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A273" s="6">
         <v>272</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A274" s="6">
         <v>273</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A275" s="6">
         <v>274</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A276" s="6">
         <v>275</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A277" s="6">
         <v>276</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A278" s="6">
         <v>277</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A279" s="6">
         <v>278</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A280" s="6">
         <v>279</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A281" s="6">
         <v>280</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A282" s="6">
         <v>281</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A283" s="6">
         <v>282</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A284" s="6">
         <v>283</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A285" s="6">
         <v>284</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A286" s="6">
         <v>285</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A287" s="6">
         <v>286</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A288" s="6">
         <v>287</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A289" s="6">
         <v>288</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A290" s="6">
         <v>289</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A291" s="6">
         <v>290</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A292" s="6">
         <v>291</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A293" s="6">
         <v>292</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A294" s="6">
         <v>293</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A295" s="6">
         <v>294</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A296" s="6">
         <v>295</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A297" s="6">
         <v>296</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A298" s="6">
         <v>297</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A299" s="6">
         <v>298</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A300" s="6">
         <v>299</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A301" s="6">
         <v>300</v>
       </c>
     </row>
-    <row r="1048576" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1048576" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1048576" s="6">
         <f>SUM(A2:A1048575)</f>
         <v>45150</v>
@@ -2809,1596 +2929,21 @@
     <hyperlink ref="E45" r:id="rId1" display="https://www.google.com/search?sxsrf=APwXEdc_u1p7RGsdP5YgVrTzcvZuTqGykw:1682294446651&amp;q=genuineness&amp;si=AMnBZoG9fGMZkoPgk-g4eVoaZFdEOkIa0eqhSuybWt8EFZuYfKM-XYnb6pm5LRZ6NAiCPqdJ2m5y98ndipfP97DreJiijtoF72M_aGNXbBE-Byyz9ILM-uk%3D&amp;expnd=1"/>
     <hyperlink ref="F45" r:id="rId2" display="https://www.google.com/search?sxsrf=APwXEdc_u1p7RGsdP5YgVrTzcvZuTqGykw:1682294446651&amp;q=offense&amp;si=AMnBZoFHF1DJLZWpTBtQDK262RMpDt0YejzPVVhcMf4e0jpHf5u0fqlnOZNQG3pX3U43keMzn3B_dTdUSjMGGlaDdbSE94l_KQ%3D%3D&amp;expnd=1"/>
     <hyperlink ref="G45" r:id="rId3" display="https://www.google.com/search?sxsrf=APwXEdc_u1p7RGsdP5YgVrTzcvZuTqGykw:1682294446651&amp;q=relied&amp;si=AMnBZoEP2YukYW07_nAjizsjQPEkIwKRPkUuNSe2uwNWC1jdw-dvLF27w0SCF1l-OMfI9-h4_0UbLCZvcqG-kvuYe5zvBKgz0Q%3D%3D&amp;expnd=1"/>
+    <hyperlink ref="D50" r:id="rId4" display="https://www.google.com/search?hl=en&amp;sxsrf=APwXEde6rs_BeS9TlSWBblh7YFVUNIKAuw:1682064097989&amp;q=empowered&amp;si=AMnBZoFEI0LGJdD1jElhAGFwRnmorVJ_1KAdHUxVDnE9AbdEJnRO1N_zl4ds_syedYN5SsIFCsREy1y6C2GSHEMMsjfbOo2KfQ%3D%3D&amp;expnd=1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1048576"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="4.09765625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="16.09765625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="8.8984375" style="7" customWidth="1"/>
-    <col min="4" max="16384" width="8.69921875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B1" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="C1" s="6"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2" s="6">
-        <v>1</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" s="6">
-        <v>2</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" s="6">
-        <v>6</v>
-      </c>
-      <c r="C7" s="8"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8" s="6">
-        <v>7</v>
-      </c>
-      <c r="C8" s="8"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9" s="6">
-        <v>8</v>
-      </c>
-      <c r="C9" s="8"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A10" s="6">
-        <v>9</v>
-      </c>
-      <c r="C10" s="8"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A11" s="6">
-        <v>10</v>
-      </c>
-      <c r="C11" s="8"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A12" s="6">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A13" s="6">
-        <v>12</v>
-      </c>
-      <c r="C13" s="8"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A14" s="6">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A15" s="6">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A16" s="6">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A17" s="6">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A18" s="6">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A19" s="6">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A20" s="6">
-        <v>19</v>
-      </c>
-      <c r="C20" s="8"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A21" s="6">
-        <v>20</v>
-      </c>
-      <c r="C21" s="8"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A22" s="6">
-        <v>21</v>
-      </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A23" s="6">
-        <v>22</v>
-      </c>
-      <c r="C23" s="8"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A24" s="6">
-        <v>23</v>
-      </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A25" s="6">
-        <v>24</v>
-      </c>
-      <c r="C25" s="8"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A26" s="6">
-        <v>25</v>
-      </c>
-      <c r="C26" s="8"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A27" s="6">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A28" s="6">
-        <v>27</v>
-      </c>
-      <c r="C28" s="8"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A29" s="6">
-        <v>28</v>
-      </c>
-      <c r="C29" s="8"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A30" s="6">
-        <v>29</v>
-      </c>
-      <c r="C30" s="8"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A31" s="6">
-        <v>30</v>
-      </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A32" s="6">
-        <v>31</v>
-      </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="10"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A33" s="6">
-        <v>32</v>
-      </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="9"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A34" s="6">
-        <v>33</v>
-      </c>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A35" s="6">
-        <v>34</v>
-      </c>
-      <c r="C35" s="10"/>
-      <c r="D35" s="2"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A36" s="6">
-        <v>35</v>
-      </c>
-      <c r="B36" s="12"/>
-      <c r="C36" s="10"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A37" s="6">
-        <v>36</v>
-      </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A38" s="6">
-        <v>37</v>
-      </c>
-      <c r="C38" s="10"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A39" s="6">
-        <v>38</v>
-      </c>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A40" s="6">
-        <v>39</v>
-      </c>
-      <c r="C40" s="10"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A41" s="6">
-        <v>40</v>
-      </c>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A42" s="6">
-        <v>41</v>
-      </c>
-      <c r="B42" s="12"/>
-      <c r="C42" s="10"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A43" s="6">
-        <v>42</v>
-      </c>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A44" s="6">
-        <v>43</v>
-      </c>
-      <c r="C44" s="10"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A45" s="6">
-        <v>44</v>
-      </c>
-      <c r="C45" s="10"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A46" s="6">
-        <v>45</v>
-      </c>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A47" s="6">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A48" s="6">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A49" s="6">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A50" s="6">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A51" s="6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A52" s="6">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A53" s="6">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A54" s="6">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A55" s="6">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A56" s="6">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A57" s="6">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A58" s="6">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A59" s="6">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A60" s="6">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A61" s="6">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A62" s="6">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A63" s="6">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A64" s="6">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A65" s="6">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A66" s="6">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A67" s="6">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A68" s="6">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A69" s="6">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A70" s="6">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A71" s="6">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A72" s="6">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A73" s="6">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A74" s="6">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A75" s="6">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A76" s="6">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A77" s="6">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A78" s="6">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A79" s="6">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A80" s="6">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A81" s="6">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A82" s="6">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A83" s="6">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A84" s="6">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A85" s="6">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A86" s="6">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A87" s="6">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A88" s="6">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A89" s="6">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A90" s="6">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A91" s="6">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A92" s="6">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A93" s="6">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A94" s="6">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A95" s="6">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A96" s="6">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A97" s="6">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A98" s="6">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A99" s="6">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A100" s="6">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A101" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A102" s="6">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A103" s="6">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A104" s="6">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A105" s="6">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A106" s="6">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A107" s="6">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A108" s="6">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A109" s="6">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A110" s="6">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A111" s="6">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A112" s="6">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A113" s="6">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A114" s="6">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A115" s="6">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A116" s="6">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A117" s="6">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A118" s="6">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A119" s="6">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A120" s="6">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A121" s="6">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A122" s="6">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A123" s="6">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A124" s="6">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A125" s="6">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A126" s="6">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A127" s="6">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A128" s="6">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A129" s="6">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A130" s="6">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A131" s="6">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A132" s="6">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A133" s="6">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A134" s="6">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A135" s="6">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A136" s="6">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A137" s="6">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A138" s="6">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A139" s="6">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A140" s="6">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A141" s="6">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A142" s="6">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A143" s="6">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A144" s="6">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A145" s="6">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A146" s="6">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A147" s="6">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A148" s="6">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A149" s="6">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A150" s="6">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A151" s="6">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A152" s="6">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A153" s="6">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A154" s="6">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A155" s="6">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A156" s="6">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A157" s="6">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A158" s="6">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A159" s="6">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A160" s="6">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A161" s="6">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A162" s="6">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A163" s="6">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A164" s="6">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A165" s="6">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A166" s="6">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A167" s="6">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A168" s="6">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A169" s="6">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A170" s="6">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A171" s="6">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A172" s="6">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A173" s="6">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A174" s="6">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A175" s="6">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A176" s="6">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A177" s="6">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A178" s="6">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A179" s="6">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A180" s="6">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A181" s="6">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A182" s="6">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A183" s="6">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A184" s="6">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A185" s="6">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A186" s="6">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A187" s="6">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A188" s="6">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A189" s="6">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A190" s="6">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A191" s="6">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A192" s="6">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A193" s="6">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A194" s="6">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A195" s="6">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A196" s="6">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A197" s="6">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A198" s="6">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A199" s="6">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A200" s="6">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A201" s="6">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A202" s="6">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A203" s="6">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A204" s="6">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A205" s="6">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A206" s="6">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A207" s="6">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A208" s="6">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A209" s="6">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A210" s="6">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A211" s="6">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A212" s="6">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A213" s="6">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A214" s="6">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A215" s="6">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A216" s="6">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A217" s="6">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A218" s="6">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A219" s="6">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A220" s="6">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A221" s="6">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A222" s="6">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A223" s="6">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A224" s="6">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A225" s="6">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A226" s="6">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A227" s="6">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A228" s="6">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A229" s="6">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A230" s="6">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A231" s="6">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A232" s="6">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A233" s="6">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A234" s="6">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A235" s="6">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A236" s="6">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A237" s="6">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A238" s="6">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A239" s="6">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A240" s="6">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A241" s="6">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A242" s="6">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A243" s="6">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A244" s="6">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A245" s="6">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A246" s="6">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A247" s="6">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A248" s="6">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A249" s="6">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A250" s="6">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A251" s="6">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A252" s="6">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A253" s="6">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A254" s="6">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A255" s="6">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A256" s="6">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A257" s="6">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A258" s="6">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A259" s="6">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A260" s="6">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A261" s="6">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A262" s="6">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A263" s="6">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A264" s="6">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A265" s="6">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A266" s="6">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A267" s="6">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A268" s="6">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A269" s="6">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A270" s="6">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A271" s="6">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A272" s="6">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A273" s="6">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A274" s="6">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A275" s="6">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A276" s="6">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A277" s="6">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A278" s="6">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A279" s="6">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A280" s="6">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A281" s="6">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A282" s="6">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A283" s="6">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A284" s="6">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A285" s="6">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A286" s="6">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A287" s="6">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A288" s="6">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A289" s="6">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A290" s="6">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A291" s="6">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A292" s="6">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A293" s="6">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A294" s="6">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A295" s="6">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A296" s="6">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A297" s="6">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A298" s="6">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A299" s="6">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A300" s="6">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A301" s="6">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="1048576" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1048576" s="6">
-        <f>SUM(A2:A1048575)</f>
-        <v>45150</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4407,19 +2952,1609 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F1048576"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="16.125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="8.875" style="7" customWidth="1"/>
+    <col min="4" max="16384" width="8.75" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B1" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="6"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="C7" s="8"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="C8" s="8"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="C9" s="8"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="C10" s="8"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="C11" s="8"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="C13" s="8"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
+        <v>19</v>
+      </c>
+      <c r="C20" s="8"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
+        <v>20</v>
+      </c>
+      <c r="C21" s="8"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
+        <v>21</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
+        <v>22</v>
+      </c>
+      <c r="C23" s="8"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
+        <v>23</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="6">
+        <v>24</v>
+      </c>
+      <c r="C25" s="8"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="6">
+        <v>25</v>
+      </c>
+      <c r="C26" s="8"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="6">
+        <v>27</v>
+      </c>
+      <c r="C28" s="8"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="6">
+        <v>28</v>
+      </c>
+      <c r="C29" s="8"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="6">
+        <v>29</v>
+      </c>
+      <c r="C30" s="8"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="6">
+        <v>30</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="6">
+        <v>31</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="10"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="6">
+        <v>32</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="9"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="6">
+        <v>33</v>
+      </c>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="6">
+        <v>34</v>
+      </c>
+      <c r="C35" s="10"/>
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="6">
+        <v>35</v>
+      </c>
+      <c r="B36" s="12"/>
+      <c r="C36" s="10"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="6">
+        <v>36</v>
+      </c>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="6">
+        <v>37</v>
+      </c>
+      <c r="C38" s="10"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="6">
+        <v>38</v>
+      </c>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="6">
+        <v>39</v>
+      </c>
+      <c r="C40" s="10"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="6">
+        <v>40</v>
+      </c>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="6">
+        <v>41</v>
+      </c>
+      <c r="B42" s="12"/>
+      <c r="C42" s="10"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="6">
+        <v>42</v>
+      </c>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="6">
+        <v>43</v>
+      </c>
+      <c r="C44" s="10"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="6">
+        <v>44</v>
+      </c>
+      <c r="C45" s="10"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="6">
+        <v>45</v>
+      </c>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="6">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="6">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="6">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="6">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="6">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="6">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="6">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="6">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="6">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" s="6">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" s="6">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" s="6">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" s="6">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" s="6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" s="6">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" s="6">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" s="6">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" s="6">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" s="6">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" s="6">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" s="6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" s="6">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" s="6">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" s="6">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" s="6">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" s="6">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" s="6">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" s="6">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" s="6">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" s="6">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" s="6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" s="6">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" s="6">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" s="6">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" s="6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" s="6">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" s="6">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" s="6">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" s="6">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" s="6">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" s="6">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" s="6">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" s="6">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" s="6">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" s="6">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" s="6">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" s="6">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" s="6">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" s="6">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" s="6">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" s="6">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" s="6">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" s="6">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" s="6">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" s="6">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" s="6">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" s="6">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" s="6">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" s="6">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111" s="6">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" s="6">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" s="6">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" s="6">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" s="6">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" s="6">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" s="6">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" s="6">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" s="6">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" s="6">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121" s="6">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" s="6">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123" s="6">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124" s="6">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" s="6">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126" s="6">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127" s="6">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128" s="6">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" s="6">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" s="6">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131" s="6">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" s="6">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133" s="6">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134" s="6">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135" s="6">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136" s="6">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137" s="6">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138" s="6">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139" s="6">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140" s="6">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141" s="6">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A142" s="6">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A143" s="6">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A144" s="6">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A145" s="6">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A146" s="6">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A147" s="6">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A148" s="6">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A149" s="6">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A150" s="6">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A151" s="6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A152" s="6">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A153" s="6">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A154" s="6">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A155" s="6">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A156" s="6">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A157" s="6">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A158" s="6">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A159" s="6">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A160" s="6">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A161" s="6">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A162" s="6">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A163" s="6">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A164" s="6">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A165" s="6">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A166" s="6">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A167" s="6">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A168" s="6">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A169" s="6">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A170" s="6">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A171" s="6">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A172" s="6">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A173" s="6">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A174" s="6">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A175" s="6">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A176" s="6">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A177" s="6">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A178" s="6">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A179" s="6">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A180" s="6">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A181" s="6">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A182" s="6">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A183" s="6">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A184" s="6">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A185" s="6">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A186" s="6">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A187" s="6">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A188" s="6">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A189" s="6">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A190" s="6">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A191" s="6">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A192" s="6">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A193" s="6">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A194" s="6">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A195" s="6">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A196" s="6">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A197" s="6">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A198" s="6">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A199" s="6">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A200" s="6">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A201" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A202" s="6">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A203" s="6">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A204" s="6">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A205" s="6">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A206" s="6">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A207" s="6">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A208" s="6">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A209" s="6">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A210" s="6">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A211" s="6">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A212" s="6">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A213" s="6">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A214" s="6">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A215" s="6">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A216" s="6">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A217" s="6">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A218" s="6">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A219" s="6">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A220" s="6">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A221" s="6">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A222" s="6">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A223" s="6">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A224" s="6">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A225" s="6">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A226" s="6">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A227" s="6">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A228" s="6">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A229" s="6">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A230" s="6">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A231" s="6">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A232" s="6">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A233" s="6">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A234" s="6">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A235" s="6">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A236" s="6">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A237" s="6">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A238" s="6">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A239" s="6">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A240" s="6">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A241" s="6">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A242" s="6">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A243" s="6">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A244" s="6">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A245" s="6">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A246" s="6">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A247" s="6">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A248" s="6">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A249" s="6">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A250" s="6">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A251" s="6">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A252" s="6">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A253" s="6">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A254" s="6">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A255" s="6">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A256" s="6">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A257" s="6">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A258" s="6">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A259" s="6">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A260" s="6">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A261" s="6">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A262" s="6">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A263" s="6">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A264" s="6">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A265" s="6">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A266" s="6">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A267" s="6">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A268" s="6">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A269" s="6">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A270" s="6">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A271" s="6">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A272" s="6">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A273" s="6">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A274" s="6">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A275" s="6">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A276" s="6">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A277" s="6">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A278" s="6">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A279" s="6">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A280" s="6">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A281" s="6">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A282" s="6">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A283" s="6">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A284" s="6">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A285" s="6">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A286" s="6">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A287" s="6">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A288" s="6">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A289" s="6">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A290" s="6">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A291" s="6">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A292" s="6">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A293" s="6">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A294" s="6">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A295" s="6">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A296" s="6">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A297" s="6">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A298" s="6">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A299" s="6">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A300" s="6">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A301" s="6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="1048576" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1048576" s="6">
+        <f>SUM(A2:A1048575)</f>
+        <v>45150</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D345"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="10" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.69921875" customWidth="1"/>
+    <col min="3" max="3" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>48</v>
       </c>
@@ -4430,7 +4565,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4444,7 +4579,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4455,7 +4590,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4466,7 +4601,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4477,1702 +4612,1702 @@
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>204</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>205</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>207</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>208</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>210</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>211</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>212</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>213</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>214</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>215</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>216</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>217</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>218</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>219</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>220</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>221</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>222</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>223</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>224</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>225</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>226</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>227</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>228</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>229</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>230</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>231</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>232</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>233</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>234</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>235</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>236</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>237</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>238</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>239</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>240</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>241</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>242</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>243</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>244</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>245</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>246</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>247</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>248</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>249</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>250</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>251</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>252</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>253</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>254</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>255</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>256</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>257</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>258</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>259</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>260</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>261</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>262</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>263</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>264</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>265</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>266</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>267</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>268</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>269</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>270</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>271</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>272</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>273</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>274</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>275</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>276</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>277</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>278</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>279</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>280</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>281</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>282</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>283</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>284</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>285</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>286</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>287</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>288</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>289</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>290</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>291</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>292</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>293</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>294</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>295</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>296</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>297</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>298</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>299</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>300</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>301</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>302</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>303</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>304</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>305</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>306</v>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>307</v>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>308</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>309</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>310</v>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>311</v>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>312</v>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>313</v>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>314</v>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>315</v>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>316</v>
       </c>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>317</v>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>318</v>
       </c>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>319</v>
       </c>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>320</v>
       </c>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>321</v>
       </c>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>322</v>
       </c>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>323</v>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>324</v>
       </c>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>325</v>
       </c>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>326</v>
       </c>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>327</v>
       </c>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>328</v>
       </c>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>329</v>
       </c>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>330</v>
       </c>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>331</v>
       </c>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>332</v>
       </c>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>333</v>
       </c>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>334</v>
       </c>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>335</v>
       </c>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>336</v>
       </c>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>337</v>
       </c>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>338</v>
       </c>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>339</v>
       </c>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>340</v>
       </c>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>341</v>
       </c>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>342</v>
       </c>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>343</v>
       </c>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>344</v>
       </c>
@@ -6185,7 +6320,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:B6"/>
   <sheetViews>
@@ -6193,37 +6328,37 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="255.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="255.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>27</v>
       </c>
@@ -6233,4 +6368,17 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/english.xlsx
+++ b/english.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="word" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="164">
   <si>
     <t>word</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -609,6 +609,22 @@
   </si>
   <si>
     <t>authentic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>complying</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>:sounds like code</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1023,22 +1039,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1048576"/>
+  <dimension ref="A1:M1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.09765625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="7.19921875" style="12" customWidth="1"/>
-    <col min="3" max="3" width="16.09765625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="8.8984375" style="13" customWidth="1"/>
-    <col min="5" max="16384" width="8.69921875" style="11"/>
+    <col min="1" max="1" width="4.125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="7.25" style="12" customWidth="1"/>
+    <col min="3" max="3" width="16.125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="8.875" style="13" customWidth="1"/>
+    <col min="5" max="16384" width="8.75" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1046,7 +1062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -1057,7 +1073,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -1068,7 +1084,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -1076,7 +1092,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -1084,7 +1100,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -1095,7 +1111,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -1106,7 +1122,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -1117,7 +1133,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -1128,7 +1144,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -1139,7 +1155,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -1150,7 +1166,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -1161,7 +1177,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -1172,7 +1188,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -1183,7 +1199,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -1194,7 +1210,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -1202,7 +1218,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -1213,7 +1229,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -1224,7 +1240,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -1235,7 +1251,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -1249,7 +1265,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="11">
         <v>20</v>
       </c>
@@ -1260,7 +1276,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="11">
         <v>21</v>
       </c>
@@ -1274,7 +1290,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="11">
         <v>22</v>
       </c>
@@ -1285,7 +1301,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="11">
         <v>23</v>
       </c>
@@ -1296,7 +1312,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="11">
         <v>24</v>
       </c>
@@ -1307,7 +1323,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="11">
         <v>25</v>
       </c>
@@ -1318,7 +1334,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="11">
         <v>26</v>
       </c>
@@ -1328,8 +1344,14 @@
       <c r="D27" s="14" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="L27" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="M27" s="13" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="11">
         <v>27</v>
       </c>
@@ -1340,7 +1362,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="11">
         <v>28</v>
       </c>
@@ -1354,7 +1376,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="11">
         <v>29</v>
       </c>
@@ -1368,7 +1390,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="11">
         <v>30</v>
       </c>
@@ -1382,7 +1404,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="11">
         <v>31</v>
       </c>
@@ -1399,7 +1421,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="11">
         <v>32</v>
       </c>
@@ -1413,7 +1435,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="11">
         <v>33</v>
       </c>
@@ -1424,7 +1446,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="11">
         <v>34</v>
       </c>
@@ -1441,7 +1463,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="11">
         <v>35</v>
       </c>
@@ -1452,7 +1474,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="11">
         <v>36</v>
       </c>
@@ -1472,7 +1494,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="11">
         <v>37</v>
       </c>
@@ -1483,7 +1505,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="11">
         <v>38</v>
       </c>
@@ -1497,7 +1519,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="11">
         <v>39</v>
       </c>
@@ -1508,7 +1530,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="11">
         <v>40</v>
       </c>
@@ -1522,7 +1544,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="11">
         <v>41</v>
       </c>
@@ -1533,7 +1555,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="11">
         <v>42</v>
       </c>
@@ -1544,7 +1566,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="11">
         <v>43</v>
       </c>
@@ -1558,7 +1580,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="11">
         <v>44</v>
       </c>
@@ -1581,7 +1603,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="11">
         <v>45</v>
       </c>
@@ -1598,7 +1620,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="11">
         <v>46</v>
       </c>
@@ -1612,7 +1634,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="11">
         <v>47</v>
       </c>
@@ -1629,7 +1651,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="11">
         <v>48</v>
       </c>
@@ -1643,7 +1665,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="11">
         <v>49</v>
       </c>
@@ -1657,7 +1679,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="11">
         <v>50</v>
       </c>
@@ -1674,7 +1696,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="11">
         <v>51</v>
       </c>
@@ -1688,7 +1710,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="11">
         <v>52</v>
       </c>
@@ -1705,7 +1727,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="11">
         <v>53</v>
       </c>
@@ -1719,7 +1741,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="11">
         <v>54</v>
       </c>
@@ -1733,7 +1755,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="11">
         <v>55</v>
       </c>
@@ -1750,1232 +1772,1232 @@
         <v>158</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="11">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="11">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="11">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="11">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="11">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="11">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="11">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="11">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="11">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="11">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="11">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="11">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" s="11">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" s="11">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" s="11">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" s="11">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="11">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" s="11">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" s="11">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" s="11">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" s="11">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="11">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" s="11">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" s="11">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="11">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="11">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" s="11">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="11">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" s="11">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" s="11">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" s="11">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" s="11">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" s="11">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" s="11">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" s="11">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" s="11">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="11">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" s="11">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" s="11">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" s="11">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" s="11">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" s="11">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" s="11">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" s="11">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" s="11">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" s="11">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" s="11">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" s="11">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" s="11">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" s="11">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" s="11">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" s="11">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" s="11">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" s="11">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" s="11">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" s="11">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" s="11">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" s="11">
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" s="11">
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" s="11">
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" s="11">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" s="11">
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" s="11">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" s="11">
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" s="11">
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" s="11">
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" s="11">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" s="11">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" s="11">
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" s="11">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" s="11">
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" s="11">
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" s="11">
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" s="11">
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" s="11">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" s="11">
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" s="11">
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" s="11">
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" s="11">
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" s="11">
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" s="11">
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138" s="11">
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139" s="11">
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140" s="11">
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" s="11">
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" s="11">
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143" s="11">
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" s="11">
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" s="11">
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146" s="11">
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" s="11">
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148" s="11">
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149" s="11">
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150" s="11">
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151" s="11">
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152" s="11">
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153" s="11">
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154" s="11">
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155" s="11">
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156" s="11">
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157" s="11">
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158" s="11">
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159" s="11">
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A160" s="11">
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161" s="11">
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162" s="11">
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163" s="11">
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164" s="11">
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165" s="11">
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166" s="11">
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167" s="11">
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168" s="11">
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A169" s="11">
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A170" s="11">
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171" s="11">
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A172" s="11">
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A173" s="11">
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A174" s="11">
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A175" s="11">
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A176" s="11">
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A177" s="11">
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178" s="11">
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A179" s="11">
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A180" s="11">
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A181" s="11">
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A182" s="11">
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A183" s="11">
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A184" s="11">
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A185" s="11">
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A186" s="11">
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A187" s="11">
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A188" s="11">
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A189" s="11">
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A190" s="11">
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A191" s="11">
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A192" s="11">
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A193" s="11">
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A194" s="11">
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A195" s="11">
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A196" s="11">
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A197" s="11">
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A198" s="11">
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A199" s="11">
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A200" s="11">
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A201" s="11">
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A202" s="11">
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A203" s="11">
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A204" s="11">
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A205" s="11">
         <v>204</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A206" s="11">
         <v>205</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A207" s="11">
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A208" s="11">
         <v>207</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A209" s="11">
         <v>208</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A210" s="11">
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A211" s="11">
         <v>210</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A212" s="11">
         <v>211</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A213" s="11">
         <v>212</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A214" s="11">
         <v>213</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A215" s="11">
         <v>214</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A216" s="11">
         <v>215</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A217" s="11">
         <v>216</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A218" s="11">
         <v>217</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A219" s="11">
         <v>218</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A220" s="11">
         <v>219</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A221" s="11">
         <v>220</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A222" s="11">
         <v>221</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A223" s="11">
         <v>222</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A224" s="11">
         <v>223</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A225" s="11">
         <v>224</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A226" s="11">
         <v>225</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A227" s="11">
         <v>226</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A228" s="11">
         <v>227</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A229" s="11">
         <v>228</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A230" s="11">
         <v>229</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A231" s="11">
         <v>230</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A232" s="11">
         <v>231</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A233" s="11">
         <v>232</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A234" s="11">
         <v>233</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A235" s="11">
         <v>234</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A236" s="11">
         <v>235</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A237" s="11">
         <v>236</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A238" s="11">
         <v>237</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A239" s="11">
         <v>238</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A240" s="11">
         <v>239</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A241" s="11">
         <v>240</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A242" s="11">
         <v>241</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A243" s="11">
         <v>242</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A244" s="11">
         <v>243</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A245" s="11">
         <v>244</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A246" s="11">
         <v>245</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A247" s="11">
         <v>246</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A248" s="11">
         <v>247</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A249" s="11">
         <v>248</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A250" s="11">
         <v>249</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A251" s="11">
         <v>250</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A252" s="11">
         <v>251</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A253" s="11">
         <v>252</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A254" s="11">
         <v>253</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A255" s="11">
         <v>254</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A256" s="11">
         <v>255</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A257" s="11">
         <v>256</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A258" s="11">
         <v>257</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A259" s="11">
         <v>258</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A260" s="11">
         <v>259</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A261" s="11">
         <v>260</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A262" s="11">
         <v>261</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A263" s="11">
         <v>262</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A264" s="11">
         <v>263</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A265" s="11">
         <v>264</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A266" s="11">
         <v>265</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A267" s="11">
         <v>266</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A268" s="11">
         <v>267</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A269" s="11">
         <v>268</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A270" s="11">
         <v>269</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A271" s="11">
         <v>270</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A272" s="11">
         <v>271</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A273" s="11">
         <v>272</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A274" s="11">
         <v>273</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A275" s="11">
         <v>274</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A276" s="11">
         <v>275</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A277" s="11">
         <v>276</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A278" s="11">
         <v>277</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A279" s="11">
         <v>278</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A280" s="11">
         <v>279</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A281" s="11">
         <v>280</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A282" s="11">
         <v>281</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A283" s="11">
         <v>282</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A284" s="11">
         <v>283</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A285" s="11">
         <v>284</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A286" s="11">
         <v>285</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A287" s="11">
         <v>286</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A288" s="11">
         <v>287</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A289" s="11">
         <v>288</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A290" s="11">
         <v>289</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A291" s="11">
         <v>290</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A292" s="11">
         <v>291</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A293" s="11">
         <v>292</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A294" s="11">
         <v>293</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A295" s="11">
         <v>294</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A296" s="11">
         <v>295</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A297" s="11">
         <v>296</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A298" s="11">
         <v>297</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A299" s="11">
         <v>298</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A300" s="11">
         <v>299</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A301" s="11">
         <v>300</v>
       </c>
     </row>
-    <row r="1048576" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1048576" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1048576" s="11">
         <f>SUM(A2:A1048575)</f>
         <v>45150</v>
@@ -3000,7 +3022,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3012,25 +3034,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H28" activeCellId="1" sqref="R9 H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.09765625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="16.09765625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="8.8984375" style="5" customWidth="1"/>
-    <col min="4" max="16384" width="8.69921875" style="4"/>
+    <col min="1" max="1" width="4.125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="16.125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="18" style="5" customWidth="1"/>
+    <col min="4" max="16384" width="8.75" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" s="9" t="s">
         <v>115</v>
       </c>
       <c r="C1" s="4"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -3038,7 +3060,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -3046,202 +3068,208 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B4" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="C7" s="6"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="C8" s="6"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="C9" s="6"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="C10" s="6"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="C11" s="6"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>12</v>
       </c>
       <c r="C13" s="6"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>19</v>
       </c>
       <c r="C20" s="6"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>20</v>
       </c>
       <c r="C21" s="6"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>21</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>22</v>
       </c>
       <c r="C23" s="6"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>23</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>24</v>
       </c>
       <c r="C25" s="6"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>25</v>
       </c>
       <c r="C26" s="6"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>27</v>
       </c>
       <c r="C28" s="6"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>28</v>
       </c>
       <c r="C29" s="6"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>29</v>
       </c>
       <c r="C30" s="6"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>30</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>31</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="8"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>32</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="7"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>33</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>34</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>35</v>
       </c>
       <c r="B36" s="10"/>
       <c r="C36" s="8"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -3249,13 +3277,13 @@
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>37</v>
       </c>
       <c r="C38" s="8"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -3264,1328 +3292,1328 @@
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>39</v>
       </c>
       <c r="C40" s="8"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>40</v>
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>41</v>
       </c>
       <c r="B42" s="10"/>
       <c r="C42" s="8"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>42</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>43</v>
       </c>
       <c r="C44" s="8"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>44</v>
       </c>
       <c r="C45" s="8"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>45</v>
       </c>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="4">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" s="4">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" s="4">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" s="4">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" s="4">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" s="4">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" s="4">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" s="4">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" s="4">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" s="4">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" s="4">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" s="4">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" s="4">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" s="4">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" s="4">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" s="4">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" s="4">
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" s="4">
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" s="4">
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" s="4">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" s="4">
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" s="4">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" s="4">
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" s="4">
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" s="4">
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" s="4">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" s="4">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" s="4">
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" s="4">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" s="4">
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" s="4">
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" s="4">
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" s="4">
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" s="4">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" s="4">
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" s="4">
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" s="4">
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" s="4">
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" s="4">
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" s="4">
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138" s="4">
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139" s="4">
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140" s="4">
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" s="4">
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" s="4">
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143" s="4">
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" s="4">
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" s="4">
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146" s="4">
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" s="4">
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148" s="4">
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149" s="4">
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150" s="4">
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151" s="4">
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152" s="4">
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153" s="4">
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154" s="4">
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155" s="4">
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156" s="4">
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157" s="4">
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158" s="4">
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159" s="4">
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A160" s="4">
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161" s="4">
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162" s="4">
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163" s="4">
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164" s="4">
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165" s="4">
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166" s="4">
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167" s="4">
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168" s="4">
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A169" s="4">
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A170" s="4">
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171" s="4">
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A172" s="4">
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A173" s="4">
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A174" s="4">
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A175" s="4">
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A176" s="4">
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A177" s="4">
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178" s="4">
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A179" s="4">
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A180" s="4">
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A181" s="4">
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A182" s="4">
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A183" s="4">
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A184" s="4">
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A185" s="4">
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A186" s="4">
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A187" s="4">
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A188" s="4">
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A189" s="4">
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A190" s="4">
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A191" s="4">
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A192" s="4">
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A193" s="4">
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A194" s="4">
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A195" s="4">
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A196" s="4">
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A197" s="4">
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A198" s="4">
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A199" s="4">
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A200" s="4">
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A201" s="4">
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A202" s="4">
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A203" s="4">
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A204" s="4">
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A205" s="4">
         <v>204</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A206" s="4">
         <v>205</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A207" s="4">
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A208" s="4">
         <v>207</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A209" s="4">
         <v>208</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A210" s="4">
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A211" s="4">
         <v>210</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A212" s="4">
         <v>211</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A213" s="4">
         <v>212</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A214" s="4">
         <v>213</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A215" s="4">
         <v>214</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A216" s="4">
         <v>215</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A217" s="4">
         <v>216</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A218" s="4">
         <v>217</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A219" s="4">
         <v>218</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A220" s="4">
         <v>219</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A221" s="4">
         <v>220</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A222" s="4">
         <v>221</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A223" s="4">
         <v>222</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A224" s="4">
         <v>223</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A225" s="4">
         <v>224</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A226" s="4">
         <v>225</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A227" s="4">
         <v>226</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A228" s="4">
         <v>227</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A229" s="4">
         <v>228</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A230" s="4">
         <v>229</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A231" s="4">
         <v>230</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A232" s="4">
         <v>231</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A233" s="4">
         <v>232</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A234" s="4">
         <v>233</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A235" s="4">
         <v>234</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A236" s="4">
         <v>235</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A237" s="4">
         <v>236</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A238" s="4">
         <v>237</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A239" s="4">
         <v>238</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A240" s="4">
         <v>239</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A241" s="4">
         <v>240</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A242" s="4">
         <v>241</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A243" s="4">
         <v>242</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A244" s="4">
         <v>243</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A245" s="4">
         <v>244</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A246" s="4">
         <v>245</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A247" s="4">
         <v>246</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A248" s="4">
         <v>247</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A249" s="4">
         <v>248</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A250" s="4">
         <v>249</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A251" s="4">
         <v>250</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A252" s="4">
         <v>251</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A253" s="4">
         <v>252</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A254" s="4">
         <v>253</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A255" s="4">
         <v>254</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A256" s="4">
         <v>255</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A257" s="4">
         <v>256</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A258" s="4">
         <v>257</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A259" s="4">
         <v>258</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A260" s="4">
         <v>259</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A261" s="4">
         <v>260</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A262" s="4">
         <v>261</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A263" s="4">
         <v>262</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A264" s="4">
         <v>263</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A265" s="4">
         <v>264</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A266" s="4">
         <v>265</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A267" s="4">
         <v>266</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A268" s="4">
         <v>267</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A269" s="4">
         <v>268</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A270" s="4">
         <v>269</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A271" s="4">
         <v>270</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A272" s="4">
         <v>271</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A273" s="4">
         <v>272</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A274" s="4">
         <v>273</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A275" s="4">
         <v>274</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A276" s="4">
         <v>275</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A277" s="4">
         <v>276</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A278" s="4">
         <v>277</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A279" s="4">
         <v>278</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A280" s="4">
         <v>279</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A281" s="4">
         <v>280</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A282" s="4">
         <v>281</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A283" s="4">
         <v>282</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A284" s="4">
         <v>283</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A285" s="4">
         <v>284</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A286" s="4">
         <v>285</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A287" s="4">
         <v>286</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A288" s="4">
         <v>287</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A289" s="4">
         <v>288</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A290" s="4">
         <v>289</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A291" s="4">
         <v>290</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A292" s="4">
         <v>291</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A293" s="4">
         <v>292</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A294" s="4">
         <v>293</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A295" s="4">
         <v>294</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A296" s="4">
         <v>295</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A297" s="4">
         <v>296</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A298" s="4">
         <v>297</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A299" s="4">
         <v>298</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A300" s="4">
         <v>299</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A301" s="4">
         <v>300</v>
       </c>
     </row>
-    <row r="1048576" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1048576" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1048576" s="4">
         <f>SUM(A2:A1048575)</f>
         <v>45150</v>
@@ -4606,13 +4634,13 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="10" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.69921875" customWidth="1"/>
+    <col min="3" max="3" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>47</v>
       </c>
@@ -4623,7 +4651,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4637,7 +4665,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4648,7 +4676,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4659,7 +4687,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4670,1702 +4698,1702 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>204</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>205</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>207</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>208</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>210</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>211</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>212</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>213</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>214</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>215</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>216</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>217</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>218</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>219</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>220</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>221</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>222</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>223</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>224</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>225</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>226</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>227</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>228</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>229</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>230</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>231</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>232</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>233</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>234</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>235</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>236</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>237</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>238</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>239</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>240</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>241</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>242</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>243</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>244</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>245</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>246</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>247</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>248</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>249</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>250</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>251</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>252</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>253</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>254</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>255</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>256</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>257</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>258</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>259</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>260</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>261</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>262</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>263</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>264</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>265</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>266</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>267</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>268</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>269</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>270</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>271</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>272</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>273</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>274</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>275</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>276</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>277</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>278</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>279</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>280</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>281</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>282</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>283</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>284</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>285</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>286</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>287</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>288</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>289</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>290</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>291</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>292</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>293</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>294</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>295</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>296</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>297</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>298</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>299</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>300</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>301</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>302</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>303</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>304</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>305</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>306</v>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>307</v>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>308</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>309</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>310</v>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>311</v>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>312</v>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>313</v>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>314</v>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>315</v>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>316</v>
       </c>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>317</v>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>318</v>
       </c>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>319</v>
       </c>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>320</v>
       </c>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>321</v>
       </c>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>322</v>
       </c>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>323</v>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>324</v>
       </c>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>325</v>
       </c>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>326</v>
       </c>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>327</v>
       </c>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>328</v>
       </c>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>329</v>
       </c>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>330</v>
       </c>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>331</v>
       </c>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>332</v>
       </c>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>333</v>
       </c>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>334</v>
       </c>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>335</v>
       </c>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>336</v>
       </c>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>337</v>
       </c>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>338</v>
       </c>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>339</v>
       </c>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>340</v>
       </c>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>341</v>
       </c>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>342</v>
       </c>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>343</v>
       </c>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>344</v>
       </c>
@@ -6386,37 +6414,37 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="255.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="255.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>26</v>
       </c>
@@ -6434,7 +6462,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/english.xlsx
+++ b/english.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="word" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="167">
   <si>
     <t>word</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -627,12 +627,22 @@
     <t>:sounds like code</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>astonishment</t>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>great surprise.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -692,6 +702,12 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFBDC1C6"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -714,7 +730,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -758,6 +774,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1041,8 +1058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M1048576"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T17" sqref="T17"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1775,6 +1792,15 @@
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="11">
         <v>56</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="D57" s="19" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -3034,7 +3060,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H28" activeCellId="1" sqref="R9 H28"/>
     </sheetView>
   </sheetViews>

--- a/english.xlsx
+++ b/english.xlsx
@@ -8,11 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="word" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId2"/>
-    <sheet name="GdEx" sheetId="5" r:id="rId3"/>
-    <sheet name="pronounciation" sheetId="3" r:id="rId4"/>
-    <sheet name="grammar" sheetId="2" r:id="rId5"/>
-    <sheet name="Sheet2" sheetId="7" r:id="rId6"/>
+    <sheet name="smwd" sheetId="8" r:id="rId2"/>
+    <sheet name="pmwd" sheetId="9" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId4"/>
+    <sheet name="GdEx" sheetId="5" r:id="rId5"/>
+    <sheet name="pronounciation" sheetId="3" r:id="rId6"/>
+    <sheet name="grammar" sheetId="2" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="178">
   <si>
     <t>word</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -637,12 +639,52 @@
   <si>
     <t>great surprise.</t>
   </si>
+  <si>
+    <t>word</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meaning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cover</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>extent</t>
+  </si>
+  <si>
+    <t>the area covered by something.</t>
+  </si>
+  <si>
+    <t>the degree to which something has spread; the size or scale of something.</t>
+  </si>
+  <si>
+    <t>the amount to which something is or is believed to be the case.</t>
+  </si>
+  <si>
+    <t>Solomean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>polysemy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if I forget enclosure I always write and save data. Its investigate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -708,6 +750,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="21"/>
+      <color rgb="FFE8EAED"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -730,7 +778,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -775,6 +823,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1058,8 +1107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1668,7 +1717,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="11">
         <v>48</v>
       </c>
@@ -1682,7 +1731,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="11">
         <v>49</v>
       </c>
@@ -1696,7 +1745,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="11">
         <v>50</v>
       </c>
@@ -1713,7 +1762,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="11">
         <v>51</v>
       </c>
@@ -1727,7 +1776,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="11">
         <v>52</v>
       </c>
@@ -1744,7 +1793,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="11">
         <v>53</v>
       </c>
@@ -1758,7 +1807,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="11">
         <v>54</v>
       </c>
@@ -1772,7 +1821,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="11">
         <v>55</v>
       </c>
@@ -1789,7 +1838,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="11">
         <v>56</v>
       </c>
@@ -1803,37 +1852,55 @@
         <v>166</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" ht="26.25" x14ac:dyDescent="0.35">
       <c r="A58" s="11">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B58" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="C58" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="D58" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="E58" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="F58" s="19" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="11">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D59" s="13" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="11">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="11">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="11">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="11">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="11">
         <v>63</v>
       </c>
@@ -3044,6 +3111,1843 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M1048576"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="7.25" style="12" customWidth="1"/>
+    <col min="3" max="3" width="16.125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="8.875" style="13" customWidth="1"/>
+    <col min="5" max="16384" width="8.75" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="D2" s="15"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="11">
+        <v>2</v>
+      </c>
+      <c r="D3" s="15"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="11">
+        <v>6</v>
+      </c>
+      <c r="D7" s="14"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="11">
+        <v>7</v>
+      </c>
+      <c r="D8" s="14"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="11">
+        <v>8</v>
+      </c>
+      <c r="D9" s="14"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="11">
+        <v>9</v>
+      </c>
+      <c r="D10" s="14"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="11">
+        <v>10</v>
+      </c>
+      <c r="D11" s="14"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="11">
+        <v>12</v>
+      </c>
+      <c r="D13" s="14"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="11">
+        <v>17</v>
+      </c>
+      <c r="D18" s="14"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="11">
+        <v>18</v>
+      </c>
+      <c r="D19" s="14"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="11">
+        <v>19</v>
+      </c>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="11">
+        <v>20</v>
+      </c>
+      <c r="D21" s="14"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="11">
+        <v>21</v>
+      </c>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="11">
+        <v>22</v>
+      </c>
+      <c r="D23" s="14"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="11">
+        <v>23</v>
+      </c>
+      <c r="D24" s="14"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="11">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="11">
+        <v>25</v>
+      </c>
+      <c r="D26" s="14"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="11">
+        <v>26</v>
+      </c>
+      <c r="D27" s="14"/>
+      <c r="L27" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="M27" s="13" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="11">
+        <v>27</v>
+      </c>
+      <c r="D28" s="14"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" s="11">
+        <v>28</v>
+      </c>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" s="11">
+        <v>29</v>
+      </c>
+      <c r="D30" s="14"/>
+      <c r="E30" s="15"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" s="11">
+        <v>30</v>
+      </c>
+      <c r="D31" s="14"/>
+      <c r="E31" s="16"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" s="11">
+        <v>31</v>
+      </c>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="11">
+        <v>32</v>
+      </c>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="11">
+        <v>33</v>
+      </c>
+      <c r="C34" s="17"/>
+      <c r="D34" s="15"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="11">
+        <v>34</v>
+      </c>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="11">
+        <v>35</v>
+      </c>
+      <c r="D36" s="15"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="11">
+        <v>36</v>
+      </c>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="11">
+        <v>37</v>
+      </c>
+      <c r="D38" s="15"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="11">
+        <v>38</v>
+      </c>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="11">
+        <v>39</v>
+      </c>
+      <c r="C40" s="17"/>
+      <c r="D40" s="15"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="11">
+        <v>40</v>
+      </c>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="11">
+        <v>41</v>
+      </c>
+      <c r="D42" s="15"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="11">
+        <v>42</v>
+      </c>
+      <c r="D43" s="15"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="11">
+        <v>43</v>
+      </c>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="11">
+        <v>44</v>
+      </c>
+      <c r="D45" s="15"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="11">
+        <v>45</v>
+      </c>
+      <c r="C46" s="11"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="11">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="11">
+        <v>47</v>
+      </c>
+      <c r="C48" s="11"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="11">
+        <v>48</v>
+      </c>
+      <c r="D49" s="15"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="11">
+        <v>49</v>
+      </c>
+      <c r="D50" s="18"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="11">
+        <v>50</v>
+      </c>
+      <c r="C51" s="11"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="11">
+        <v>51</v>
+      </c>
+      <c r="C52" s="11"/>
+      <c r="D52" s="15"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="11">
+        <v>52</v>
+      </c>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="11">
+        <v>53</v>
+      </c>
+      <c r="C54" s="11"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="11">
+        <v>54</v>
+      </c>
+      <c r="C55" s="11"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="11">
+        <v>55</v>
+      </c>
+      <c r="C56" s="11"/>
+      <c r="E56" s="15"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="11">
+        <v>56</v>
+      </c>
+      <c r="D57" s="19"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="11">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="11">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="11">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="11">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="11">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="11">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" s="11">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" s="11">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" s="11">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" s="11">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" s="11">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" s="11">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" s="11">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" s="11">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" s="11">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" s="11">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" s="11">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" s="11">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" s="11">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" s="11">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" s="11">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" s="11">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" s="11">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" s="11">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" s="11">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" s="11">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" s="11">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" s="11">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" s="11">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" s="11">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" s="11">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" s="11">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" s="11">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" s="11">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" s="11">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" s="11">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" s="11">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" s="11">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" s="11">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" s="11">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" s="11">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" s="11">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" s="11">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" s="11">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" s="11">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" s="11">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" s="11">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" s="11">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" s="11">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" s="11">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111" s="11">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" s="11">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" s="11">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" s="11">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" s="11">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" s="11">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" s="11">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" s="11">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" s="11">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" s="11">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" s="11">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123" s="11">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124" s="11">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" s="11">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126" s="11">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127" s="11">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128" s="11">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" s="11">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" s="11">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131" s="11">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" s="11">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133" s="11">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134" s="11">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135" s="11">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136" s="11">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137" s="11">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138" s="11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139" s="11">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140" s="11">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141" s="11">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A142" s="11">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A143" s="11">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A144" s="11">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A145" s="11">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A146" s="11">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A147" s="11">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A148" s="11">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A149" s="11">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A150" s="11">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A151" s="11">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A152" s="11">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A153" s="11">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A154" s="11">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A155" s="11">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A156" s="11">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A157" s="11">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A158" s="11">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A159" s="11">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A160" s="11">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A161" s="11">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A162" s="11">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A163" s="11">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A164" s="11">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A165" s="11">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A166" s="11">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A167" s="11">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A168" s="11">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A169" s="11">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A170" s="11">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A171" s="11">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A172" s="11">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A173" s="11">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A174" s="11">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A175" s="11">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A176" s="11">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A177" s="11">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A178" s="11">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A179" s="11">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A180" s="11">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A181" s="11">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A182" s="11">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A183" s="11">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A184" s="11">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A185" s="11">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A186" s="11">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A187" s="11">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A188" s="11">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A189" s="11">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A190" s="11">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A191" s="11">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A192" s="11">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A193" s="11">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A194" s="11">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A195" s="11">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A196" s="11">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A197" s="11">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A198" s="11">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A199" s="11">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A200" s="11">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A201" s="11">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A202" s="11">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A203" s="11">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A204" s="11">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A205" s="11">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A206" s="11">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A207" s="11">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A208" s="11">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A209" s="11">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A210" s="11">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A211" s="11">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A212" s="11">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A213" s="11">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A214" s="11">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A215" s="11">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A216" s="11">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A217" s="11">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A218" s="11">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A219" s="11">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A220" s="11">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A221" s="11">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A222" s="11">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A223" s="11">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A224" s="11">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A225" s="11">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A226" s="11">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A227" s="11">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A228" s="11">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A229" s="11">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A230" s="11">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A231" s="11">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A232" s="11">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A233" s="11">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A234" s="11">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A235" s="11">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A236" s="11">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A237" s="11">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A238" s="11">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A239" s="11">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A240" s="11">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A241" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A242" s="11">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A243" s="11">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A244" s="11">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A245" s="11">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A246" s="11">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A247" s="11">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A248" s="11">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A249" s="11">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A250" s="11">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A251" s="11">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A252" s="11">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A253" s="11">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A254" s="11">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A255" s="11">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A256" s="11">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A257" s="11">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A258" s="11">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A259" s="11">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A260" s="11">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A261" s="11">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A262" s="11">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A263" s="11">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A264" s="11">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A265" s="11">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A266" s="11">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A267" s="11">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A268" s="11">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A269" s="11">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A270" s="11">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A271" s="11">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A272" s="11">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A273" s="11">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A274" s="11">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A275" s="11">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A276" s="11">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A277" s="11">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A278" s="11">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A279" s="11">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A280" s="11">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A281" s="11">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A282" s="11">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A283" s="11">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A284" s="11">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A285" s="11">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A286" s="11">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A287" s="11">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A288" s="11">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A289" s="11">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A290" s="11">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A291" s="11">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A292" s="11">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A293" s="11">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A294" s="11">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A295" s="11">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A296" s="11">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A297" s="11">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A298" s="11">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A299" s="11">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A300" s="11">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A301" s="11">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="1048576" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1048576" s="11">
+        <f>SUM(A2:A1048575)</f>
+        <v>45150</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="7.25" style="12" customWidth="1"/>
+    <col min="3" max="3" width="16.125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="8.875" style="13" customWidth="1"/>
+    <col min="5" max="16384" width="8.75" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="D2" s="15"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D3" s="15"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D7" s="14"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D8" s="14"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D9" s="14"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D10" s="14"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D11" s="14"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D13" s="14"/>
+    </row>
+    <row r="18" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D18" s="14"/>
+    </row>
+    <row r="19" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D19" s="14"/>
+    </row>
+    <row r="20" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+    </row>
+    <row r="21" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D21" s="14"/>
+    </row>
+    <row r="22" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+    </row>
+    <row r="23" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D23" s="14"/>
+    </row>
+    <row r="24" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D24" s="14"/>
+    </row>
+    <row r="26" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D26" s="14"/>
+    </row>
+    <row r="27" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D27" s="14"/>
+      <c r="L27" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="M27" s="13" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="28" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D28" s="14"/>
+    </row>
+    <row r="29" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+    </row>
+    <row r="30" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D30" s="14"/>
+      <c r="E30" s="15"/>
+    </row>
+    <row r="31" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D31" s="14"/>
+      <c r="E31" s="16"/>
+    </row>
+    <row r="32" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+    </row>
+    <row r="34" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C34" s="17"/>
+      <c r="D34" s="15"/>
+    </row>
+    <row r="35" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+    </row>
+    <row r="36" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="D36" s="15"/>
+    </row>
+    <row r="37" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+    </row>
+    <row r="38" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="D38" s="15"/>
+    </row>
+    <row r="39" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+    </row>
+    <row r="40" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C40" s="17"/>
+      <c r="D40" s="15"/>
+    </row>
+    <row r="41" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+    </row>
+    <row r="42" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="D42" s="15"/>
+    </row>
+    <row r="43" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="D43" s="15"/>
+    </row>
+    <row r="44" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+    </row>
+    <row r="45" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="D45" s="15"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+    </row>
+    <row r="46" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C46" s="11"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+    </row>
+    <row r="48" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C48" s="11"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+    </row>
+    <row r="49" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D49" s="15"/>
+    </row>
+    <row r="50" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D50" s="18"/>
+    </row>
+    <row r="51" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C51" s="11"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+    </row>
+    <row r="52" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C52" s="11"/>
+      <c r="D52" s="15"/>
+    </row>
+    <row r="53" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+    </row>
+    <row r="54" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C54" s="11"/>
+    </row>
+    <row r="55" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C55" s="11"/>
+    </row>
+    <row r="56" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C56" s="11"/>
+      <c r="E56" s="15"/>
+    </row>
+    <row r="57" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D57" s="19"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3056,7 +4960,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1048576"/>
   <sheetViews>
@@ -4652,7 +6556,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D345"/>
   <sheetViews>
@@ -6432,7 +8336,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:B6"/>
   <sheetViews>
@@ -6482,7 +8386,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/english.xlsx
+++ b/english.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="word" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="182">
   <si>
     <t>word</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -679,12 +679,26 @@
     <t>if I forget enclosure I always write and save data. Its investigate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>explicit</t>
+  </si>
+  <si>
+    <t>explicit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stated clearly and in detail, leaving no room for confusion or doubt.</t>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -756,6 +770,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="17"/>
+      <color rgb="FFE8EAED"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -778,7 +798,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -824,6 +844,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1107,20 +1128,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="7.25" style="12" customWidth="1"/>
-    <col min="3" max="3" width="16.125" style="12" customWidth="1"/>
-    <col min="4" max="4" width="8.875" style="13" customWidth="1"/>
-    <col min="5" max="16384" width="8.75" style="11"/>
+    <col min="1" max="1" width="4.09765625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="7.19921875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="16.09765625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="8.8984375" style="13" customWidth="1"/>
+    <col min="5" max="16384" width="8.69921875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1128,7 +1149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -1139,7 +1160,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -1150,7 +1171,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -1158,7 +1179,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -1166,7 +1187,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -1177,7 +1198,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -1188,7 +1209,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -1199,7 +1220,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -1210,7 +1231,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -1221,7 +1242,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -1232,7 +1253,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -1243,7 +1264,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -1254,7 +1275,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -1265,7 +1286,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -1276,7 +1297,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -1284,7 +1305,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -1295,7 +1316,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -1306,7 +1327,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -1317,7 +1338,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -1331,7 +1352,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A21" s="11">
         <v>20</v>
       </c>
@@ -1342,7 +1363,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A22" s="11">
         <v>21</v>
       </c>
@@ -1356,7 +1377,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A23" s="11">
         <v>22</v>
       </c>
@@ -1367,7 +1388,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A24" s="11">
         <v>23</v>
       </c>
@@ -1378,7 +1399,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A25" s="11">
         <v>24</v>
       </c>
@@ -1389,7 +1410,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A26" s="11">
         <v>25</v>
       </c>
@@ -1400,7 +1421,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A27" s="11">
         <v>26</v>
       </c>
@@ -1417,7 +1438,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A28" s="11">
         <v>27</v>
       </c>
@@ -1428,7 +1449,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A29" s="11">
         <v>28</v>
       </c>
@@ -1442,7 +1463,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A30" s="11">
         <v>29</v>
       </c>
@@ -1456,7 +1477,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A31" s="11">
         <v>30</v>
       </c>
@@ -1470,7 +1491,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A32" s="11">
         <v>31</v>
       </c>
@@ -1487,7 +1508,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" s="11">
         <v>32</v>
       </c>
@@ -1501,7 +1522,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" s="11">
         <v>33</v>
       </c>
@@ -1512,7 +1533,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" s="11">
         <v>34</v>
       </c>
@@ -1529,7 +1550,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" s="11">
         <v>35</v>
       </c>
@@ -1540,7 +1561,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" s="11">
         <v>36</v>
       </c>
@@ -1560,7 +1581,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" s="11">
         <v>37</v>
       </c>
@@ -1571,7 +1592,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" s="11">
         <v>38</v>
       </c>
@@ -1585,7 +1606,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" s="11">
         <v>39</v>
       </c>
@@ -1596,7 +1617,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" s="11">
         <v>40</v>
       </c>
@@ -1610,7 +1631,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" s="11">
         <v>41</v>
       </c>
@@ -1621,7 +1642,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" s="11">
         <v>42</v>
       </c>
@@ -1632,7 +1653,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" s="11">
         <v>43</v>
       </c>
@@ -1646,7 +1667,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" s="11">
         <v>44</v>
       </c>
@@ -1669,7 +1690,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" s="11">
         <v>45</v>
       </c>
@@ -1686,7 +1707,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" s="11">
         <v>46</v>
       </c>
@@ -1700,7 +1721,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" s="11">
         <v>47</v>
       </c>
@@ -1717,7 +1738,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A49" s="11">
         <v>48</v>
       </c>
@@ -1731,7 +1752,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A50" s="11">
         <v>49</v>
       </c>
@@ -1745,7 +1766,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A51" s="11">
         <v>50</v>
       </c>
@@ -1762,7 +1783,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A52" s="11">
         <v>51</v>
       </c>
@@ -1776,7 +1797,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A53" s="11">
         <v>52</v>
       </c>
@@ -1793,7 +1814,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A54" s="11">
         <v>53</v>
       </c>
@@ -1807,7 +1828,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A55" s="11">
         <v>54</v>
       </c>
@@ -1821,7 +1842,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A56" s="11">
         <v>55</v>
       </c>
@@ -1838,7 +1859,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A57" s="11">
         <v>56</v>
       </c>
@@ -1852,7 +1873,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="26.25" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" ht="26.4" x14ac:dyDescent="0.45">
       <c r="A58" s="11">
         <v>57</v>
       </c>
@@ -1872,7 +1893,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A59" s="11">
         <v>58</v>
       </c>
@@ -1880,1217 +1901,1220 @@
         <v>177</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A60" s="11">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C60" s="12" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A61" s="11">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A62" s="11">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A63" s="11">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A64" s="11">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A65" s="11">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A66" s="11">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A67" s="11">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A68" s="11">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A69" s="11">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A70" s="11">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A71" s="11">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A72" s="11">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A73" s="11">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A74" s="11">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A75" s="11">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A76" s="11">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A77" s="11">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A78" s="11">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A79" s="11">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A80" s="11">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A81" s="11">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A82" s="11">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A83" s="11">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A84" s="11">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A85" s="11">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A86" s="11">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A87" s="11">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A88" s="11">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A89" s="11">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A90" s="11">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A91" s="11">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A92" s="11">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A93" s="11">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A94" s="11">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A95" s="11">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A96" s="11">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A97" s="11">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A98" s="11">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A99" s="11">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A100" s="11">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A101" s="11">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A102" s="11">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A103" s="11">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A104" s="11">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A105" s="11">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A106" s="11">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A107" s="11">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A108" s="11">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A109" s="11">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A110" s="11">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A111" s="11">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A112" s="11">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A113" s="11">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A114" s="11">
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A115" s="11">
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A116" s="11">
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A117" s="11">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A118" s="11">
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A119" s="11">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A120" s="11">
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A121" s="11">
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A122" s="11">
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A123" s="11">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A124" s="11">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A125" s="11">
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A126" s="11">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A127" s="11">
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A128" s="11">
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A129" s="11">
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A130" s="11">
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A131" s="11">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A132" s="11">
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A133" s="11">
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A134" s="11">
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A135" s="11">
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A136" s="11">
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A137" s="11">
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A138" s="11">
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A139" s="11">
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A140" s="11">
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A141" s="11">
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A142" s="11">
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A143" s="11">
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A144" s="11">
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A145" s="11">
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A146" s="11">
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A147" s="11">
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A148" s="11">
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A149" s="11">
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A150" s="11">
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A151" s="11">
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A152" s="11">
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A153" s="11">
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A154" s="11">
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A155" s="11">
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A156" s="11">
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A157" s="11">
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A158" s="11">
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A159" s="11">
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A160" s="11">
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A161" s="11">
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A162" s="11">
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A163" s="11">
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A164" s="11">
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A165" s="11">
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A166" s="11">
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A167" s="11">
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A168" s="11">
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A169" s="11">
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A170" s="11">
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A171" s="11">
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A172" s="11">
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A173" s="11">
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A174" s="11">
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A175" s="11">
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A176" s="11">
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A177" s="11">
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A178" s="11">
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A179" s="11">
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A180" s="11">
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A181" s="11">
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A182" s="11">
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A183" s="11">
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A184" s="11">
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A185" s="11">
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A186" s="11">
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A187" s="11">
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A188" s="11">
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A189" s="11">
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A190" s="11">
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A191" s="11">
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A192" s="11">
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A193" s="11">
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A194" s="11">
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A195" s="11">
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A196" s="11">
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A197" s="11">
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A198" s="11">
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A199" s="11">
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A200" s="11">
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A201" s="11">
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A202" s="11">
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A203" s="11">
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A204" s="11">
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A205" s="11">
         <v>204</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A206" s="11">
         <v>205</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A207" s="11">
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A208" s="11">
         <v>207</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A209" s="11">
         <v>208</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A210" s="11">
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A211" s="11">
         <v>210</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A212" s="11">
         <v>211</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A213" s="11">
         <v>212</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A214" s="11">
         <v>213</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A215" s="11">
         <v>214</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A216" s="11">
         <v>215</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A217" s="11">
         <v>216</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A218" s="11">
         <v>217</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A219" s="11">
         <v>218</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A220" s="11">
         <v>219</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A221" s="11">
         <v>220</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A222" s="11">
         <v>221</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A223" s="11">
         <v>222</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A224" s="11">
         <v>223</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A225" s="11">
         <v>224</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A226" s="11">
         <v>225</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A227" s="11">
         <v>226</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A228" s="11">
         <v>227</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A229" s="11">
         <v>228</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A230" s="11">
         <v>229</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A231" s="11">
         <v>230</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A232" s="11">
         <v>231</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A233" s="11">
         <v>232</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A234" s="11">
         <v>233</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A235" s="11">
         <v>234</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A236" s="11">
         <v>235</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A237" s="11">
         <v>236</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A238" s="11">
         <v>237</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A239" s="11">
         <v>238</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A240" s="11">
         <v>239</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A241" s="11">
         <v>240</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A242" s="11">
         <v>241</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A243" s="11">
         <v>242</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A244" s="11">
         <v>243</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A245" s="11">
         <v>244</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A246" s="11">
         <v>245</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A247" s="11">
         <v>246</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A248" s="11">
         <v>247</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A249" s="11">
         <v>248</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A250" s="11">
         <v>249</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A251" s="11">
         <v>250</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A252" s="11">
         <v>251</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A253" s="11">
         <v>252</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A254" s="11">
         <v>253</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A255" s="11">
         <v>254</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A256" s="11">
         <v>255</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A257" s="11">
         <v>256</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A258" s="11">
         <v>257</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A259" s="11">
         <v>258</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A260" s="11">
         <v>259</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A261" s="11">
         <v>260</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A262" s="11">
         <v>261</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A263" s="11">
         <v>262</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A264" s="11">
         <v>263</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A265" s="11">
         <v>264</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A266" s="11">
         <v>265</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A267" s="11">
         <v>266</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A268" s="11">
         <v>267</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A269" s="11">
         <v>268</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A270" s="11">
         <v>269</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A271" s="11">
         <v>270</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A272" s="11">
         <v>271</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A273" s="11">
         <v>272</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A274" s="11">
         <v>273</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A275" s="11">
         <v>274</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A276" s="11">
         <v>275</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A277" s="11">
         <v>276</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A278" s="11">
         <v>277</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A279" s="11">
         <v>278</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A280" s="11">
         <v>279</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A281" s="11">
         <v>280</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A282" s="11">
         <v>281</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A283" s="11">
         <v>282</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A284" s="11">
         <v>283</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A285" s="11">
         <v>284</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A286" s="11">
         <v>285</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A287" s="11">
         <v>286</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A288" s="11">
         <v>287</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A289" s="11">
         <v>288</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A290" s="11">
         <v>289</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A291" s="11">
         <v>290</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A292" s="11">
         <v>291</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A293" s="11">
         <v>292</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A294" s="11">
         <v>293</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A295" s="11">
         <v>294</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A296" s="11">
         <v>295</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A297" s="11">
         <v>296</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A298" s="11">
         <v>297</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A299" s="11">
         <v>298</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A300" s="11">
         <v>299</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A301" s="11">
         <v>300</v>
       </c>
     </row>
-    <row r="1048576" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1048576" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1048576" s="11">
         <f>SUM(A2:A1048575)</f>
         <v>45150</v>
@@ -3113,20 +3137,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M1048576"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="7.25" style="12" customWidth="1"/>
-    <col min="3" max="3" width="16.125" style="12" customWidth="1"/>
-    <col min="4" max="4" width="8.875" style="13" customWidth="1"/>
-    <col min="5" max="16384" width="8.75" style="11"/>
+    <col min="1" max="1" width="4.09765625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="7.19921875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="16.09765625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="8.8984375" style="13" customWidth="1"/>
+    <col min="5" max="16384" width="8.69921875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="13" t="s">
         <v>175</v>
       </c>
@@ -3138,150 +3162,158 @@
         <v>168</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="22.2" x14ac:dyDescent="0.45">
       <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="D2" s="15"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B2" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="11">
         <v>2</v>
       </c>
       <c r="D3" s="15"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="11">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="11">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="11">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="11">
         <v>6</v>
       </c>
       <c r="D7" s="14"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="11">
         <v>7</v>
       </c>
       <c r="D8" s="14"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="11">
         <v>8</v>
       </c>
       <c r="D9" s="14"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="11">
         <v>9</v>
       </c>
       <c r="D10" s="14"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="11">
         <v>10</v>
       </c>
       <c r="D11" s="14"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="11">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="11">
         <v>12</v>
       </c>
       <c r="D13" s="14"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="11">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="11">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="11">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A17" s="11">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A18" s="11">
         <v>17</v>
       </c>
       <c r="D18" s="14"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A19" s="11">
         <v>18</v>
       </c>
       <c r="D19" s="14"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A20" s="11">
         <v>19</v>
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A21" s="11">
         <v>20</v>
       </c>
       <c r="D21" s="14"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A22" s="11">
         <v>21</v>
       </c>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A23" s="11">
         <v>22</v>
       </c>
       <c r="D23" s="14"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A24" s="11">
         <v>23</v>
       </c>
       <c r="D24" s="14"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A25" s="11">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A26" s="11">
         <v>25</v>
       </c>
       <c r="D26" s="14"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A27" s="11">
         <v>26</v>
       </c>
@@ -3293,55 +3325,55 @@
         <v>160</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A28" s="11">
         <v>27</v>
       </c>
       <c r="D28" s="14"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A29" s="11">
         <v>28</v>
       </c>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A30" s="11">
         <v>29</v>
       </c>
       <c r="D30" s="14"/>
       <c r="E30" s="15"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A31" s="11">
         <v>30</v>
       </c>
       <c r="D31" s="14"/>
       <c r="E31" s="16"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A32" s="11">
         <v>31</v>
       </c>
       <c r="D32" s="15"/>
       <c r="E32" s="15"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" s="11">
         <v>32</v>
       </c>
       <c r="D33" s="15"/>
       <c r="E33" s="15"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" s="11">
         <v>33</v>
       </c>
       <c r="C34" s="17"/>
       <c r="D34" s="15"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" s="11">
         <v>34</v>
       </c>
@@ -3349,13 +3381,13 @@
       <c r="E35" s="15"/>
       <c r="F35" s="15"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" s="11">
         <v>35</v>
       </c>
       <c r="D36" s="15"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" s="11">
         <v>36</v>
       </c>
@@ -3364,53 +3396,53 @@
       <c r="F37" s="15"/>
       <c r="G37" s="15"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" s="11">
         <v>37</v>
       </c>
       <c r="D38" s="15"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" s="11">
         <v>38</v>
       </c>
       <c r="D39" s="15"/>
       <c r="E39" s="15"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" s="11">
         <v>39</v>
       </c>
       <c r="C40" s="17"/>
       <c r="D40" s="15"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" s="11">
         <v>40</v>
       </c>
       <c r="D41" s="15"/>
       <c r="E41" s="15"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" s="11">
         <v>41</v>
       </c>
       <c r="D42" s="15"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" s="11">
         <v>42</v>
       </c>
       <c r="D43" s="15"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" s="11">
         <v>43</v>
       </c>
       <c r="D44" s="15"/>
       <c r="E44" s="15"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" s="11">
         <v>44</v>
       </c>
@@ -3419,7 +3451,7 @@
       <c r="F45" s="18"/>
       <c r="G45" s="18"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" s="11">
         <v>45</v>
       </c>
@@ -3427,12 +3459,12 @@
       <c r="D46" s="15"/>
       <c r="E46" s="15"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" s="11">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" s="11">
         <v>47</v>
       </c>
@@ -3440,19 +3472,19 @@
       <c r="D48" s="15"/>
       <c r="E48" s="15"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A49" s="11">
         <v>48</v>
       </c>
       <c r="D49" s="15"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A50" s="11">
         <v>49</v>
       </c>
       <c r="D50" s="18"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A51" s="11">
         <v>50</v>
       </c>
@@ -3460,1266 +3492,1266 @@
       <c r="D51" s="15"/>
       <c r="E51" s="15"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A52" s="11">
         <v>51</v>
       </c>
       <c r="C52" s="11"/>
       <c r="D52" s="15"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A53" s="11">
         <v>52</v>
       </c>
       <c r="D53" s="15"/>
       <c r="E53" s="15"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A54" s="11">
         <v>53</v>
       </c>
       <c r="C54" s="11"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A55" s="11">
         <v>54</v>
       </c>
       <c r="C55" s="11"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A56" s="11">
         <v>55</v>
       </c>
       <c r="C56" s="11"/>
       <c r="E56" s="15"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A57" s="11">
         <v>56</v>
       </c>
       <c r="D57" s="19"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A58" s="11">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A59" s="11">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A60" s="11">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A61" s="11">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A62" s="11">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A63" s="11">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A64" s="11">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A65" s="11">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A66" s="11">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A67" s="11">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A68" s="11">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A69" s="11">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A70" s="11">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A71" s="11">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A72" s="11">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A73" s="11">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A74" s="11">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A75" s="11">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A76" s="11">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A77" s="11">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A78" s="11">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A79" s="11">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A80" s="11">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A81" s="11">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A82" s="11">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A83" s="11">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A84" s="11">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A85" s="11">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A86" s="11">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A87" s="11">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A88" s="11">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A89" s="11">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A90" s="11">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A91" s="11">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A92" s="11">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A93" s="11">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A94" s="11">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A95" s="11">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A96" s="11">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A97" s="11">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A98" s="11">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A99" s="11">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A100" s="11">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A101" s="11">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A102" s="11">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A103" s="11">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A104" s="11">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A105" s="11">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A106" s="11">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A107" s="11">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A108" s="11">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A109" s="11">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A110" s="11">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A111" s="11">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A112" s="11">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A113" s="11">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A114" s="11">
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A115" s="11">
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A116" s="11">
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A117" s="11">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A118" s="11">
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A119" s="11">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A120" s="11">
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A121" s="11">
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A122" s="11">
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A123" s="11">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A124" s="11">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A125" s="11">
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A126" s="11">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A127" s="11">
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A128" s="11">
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A129" s="11">
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A130" s="11">
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A131" s="11">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A132" s="11">
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A133" s="11">
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A134" s="11">
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A135" s="11">
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A136" s="11">
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A137" s="11">
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A138" s="11">
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A139" s="11">
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A140" s="11">
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A141" s="11">
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A142" s="11">
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A143" s="11">
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A144" s="11">
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A145" s="11">
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A146" s="11">
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A147" s="11">
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A148" s="11">
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A149" s="11">
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A150" s="11">
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A151" s="11">
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A152" s="11">
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A153" s="11">
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A154" s="11">
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A155" s="11">
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A156" s="11">
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A157" s="11">
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A158" s="11">
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A159" s="11">
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A160" s="11">
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A161" s="11">
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A162" s="11">
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A163" s="11">
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A164" s="11">
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A165" s="11">
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A166" s="11">
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A167" s="11">
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A168" s="11">
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A169" s="11">
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A170" s="11">
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A171" s="11">
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A172" s="11">
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A173" s="11">
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A174" s="11">
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A175" s="11">
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A176" s="11">
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A177" s="11">
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A178" s="11">
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A179" s="11">
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A180" s="11">
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A181" s="11">
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A182" s="11">
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A183" s="11">
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A184" s="11">
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A185" s="11">
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A186" s="11">
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A187" s="11">
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A188" s="11">
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A189" s="11">
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A190" s="11">
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A191" s="11">
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A192" s="11">
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A193" s="11">
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A194" s="11">
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A195" s="11">
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A196" s="11">
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A197" s="11">
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A198" s="11">
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A199" s="11">
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A200" s="11">
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A201" s="11">
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A202" s="11">
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A203" s="11">
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A204" s="11">
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A205" s="11">
         <v>204</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A206" s="11">
         <v>205</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A207" s="11">
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A208" s="11">
         <v>207</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A209" s="11">
         <v>208</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A210" s="11">
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A211" s="11">
         <v>210</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A212" s="11">
         <v>211</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A213" s="11">
         <v>212</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A214" s="11">
         <v>213</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A215" s="11">
         <v>214</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A216" s="11">
         <v>215</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A217" s="11">
         <v>216</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A218" s="11">
         <v>217</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A219" s="11">
         <v>218</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A220" s="11">
         <v>219</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A221" s="11">
         <v>220</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A222" s="11">
         <v>221</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A223" s="11">
         <v>222</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A224" s="11">
         <v>223</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A225" s="11">
         <v>224</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A226" s="11">
         <v>225</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A227" s="11">
         <v>226</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A228" s="11">
         <v>227</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A229" s="11">
         <v>228</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A230" s="11">
         <v>229</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A231" s="11">
         <v>230</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A232" s="11">
         <v>231</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A233" s="11">
         <v>232</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A234" s="11">
         <v>233</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A235" s="11">
         <v>234</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A236" s="11">
         <v>235</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A237" s="11">
         <v>236</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A238" s="11">
         <v>237</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A239" s="11">
         <v>238</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A240" s="11">
         <v>239</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A241" s="11">
         <v>240</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A242" s="11">
         <v>241</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A243" s="11">
         <v>242</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A244" s="11">
         <v>243</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A245" s="11">
         <v>244</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A246" s="11">
         <v>245</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A247" s="11">
         <v>246</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A248" s="11">
         <v>247</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A249" s="11">
         <v>248</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A250" s="11">
         <v>249</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A251" s="11">
         <v>250</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A252" s="11">
         <v>251</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A253" s="11">
         <v>252</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A254" s="11">
         <v>253</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A255" s="11">
         <v>254</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A256" s="11">
         <v>255</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A257" s="11">
         <v>256</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A258" s="11">
         <v>257</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A259" s="11">
         <v>258</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A260" s="11">
         <v>259</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A261" s="11">
         <v>260</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A262" s="11">
         <v>261</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A263" s="11">
         <v>262</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A264" s="11">
         <v>263</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A265" s="11">
         <v>264</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A266" s="11">
         <v>265</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A267" s="11">
         <v>266</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A268" s="11">
         <v>267</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A269" s="11">
         <v>268</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A270" s="11">
         <v>269</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A271" s="11">
         <v>270</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A272" s="11">
         <v>271</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A273" s="11">
         <v>272</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A274" s="11">
         <v>273</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A275" s="11">
         <v>274</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A276" s="11">
         <v>275</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A277" s="11">
         <v>276</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A278" s="11">
         <v>277</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A279" s="11">
         <v>278</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A280" s="11">
         <v>279</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A281" s="11">
         <v>280</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A282" s="11">
         <v>281</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A283" s="11">
         <v>282</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A284" s="11">
         <v>283</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A285" s="11">
         <v>284</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A286" s="11">
         <v>285</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A287" s="11">
         <v>286</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A288" s="11">
         <v>287</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A289" s="11">
         <v>288</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A290" s="11">
         <v>289</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A291" s="11">
         <v>290</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A292" s="11">
         <v>291</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A293" s="11">
         <v>292</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A294" s="11">
         <v>293</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A295" s="11">
         <v>294</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A296" s="11">
         <v>295</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A297" s="11">
         <v>296</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A298" s="11">
         <v>297</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A299" s="11">
         <v>298</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A300" s="11">
         <v>299</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A301" s="11">
         <v>300</v>
       </c>
     </row>
-    <row r="1048576" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1048576" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1048576" s="11">
         <f>SUM(A2:A1048575)</f>
         <v>45150</v>
@@ -4740,16 +4772,16 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="7.25" style="12" customWidth="1"/>
-    <col min="3" max="3" width="16.125" style="12" customWidth="1"/>
-    <col min="4" max="4" width="8.875" style="13" customWidth="1"/>
-    <col min="5" max="16384" width="8.75" style="11"/>
+    <col min="1" max="1" width="4.09765625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="7.19921875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="16.09765625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="8.8984375" style="13" customWidth="1"/>
+    <col min="5" max="16384" width="8.69921875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="14" t="s">
         <v>176</v>
       </c>
@@ -4760,7 +4792,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -4769,54 +4801,54 @@
       </c>
       <c r="D2" s="15"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D3" s="15"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D7" s="14"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D8" s="14"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D9" s="14"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D10" s="14"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D11" s="14"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D13" s="14"/>
     </row>
-    <row r="18" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D18" s="14"/>
     </row>
-    <row r="19" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D19" s="14"/>
     </row>
-    <row r="20" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
     </row>
-    <row r="21" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D21" s="14"/>
     </row>
-    <row r="22" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
     </row>
-    <row r="23" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D23" s="14"/>
     </row>
-    <row r="24" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D24" s="14"/>
     </row>
-    <row r="26" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D26" s="14"/>
     </row>
-    <row r="27" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D27" s="14"/>
       <c r="L27" s="11" t="s">
         <v>161</v>
@@ -4825,118 +4857,118 @@
         <v>160</v>
       </c>
     </row>
-    <row r="28" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D28" s="14"/>
     </row>
-    <row r="29" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
     </row>
-    <row r="30" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D30" s="14"/>
       <c r="E30" s="15"/>
     </row>
-    <row r="31" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D31" s="14"/>
       <c r="E31" s="16"/>
     </row>
-    <row r="32" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D32" s="15"/>
       <c r="E32" s="15"/>
     </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:7" x14ac:dyDescent="0.45">
       <c r="D33" s="15"/>
       <c r="E33" s="15"/>
     </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C34" s="17"/>
       <c r="D34" s="15"/>
     </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:7" x14ac:dyDescent="0.45">
       <c r="D35" s="15"/>
       <c r="E35" s="15"/>
       <c r="F35" s="15"/>
     </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:7" x14ac:dyDescent="0.45">
       <c r="D36" s="15"/>
     </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:7" x14ac:dyDescent="0.45">
       <c r="D37" s="15"/>
       <c r="E37" s="15"/>
       <c r="F37" s="15"/>
       <c r="G37" s="15"/>
     </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:7" x14ac:dyDescent="0.45">
       <c r="D38" s="15"/>
     </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:7" x14ac:dyDescent="0.45">
       <c r="D39" s="15"/>
       <c r="E39" s="15"/>
     </row>
-    <row r="40" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C40" s="17"/>
       <c r="D40" s="15"/>
     </row>
-    <row r="41" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:7" x14ac:dyDescent="0.45">
       <c r="D41" s="15"/>
       <c r="E41" s="15"/>
     </row>
-    <row r="42" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:7" x14ac:dyDescent="0.45">
       <c r="D42" s="15"/>
     </row>
-    <row r="43" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:7" x14ac:dyDescent="0.45">
       <c r="D43" s="15"/>
     </row>
-    <row r="44" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:7" x14ac:dyDescent="0.45">
       <c r="D44" s="15"/>
       <c r="E44" s="15"/>
     </row>
-    <row r="45" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:7" x14ac:dyDescent="0.45">
       <c r="D45" s="15"/>
       <c r="E45" s="18"/>
       <c r="F45" s="18"/>
       <c r="G45" s="18"/>
     </row>
-    <row r="46" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C46" s="11"/>
       <c r="D46" s="15"/>
       <c r="E46" s="15"/>
     </row>
-    <row r="48" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C48" s="11"/>
       <c r="D48" s="15"/>
       <c r="E48" s="15"/>
     </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:5" x14ac:dyDescent="0.45">
       <c r="D49" s="15"/>
     </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:5" x14ac:dyDescent="0.45">
       <c r="D50" s="18"/>
     </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C51" s="11"/>
       <c r="D51" s="15"/>
       <c r="E51" s="15"/>
     </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C52" s="11"/>
       <c r="D52" s="15"/>
     </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:5" x14ac:dyDescent="0.45">
       <c r="D53" s="15"/>
       <c r="E53" s="15"/>
     </row>
-    <row r="54" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C54" s="11"/>
     </row>
-    <row r="55" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C55" s="11"/>
     </row>
-    <row r="56" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C56" s="11"/>
       <c r="E56" s="15"/>
     </row>
-    <row r="57" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:5" x14ac:dyDescent="0.45">
       <c r="D57" s="19"/>
     </row>
   </sheetData>
@@ -4952,7 +4984,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4968,21 +5000,21 @@
       <selection activeCell="H28" activeCellId="1" sqref="R9 H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="16.125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="4.09765625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="16.09765625" style="9" customWidth="1"/>
     <col min="3" max="3" width="18" style="5" customWidth="1"/>
-    <col min="4" max="16384" width="8.75" style="4"/>
+    <col min="4" max="16384" width="8.69921875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B1" s="9" t="s">
         <v>115</v>
       </c>
       <c r="C1" s="4"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -4990,7 +5022,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -4998,7 +5030,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -5009,197 +5041,197 @@
         <v>163</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="C7" s="6"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="C8" s="6"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="C9" s="6"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="C10" s="6"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="C11" s="6"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="4">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="4">
         <v>12</v>
       </c>
       <c r="C13" s="6"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="4">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="4">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="4">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="4">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="4">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="4">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="4">
         <v>19</v>
       </c>
       <c r="C20" s="6"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="4">
         <v>20</v>
       </c>
       <c r="C21" s="6"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="4">
         <v>21</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="4">
         <v>22</v>
       </c>
       <c r="C23" s="6"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="4">
         <v>23</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" s="4">
         <v>24</v>
       </c>
       <c r="C25" s="6"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" s="4">
         <v>25</v>
       </c>
       <c r="C26" s="6"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="4">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="4">
         <v>27</v>
       </c>
       <c r="C28" s="6"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="4">
         <v>28</v>
       </c>
       <c r="C29" s="6"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" s="4">
         <v>29</v>
       </c>
       <c r="C30" s="6"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" s="4">
         <v>30</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" s="4">
         <v>31</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="8"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33" s="4">
         <v>32</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="7"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34" s="4">
         <v>33</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35" s="4">
         <v>34</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36" s="4">
         <v>35</v>
       </c>
       <c r="B36" s="10"/>
       <c r="C36" s="8"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -5207,13 +5239,13 @@
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A38" s="4">
         <v>37</v>
       </c>
       <c r="C38" s="8"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -5222,1328 +5254,1328 @@
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40" s="4">
         <v>39</v>
       </c>
       <c r="C40" s="8"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41" s="4">
         <v>40</v>
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42" s="4">
         <v>41</v>
       </c>
       <c r="B42" s="10"/>
       <c r="C42" s="8"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A43" s="4">
         <v>42</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A44" s="4">
         <v>43</v>
       </c>
       <c r="C44" s="8"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A45" s="4">
         <v>44</v>
       </c>
       <c r="C45" s="8"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46" s="4">
         <v>45</v>
       </c>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A47" s="4">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A48" s="4">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A49" s="4">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A50" s="4">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A51" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A52" s="4">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A53" s="4">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A54" s="4">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A55" s="4">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A56" s="4">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A57" s="4">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A58" s="4">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A59" s="4">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A60" s="4">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A61" s="4">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A62" s="4">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A63" s="4">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A64" s="4">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A65" s="4">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A66" s="4">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A67" s="4">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A68" s="4">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A69" s="4">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A70" s="4">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A71" s="4">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A72" s="4">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A73" s="4">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A74" s="4">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A75" s="4">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A76" s="4">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A77" s="4">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A78" s="4">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A79" s="4">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A80" s="4">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A81" s="4">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A82" s="4">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A83" s="4">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A84" s="4">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A85" s="4">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A86" s="4">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A87" s="4">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A88" s="4">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A89" s="4">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A90" s="4">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A91" s="4">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A92" s="4">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A93" s="4">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A94" s="4">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A95" s="4">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A96" s="4">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A97" s="4">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A98" s="4">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A99" s="4">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A100" s="4">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A101" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A102" s="4">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A103" s="4">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A104" s="4">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A105" s="4">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A106" s="4">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A107" s="4">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A108" s="4">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A109" s="4">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A110" s="4">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A111" s="4">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A112" s="4">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A113" s="4">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A114" s="4">
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A115" s="4">
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A116" s="4">
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A117" s="4">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A118" s="4">
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A119" s="4">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A120" s="4">
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A121" s="4">
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A122" s="4">
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A123" s="4">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A124" s="4">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A125" s="4">
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A126" s="4">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A127" s="4">
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A128" s="4">
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A129" s="4">
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A130" s="4">
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A131" s="4">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A132" s="4">
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A133" s="4">
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A134" s="4">
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A135" s="4">
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A136" s="4">
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A137" s="4">
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A138" s="4">
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A139" s="4">
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A140" s="4">
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A141" s="4">
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A142" s="4">
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A143" s="4">
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A144" s="4">
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A145" s="4">
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A146" s="4">
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A147" s="4">
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A148" s="4">
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A149" s="4">
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A150" s="4">
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A151" s="4">
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A152" s="4">
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A153" s="4">
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A154" s="4">
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A155" s="4">
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A156" s="4">
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A157" s="4">
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A158" s="4">
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A159" s="4">
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A160" s="4">
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A161" s="4">
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A162" s="4">
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A163" s="4">
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A164" s="4">
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A165" s="4">
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A166" s="4">
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A167" s="4">
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A168" s="4">
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A169" s="4">
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A170" s="4">
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A171" s="4">
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A172" s="4">
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A173" s="4">
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A174" s="4">
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A175" s="4">
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A176" s="4">
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A177" s="4">
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A178" s="4">
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A179" s="4">
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A180" s="4">
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A181" s="4">
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A182" s="4">
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A183" s="4">
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A184" s="4">
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A185" s="4">
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A186" s="4">
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A187" s="4">
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A188" s="4">
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A189" s="4">
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A190" s="4">
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A191" s="4">
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A192" s="4">
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A193" s="4">
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A194" s="4">
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A195" s="4">
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A196" s="4">
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A197" s="4">
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A198" s="4">
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A199" s="4">
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A200" s="4">
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A201" s="4">
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A202" s="4">
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A203" s="4">
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A204" s="4">
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A205" s="4">
         <v>204</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A206" s="4">
         <v>205</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A207" s="4">
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A208" s="4">
         <v>207</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A209" s="4">
         <v>208</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A210" s="4">
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A211" s="4">
         <v>210</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A212" s="4">
         <v>211</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A213" s="4">
         <v>212</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A214" s="4">
         <v>213</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A215" s="4">
         <v>214</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A216" s="4">
         <v>215</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A217" s="4">
         <v>216</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A218" s="4">
         <v>217</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A219" s="4">
         <v>218</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A220" s="4">
         <v>219</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A221" s="4">
         <v>220</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A222" s="4">
         <v>221</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A223" s="4">
         <v>222</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A224" s="4">
         <v>223</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A225" s="4">
         <v>224</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A226" s="4">
         <v>225</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A227" s="4">
         <v>226</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A228" s="4">
         <v>227</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A229" s="4">
         <v>228</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A230" s="4">
         <v>229</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A231" s="4">
         <v>230</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A232" s="4">
         <v>231</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A233" s="4">
         <v>232</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A234" s="4">
         <v>233</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A235" s="4">
         <v>234</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A236" s="4">
         <v>235</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A237" s="4">
         <v>236</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A238" s="4">
         <v>237</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A239" s="4">
         <v>238</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A240" s="4">
         <v>239</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A241" s="4">
         <v>240</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A242" s="4">
         <v>241</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A243" s="4">
         <v>242</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A244" s="4">
         <v>243</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A245" s="4">
         <v>244</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A246" s="4">
         <v>245</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A247" s="4">
         <v>246</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A248" s="4">
         <v>247</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A249" s="4">
         <v>248</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A250" s="4">
         <v>249</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A251" s="4">
         <v>250</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A252" s="4">
         <v>251</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A253" s="4">
         <v>252</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A254" s="4">
         <v>253</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A255" s="4">
         <v>254</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A256" s="4">
         <v>255</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A257" s="4">
         <v>256</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A258" s="4">
         <v>257</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A259" s="4">
         <v>258</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A260" s="4">
         <v>259</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A261" s="4">
         <v>260</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A262" s="4">
         <v>261</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A263" s="4">
         <v>262</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A264" s="4">
         <v>263</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A265" s="4">
         <v>264</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A266" s="4">
         <v>265</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A267" s="4">
         <v>266</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A268" s="4">
         <v>267</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A269" s="4">
         <v>268</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A270" s="4">
         <v>269</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A271" s="4">
         <v>270</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A272" s="4">
         <v>271</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A273" s="4">
         <v>272</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A274" s="4">
         <v>273</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A275" s="4">
         <v>274</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A276" s="4">
         <v>275</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A277" s="4">
         <v>276</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A278" s="4">
         <v>277</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A279" s="4">
         <v>278</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A280" s="4">
         <v>279</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A281" s="4">
         <v>280</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A282" s="4">
         <v>281</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A283" s="4">
         <v>282</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A284" s="4">
         <v>283</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A285" s="4">
         <v>284</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A286" s="4">
         <v>285</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A287" s="4">
         <v>286</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A288" s="4">
         <v>287</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A289" s="4">
         <v>288</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A290" s="4">
         <v>289</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A291" s="4">
         <v>290</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A292" s="4">
         <v>291</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A293" s="4">
         <v>292</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A294" s="4">
         <v>293</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A295" s="4">
         <v>294</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A296" s="4">
         <v>295</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A297" s="4">
         <v>296</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A298" s="4">
         <v>297</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A299" s="4">
         <v>298</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A300" s="4">
         <v>299</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A301" s="4">
         <v>300</v>
       </c>
     </row>
-    <row r="1048576" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1048576" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1048576" s="4">
         <f>SUM(A2:A1048575)</f>
         <v>45150</v>
@@ -6564,13 +6596,13 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="10" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.75" customWidth="1"/>
+    <col min="3" max="3" width="13.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B1" s="1" t="s">
         <v>47</v>
       </c>
@@ -6581,7 +6613,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6595,7 +6627,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6606,7 +6638,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6617,7 +6649,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6628,1702 +6660,1702 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A98">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A99">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A100">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A101">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A102">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A103">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A104">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A105">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A106">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A107">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A108">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A109">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A110">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A111">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A112">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A113">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A114">
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A115">
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A116">
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A117">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A118">
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A119">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A120">
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A121">
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A122">
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A123">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A124">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A125">
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A126">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A127">
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A128">
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A129">
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A130">
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A131">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A132">
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A133">
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A134">
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A135">
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A136">
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A137">
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A138">
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A139">
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A140">
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A141">
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A142">
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A143">
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A144">
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A145">
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A146">
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A147">
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A148">
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A149">
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A150">
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A151">
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A152">
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A153">
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A154">
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A155">
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A156">
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A157">
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A158">
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A159">
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A160">
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A161">
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A162">
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A163">
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A164">
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A165">
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A166">
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A167">
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A168">
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A169">
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A170">
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A171">
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A172">
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A173">
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A174">
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A175">
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A176">
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A177">
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A178">
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A179">
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A180">
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A181">
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A182">
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A183">
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A184">
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A185">
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A186">
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A187">
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A188">
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A189">
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A190">
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A191">
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A192">
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A193">
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A194">
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A195">
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A196">
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A197">
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A198">
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A199">
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A200">
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A201">
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A202">
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A203">
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A204">
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A205">
         <v>204</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A206">
         <v>205</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A207">
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A208">
         <v>207</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A209">
         <v>208</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A210">
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A211">
         <v>210</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A212">
         <v>211</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A213">
         <v>212</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A214">
         <v>213</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A215">
         <v>214</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A216">
         <v>215</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A217">
         <v>216</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A218">
         <v>217</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A219">
         <v>218</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A220">
         <v>219</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A221">
         <v>220</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A222">
         <v>221</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A223">
         <v>222</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A224">
         <v>223</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A225">
         <v>224</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A226">
         <v>225</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A227">
         <v>226</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A228">
         <v>227</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A229">
         <v>228</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A230">
         <v>229</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A231">
         <v>230</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A232">
         <v>231</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A233">
         <v>232</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A234">
         <v>233</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A235">
         <v>234</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A236">
         <v>235</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A237">
         <v>236</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A238">
         <v>237</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A239">
         <v>238</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A240">
         <v>239</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A241">
         <v>240</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A242">
         <v>241</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A243">
         <v>242</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A244">
         <v>243</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A245">
         <v>244</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A246">
         <v>245</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A247">
         <v>246</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A248">
         <v>247</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A249">
         <v>248</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A250">
         <v>249</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A251">
         <v>250</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A252">
         <v>251</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A253">
         <v>252</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A254">
         <v>253</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A255">
         <v>254</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A256">
         <v>255</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A257">
         <v>256</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A258">
         <v>257</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A259">
         <v>258</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A260">
         <v>259</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A261">
         <v>260</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A262">
         <v>261</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A263">
         <v>262</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A264">
         <v>263</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A265">
         <v>264</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A266">
         <v>265</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A267">
         <v>266</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A268">
         <v>267</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A269">
         <v>268</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A270">
         <v>269</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A271">
         <v>270</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A272">
         <v>271</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A273">
         <v>272</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A274">
         <v>273</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A275">
         <v>274</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A276">
         <v>275</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A277">
         <v>276</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A278">
         <v>277</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A279">
         <v>278</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A280">
         <v>279</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A281">
         <v>280</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A282">
         <v>281</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A283">
         <v>282</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A284">
         <v>283</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A285">
         <v>284</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A286">
         <v>285</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A287">
         <v>286</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A288">
         <v>287</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A289">
         <v>288</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A290">
         <v>289</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A291">
         <v>290</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A292">
         <v>291</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A293">
         <v>292</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A294">
         <v>293</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A295">
         <v>294</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A296">
         <v>295</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A297">
         <v>296</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A298">
         <v>297</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A299">
         <v>298</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A300">
         <v>299</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A301">
         <v>300</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A302">
         <v>301</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A303">
         <v>302</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A304">
         <v>303</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A305">
         <v>304</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A306">
         <v>305</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A307">
         <v>306</v>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A308">
         <v>307</v>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A309">
         <v>308</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A310">
         <v>309</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A311">
         <v>310</v>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A312">
         <v>311</v>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A313">
         <v>312</v>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A314">
         <v>313</v>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A315">
         <v>314</v>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A316">
         <v>315</v>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A317">
         <v>316</v>
       </c>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A318">
         <v>317</v>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A319">
         <v>318</v>
       </c>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A320">
         <v>319</v>
       </c>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A321">
         <v>320</v>
       </c>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A322">
         <v>321</v>
       </c>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A323">
         <v>322</v>
       </c>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A324">
         <v>323</v>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A325">
         <v>324</v>
       </c>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A326">
         <v>325</v>
       </c>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A327">
         <v>326</v>
       </c>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A328">
         <v>327</v>
       </c>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A329">
         <v>328</v>
       </c>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A330">
         <v>329</v>
       </c>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A331">
         <v>330</v>
       </c>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A332">
         <v>331</v>
       </c>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A333">
         <v>332</v>
       </c>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A334">
         <v>333</v>
       </c>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A335">
         <v>334</v>
       </c>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A336">
         <v>335</v>
       </c>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A337">
         <v>336</v>
       </c>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A338">
         <v>337</v>
       </c>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A339">
         <v>338</v>
       </c>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A340">
         <v>339</v>
       </c>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A341">
         <v>340</v>
       </c>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A342">
         <v>341</v>
       </c>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A343">
         <v>342</v>
       </c>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A344">
         <v>343</v>
       </c>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A345">
         <v>344</v>
       </c>
@@ -8344,37 +8376,37 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="255.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="255.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>26</v>
       </c>
@@ -8392,7 +8424,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/english.xlsx
+++ b/english.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="word" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="204">
   <si>
     <t>word</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -692,6 +692,79 @@
   <si>
     <t>a</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. the closing words of a text, manuscript, early printed book, or chanted liturgical text.</t>
+  </si>
+  <si>
+    <t>an</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>so far</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to a certain limited extent.</t>
+  </si>
+  <si>
+    <t>(of a trend that seems likely to continue) up to this time.</t>
+  </si>
+  <si>
+    <t>p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>as far as.</t>
+  </si>
+  <si>
+    <t>indicating a maximum amount.</t>
+  </si>
+  <si>
+    <t>up to</t>
+  </si>
+  <si>
+    <t>commitment</t>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the state or quality of being dedicated to a cause, activity, etc.</t>
+  </si>
+  <si>
+    <t>an engagement or obligation that restricts freedom of action.</t>
+  </si>
+  <si>
+    <t>engagement</t>
+  </si>
+  <si>
+    <t>a formal agreement to get married.</t>
+  </si>
+  <si>
+    <t>an arrangement to do something or go somewhere at a fixed time.</t>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>obligation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>an act or course of action to which a person is morally or legally bound; a duty or commitment.</t>
+  </si>
+  <si>
+    <t>the condition of being morally or legally bound to do something.</t>
+  </si>
+  <si>
+    <t>a debt of gratitude for a service or favor.</t>
   </si>
 </sst>
 </file>
@@ -798,7 +871,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -843,8 +916,14 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1128,20 +1207,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M1048576"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="J60" sqref="J60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.09765625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="7.19921875" style="12" customWidth="1"/>
-    <col min="3" max="3" width="16.09765625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="8.8984375" style="13" customWidth="1"/>
-    <col min="5" max="16384" width="8.69921875" style="11"/>
+    <col min="1" max="1" width="4.125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="7.25" style="12" customWidth="1"/>
+    <col min="3" max="3" width="16.125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="8.875" style="13" customWidth="1"/>
+    <col min="5" max="16384" width="8.75" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1149,29 +1228,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="11">
         <v>1</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="14" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>2</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="14" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -1179,7 +1258,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -1187,7 +1266,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -1198,7 +1277,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -1209,7 +1288,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -1220,7 +1299,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -1231,7 +1310,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -1242,7 +1321,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -1253,7 +1332,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -1264,7 +1343,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -1275,7 +1354,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -1286,7 +1365,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -1297,7 +1376,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -1305,7 +1384,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -1316,7 +1395,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -1327,7 +1406,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -1338,7 +1417,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -1352,7 +1431,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="11">
         <v>20</v>
       </c>
@@ -1363,7 +1442,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="11">
         <v>21</v>
       </c>
@@ -1377,7 +1456,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="11">
         <v>22</v>
       </c>
@@ -1388,7 +1467,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="11">
         <v>23</v>
       </c>
@@ -1399,7 +1478,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="11">
         <v>24</v>
       </c>
@@ -1410,7 +1489,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="11">
         <v>25</v>
       </c>
@@ -1421,7 +1500,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="11">
         <v>26</v>
       </c>
@@ -1438,7 +1517,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="11">
         <v>27</v>
       </c>
@@ -1449,7 +1528,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="11">
         <v>28</v>
       </c>
@@ -1463,7 +1542,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="11">
         <v>29</v>
       </c>
@@ -1473,11 +1552,11 @@
       <c r="D30" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="E30" s="15" t="s">
+      <c r="E30" s="14" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="11">
         <v>30</v>
       </c>
@@ -1491,183 +1570,183 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="11">
         <v>31</v>
       </c>
       <c r="C32" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="D32" s="15" t="s">
+      <c r="D32" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="E32" s="15" t="s">
+      <c r="E32" s="14" t="s">
         <v>75</v>
       </c>
       <c r="F32" s="11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="11">
         <v>32</v>
       </c>
       <c r="C33" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="D33" s="15" t="s">
+      <c r="D33" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="E33" s="15" t="s">
+      <c r="E33" s="14" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="11">
         <v>33</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="C34" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="D34" s="15" t="s">
+      <c r="D34" s="14" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="11">
         <v>34</v>
       </c>
       <c r="C35" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="D35" s="15" t="s">
+      <c r="D35" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="E35" s="15" t="s">
+      <c r="E35" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="F35" s="15" t="s">
+      <c r="F35" s="14" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="11">
         <v>35</v>
       </c>
       <c r="C36" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="D36" s="15" t="s">
+      <c r="D36" s="14" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="11">
         <v>36</v>
       </c>
       <c r="C37" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D37" s="15" t="s">
+      <c r="D37" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="E37" s="15" t="s">
+      <c r="E37" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="F37" s="15" t="s">
+      <c r="F37" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="G37" s="15" t="s">
+      <c r="G37" s="14" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="11">
         <v>37</v>
       </c>
       <c r="C38" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D38" s="15" t="s">
+      <c r="D38" s="14" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="11">
         <v>38</v>
       </c>
       <c r="C39" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="D39" s="15" t="s">
+      <c r="D39" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="E39" s="15" t="s">
+      <c r="E39" s="14" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="11">
         <v>39</v>
       </c>
-      <c r="C40" s="17" t="s">
+      <c r="C40" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="D40" s="15" t="s">
+      <c r="D40" s="14" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="11">
         <v>40</v>
       </c>
       <c r="C41" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="D41" s="15" t="s">
+      <c r="D41" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="E41" s="15" t="s">
+      <c r="E41" s="14" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="11">
         <v>41</v>
       </c>
       <c r="C42" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="D42" s="15" t="s">
+      <c r="D42" s="14" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="11">
         <v>42</v>
       </c>
       <c r="C43" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="D43" s="15" t="s">
+      <c r="D43" s="14" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="11">
         <v>43</v>
       </c>
       <c r="C44" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="D44" s="15" t="s">
+      <c r="D44" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="E44" s="15" t="s">
+      <c r="E44" s="14" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="11">
         <v>44</v>
       </c>
@@ -1677,20 +1756,20 @@
       <c r="C45" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="D45" s="15" t="s">
+      <c r="D45" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="E45" s="18" t="s">
+      <c r="E45" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="F45" s="18" t="s">
+      <c r="F45" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="G45" s="18" t="s">
+      <c r="G45" s="21" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="11">
         <v>45</v>
       </c>
@@ -1700,14 +1779,14 @@
       <c r="C46" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D46" s="15" t="s">
+      <c r="D46" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="E46" s="15" t="s">
+      <c r="E46" s="14" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="11">
         <v>46</v>
       </c>
@@ -1721,7 +1800,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="11">
         <v>47</v>
       </c>
@@ -1731,14 +1810,14 @@
       <c r="C48" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="D48" s="15" t="s">
+      <c r="D48" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="E48" s="15" t="s">
+      <c r="E48" s="14" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="11">
         <v>48</v>
       </c>
@@ -1748,11 +1827,11 @@
       <c r="C49" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="D49" s="15" t="s">
+      <c r="D49" s="14" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="11">
         <v>49</v>
       </c>
@@ -1762,11 +1841,11 @@
       <c r="C50" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="D50" s="18" t="s">
+      <c r="D50" s="21" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="11">
         <v>50</v>
       </c>
@@ -1776,14 +1855,14 @@
       <c r="C51" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="D51" s="15" t="s">
+      <c r="D51" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="E51" s="15" t="s">
+      <c r="E51" s="14" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="11">
         <v>51</v>
       </c>
@@ -1793,11 +1872,11 @@
       <c r="C52" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="D52" s="15" t="s">
+      <c r="D52" s="14" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="11">
         <v>52</v>
       </c>
@@ -1807,14 +1886,14 @@
       <c r="C53" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="D53" s="15" t="s">
+      <c r="D53" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="E53" s="15" t="s">
+      <c r="E53" s="14" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="11">
         <v>53</v>
       </c>
@@ -1828,7 +1907,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="11">
         <v>54</v>
       </c>
@@ -1842,7 +1921,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="11">
         <v>55</v>
       </c>
@@ -1855,11 +1934,11 @@
       <c r="D56" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="E56" s="15" t="s">
+      <c r="E56" s="14" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="11">
         <v>56</v>
       </c>
@@ -1869,31 +1948,31 @@
       <c r="C57" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="D57" s="19" t="s">
+      <c r="D57" s="22" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="26.4" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:6" ht="26.25" x14ac:dyDescent="0.35">
       <c r="A58" s="11">
         <v>57</v>
       </c>
       <c r="B58" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="C58" s="20" t="s">
+      <c r="C58" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="D58" s="19" t="s">
+      <c r="D58" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="E58" s="19" t="s">
+      <c r="E58" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="F58" s="19" t="s">
+      <c r="F58" s="22" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="11">
         <v>58</v>
       </c>
@@ -1901,1220 +1980,1292 @@
         <v>177</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="11">
         <v>59</v>
       </c>
+      <c r="B60" s="12" t="s">
+        <v>183</v>
+      </c>
       <c r="C60" s="12" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="D60" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="E60" s="24" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="11">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B61" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="D61" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="E61" s="19" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="11">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B62" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="D62" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="E62" s="19" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="11">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B63" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="D63" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="E63" s="25" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="11">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B64" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="D64" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="E64" s="19" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="11">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B65" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="D65" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="E65" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="F65" s="25" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="11">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="11">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="11">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="11">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="11">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="11">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="11">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="11">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="11">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="11">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="11">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="11">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="11">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="11">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="11">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="11">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="11">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" s="11">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="11">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" s="11">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" s="11">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" s="11">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" s="11">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" s="11">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" s="11">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" s="11">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" s="11">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="11">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" s="11">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" s="11">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" s="11">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" s="11">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" s="11">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" s="11">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" s="11">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" s="11">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" s="11">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" s="11">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" s="11">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" s="11">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" s="11">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" s="11">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" s="11">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" s="11">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" s="11">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" s="11">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" s="11">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" s="11">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" s="11">
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" s="11">
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" s="11">
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" s="11">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" s="11">
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" s="11">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" s="11">
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" s="11">
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" s="11">
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" s="11">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" s="11">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" s="11">
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" s="11">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" s="11">
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" s="11">
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" s="11">
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" s="11">
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" s="11">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" s="11">
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" s="11">
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" s="11">
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" s="11">
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" s="11">
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" s="11">
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138" s="11">
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139" s="11">
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140" s="11">
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" s="11">
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" s="11">
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143" s="11">
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" s="11">
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" s="11">
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146" s="11">
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" s="11">
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148" s="11">
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149" s="11">
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150" s="11">
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151" s="11">
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152" s="11">
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153" s="11">
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154" s="11">
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155" s="11">
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156" s="11">
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157" s="11">
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158" s="11">
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159" s="11">
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A160" s="11">
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161" s="11">
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162" s="11">
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163" s="11">
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164" s="11">
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165" s="11">
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166" s="11">
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167" s="11">
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168" s="11">
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A169" s="11">
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A170" s="11">
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171" s="11">
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A172" s="11">
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A173" s="11">
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A174" s="11">
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A175" s="11">
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A176" s="11">
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A177" s="11">
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178" s="11">
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A179" s="11">
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A180" s="11">
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A181" s="11">
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A182" s="11">
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A183" s="11">
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A184" s="11">
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A185" s="11">
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A186" s="11">
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A187" s="11">
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A188" s="11">
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A189" s="11">
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A190" s="11">
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A191" s="11">
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A192" s="11">
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A193" s="11">
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A194" s="11">
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A195" s="11">
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A196" s="11">
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A197" s="11">
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A198" s="11">
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A199" s="11">
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A200" s="11">
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A201" s="11">
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A202" s="11">
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A203" s="11">
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A204" s="11">
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A205" s="11">
         <v>204</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A206" s="11">
         <v>205</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A207" s="11">
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A208" s="11">
         <v>207</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A209" s="11">
         <v>208</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A210" s="11">
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A211" s="11">
         <v>210</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A212" s="11">
         <v>211</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A213" s="11">
         <v>212</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A214" s="11">
         <v>213</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A215" s="11">
         <v>214</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A216" s="11">
         <v>215</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A217" s="11">
         <v>216</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A218" s="11">
         <v>217</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A219" s="11">
         <v>218</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A220" s="11">
         <v>219</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A221" s="11">
         <v>220</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A222" s="11">
         <v>221</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A223" s="11">
         <v>222</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A224" s="11">
         <v>223</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A225" s="11">
         <v>224</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A226" s="11">
         <v>225</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A227" s="11">
         <v>226</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A228" s="11">
         <v>227</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A229" s="11">
         <v>228</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A230" s="11">
         <v>229</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A231" s="11">
         <v>230</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A232" s="11">
         <v>231</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A233" s="11">
         <v>232</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A234" s="11">
         <v>233</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A235" s="11">
         <v>234</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A236" s="11">
         <v>235</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A237" s="11">
         <v>236</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A238" s="11">
         <v>237</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A239" s="11">
         <v>238</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A240" s="11">
         <v>239</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A241" s="11">
         <v>240</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A242" s="11">
         <v>241</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A243" s="11">
         <v>242</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A244" s="11">
         <v>243</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A245" s="11">
         <v>244</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A246" s="11">
         <v>245</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A247" s="11">
         <v>246</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A248" s="11">
         <v>247</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A249" s="11">
         <v>248</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A250" s="11">
         <v>249</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A251" s="11">
         <v>250</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A252" s="11">
         <v>251</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A253" s="11">
         <v>252</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A254" s="11">
         <v>253</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A255" s="11">
         <v>254</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A256" s="11">
         <v>255</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A257" s="11">
         <v>256</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A258" s="11">
         <v>257</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A259" s="11">
         <v>258</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A260" s="11">
         <v>259</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A261" s="11">
         <v>260</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A262" s="11">
         <v>261</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A263" s="11">
         <v>262</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A264" s="11">
         <v>263</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A265" s="11">
         <v>264</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A266" s="11">
         <v>265</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A267" s="11">
         <v>266</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A268" s="11">
         <v>267</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A269" s="11">
         <v>268</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A270" s="11">
         <v>269</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A271" s="11">
         <v>270</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A272" s="11">
         <v>271</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A273" s="11">
         <v>272</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A274" s="11">
         <v>273</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A275" s="11">
         <v>274</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A276" s="11">
         <v>275</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A277" s="11">
         <v>276</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A278" s="11">
         <v>277</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A279" s="11">
         <v>278</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A280" s="11">
         <v>279</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A281" s="11">
         <v>280</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A282" s="11">
         <v>281</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A283" s="11">
         <v>282</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A284" s="11">
         <v>283</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A285" s="11">
         <v>284</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A286" s="11">
         <v>285</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A287" s="11">
         <v>286</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A288" s="11">
         <v>287</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A289" s="11">
         <v>288</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A290" s="11">
         <v>289</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A291" s="11">
         <v>290</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A292" s="11">
         <v>291</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A293" s="11">
         <v>292</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A294" s="11">
         <v>293</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A295" s="11">
         <v>294</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A296" s="11">
         <v>295</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A297" s="11">
         <v>296</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A298" s="11">
         <v>297</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A299" s="11">
         <v>298</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A300" s="11">
         <v>299</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A301" s="11">
         <v>300</v>
       </c>
     </row>
-    <row r="1048576" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1048576" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1048576" s="11">
         <f>SUM(A2:A1048575)</f>
         <v>45150</v>
@@ -3127,9 +3278,12 @@
     <hyperlink ref="F45" r:id="rId2" display="https://www.google.com/search?sxsrf=APwXEdc_u1p7RGsdP5YgVrTzcvZuTqGykw:1682294446651&amp;q=offense&amp;si=AMnBZoFHF1DJLZWpTBtQDK262RMpDt0YejzPVVhcMf4e0jpHf5u0fqlnOZNQG3pX3U43keMzn3B_dTdUSjMGGlaDdbSE94l_KQ%3D%3D&amp;expnd=1"/>
     <hyperlink ref="G45" r:id="rId3" display="https://www.google.com/search?sxsrf=APwXEdc_u1p7RGsdP5YgVrTzcvZuTqGykw:1682294446651&amp;q=relied&amp;si=AMnBZoEP2YukYW07_nAjizsjQPEkIwKRPkUuNSe2uwNWC1jdw-dvLF27w0SCF1l-OMfI9-h4_0UbLCZvcqG-kvuYe5zvBKgz0Q%3D%3D&amp;expnd=1"/>
     <hyperlink ref="D50" r:id="rId4" display="https://www.google.com/search?hl=en&amp;sxsrf=APwXEde6rs_BeS9TlSWBblh7YFVUNIKAuw:1682064097989&amp;q=empowered&amp;si=AMnBZoFEI0LGJdD1jElhAGFwRnmorVJ_1KAdHUxVDnE9AbdEJnRO1N_zl4ds_syedYN5SsIFCsREy1y6C2GSHEMMsjfbOo2KfQ%3D%3D&amp;expnd=1"/>
+    <hyperlink ref="E63" r:id="rId5" display="https://www.google.com/search?hl=en&amp;sxsrf=APwXEdcSeJ1oQNH9KpfTXgoddEfl1ldq5w:1682664370088&amp;q=restricts&amp;si=AMnBZoFEI0LGJdD1jElhAGFwRnmo4B4j6LT70SiPRpxFRDh1f2L1gcpUemDbL_sxqr1VkjKVIBsndvX95nis954grDjng5wvVg%3D%3D&amp;expnd=1"/>
+    <hyperlink ref="D65" r:id="rId6" display="https://www.google.com/search?hl=en&amp;sxsrf=APwXEddOjUjdoKzxmGM7Ith0YQpRD3f_cg:1682666445173&amp;q=morally&amp;si=AMnBZoFHF1DJLZWpTBtQDK262RMpehmuhpxPQKkjXNi2DXKA4Uckw_hrtf8Rz_pdecTi5TJBhY959Al3xtckWtkO8diJEuJnMQ%3D%3D&amp;expnd=1"/>
+    <hyperlink ref="F65" r:id="rId7" display="https://www.google.com/search?hl=en&amp;sxsrf=APwXEddOjUjdoKzxmGM7Ith0YQpRD3f_cg:1682666445173&amp;q=gratitude&amp;si=AMnBZoFEI0LGJdD1jElhAGFwRnmoljuRlR5qHMBinsS7WCRctZiV06JImrRGWZBsbl8jJIeZNHdT_gRI4YDl8xj1OUTAIxNS7w%3D%3D&amp;expnd=1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -3137,20 +3291,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.09765625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="7.19921875" style="12" customWidth="1"/>
-    <col min="3" max="3" width="16.09765625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="8.8984375" style="13" customWidth="1"/>
-    <col min="5" max="16384" width="8.69921875" style="11"/>
+    <col min="1" max="1" width="4.125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="7.25" style="12" customWidth="1"/>
+    <col min="3" max="3" width="16.125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="8.875" style="13" customWidth="1"/>
+    <col min="5" max="16384" width="8.75" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>175</v>
       </c>
@@ -3162,158 +3316,158 @@
         <v>168</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="22.2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" ht="21.75" x14ac:dyDescent="0.3">
       <c r="A2" s="11">
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="20" t="s">
         <v>178</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>2</v>
       </c>
       <c r="D3" s="15"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <v>6</v>
       </c>
       <c r="D7" s="14"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="11">
         <v>7</v>
       </c>
       <c r="D8" s="14"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
         <v>8</v>
       </c>
       <c r="D9" s="14"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
         <v>9</v>
       </c>
       <c r="D10" s="14"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
         <v>10</v>
       </c>
       <c r="D11" s="14"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
         <v>12</v>
       </c>
       <c r="D13" s="14"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
         <v>17</v>
       </c>
       <c r="D18" s="14"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="11">
         <v>18</v>
       </c>
       <c r="D19" s="14"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="11">
         <v>19</v>
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="11">
         <v>20</v>
       </c>
       <c r="D21" s="14"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="11">
         <v>21</v>
       </c>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="11">
         <v>22</v>
       </c>
       <c r="D23" s="14"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="11">
         <v>23</v>
       </c>
       <c r="D24" s="14"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="11">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="11">
         <v>25</v>
       </c>
       <c r="D26" s="14"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="11">
         <v>26</v>
       </c>
@@ -3325,55 +3479,55 @@
         <v>160</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="11">
         <v>27</v>
       </c>
       <c r="D28" s="14"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="11">
         <v>28</v>
       </c>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="11">
         <v>29</v>
       </c>
       <c r="D30" s="14"/>
       <c r="E30" s="15"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="11">
         <v>30</v>
       </c>
       <c r="D31" s="14"/>
       <c r="E31" s="16"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="11">
         <v>31</v>
       </c>
       <c r="D32" s="15"/>
       <c r="E32" s="15"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="11">
         <v>32</v>
       </c>
       <c r="D33" s="15"/>
       <c r="E33" s="15"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="11">
         <v>33</v>
       </c>
       <c r="C34" s="17"/>
       <c r="D34" s="15"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="11">
         <v>34</v>
       </c>
@@ -3381,13 +3535,13 @@
       <c r="E35" s="15"/>
       <c r="F35" s="15"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="11">
         <v>35</v>
       </c>
       <c r="D36" s="15"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="11">
         <v>36</v>
       </c>
@@ -3396,53 +3550,53 @@
       <c r="F37" s="15"/>
       <c r="G37" s="15"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="11">
         <v>37</v>
       </c>
       <c r="D38" s="15"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="11">
         <v>38</v>
       </c>
       <c r="D39" s="15"/>
       <c r="E39" s="15"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="11">
         <v>39</v>
       </c>
       <c r="C40" s="17"/>
       <c r="D40" s="15"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="11">
         <v>40</v>
       </c>
       <c r="D41" s="15"/>
       <c r="E41" s="15"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="11">
         <v>41</v>
       </c>
       <c r="D42" s="15"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="11">
         <v>42</v>
       </c>
       <c r="D43" s="15"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="11">
         <v>43</v>
       </c>
       <c r="D44" s="15"/>
       <c r="E44" s="15"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="11">
         <v>44</v>
       </c>
@@ -3451,7 +3605,7 @@
       <c r="F45" s="18"/>
       <c r="G45" s="18"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="11">
         <v>45</v>
       </c>
@@ -3459,12 +3613,12 @@
       <c r="D46" s="15"/>
       <c r="E46" s="15"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="11">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="11">
         <v>47</v>
       </c>
@@ -3472,19 +3626,19 @@
       <c r="D48" s="15"/>
       <c r="E48" s="15"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="11">
         <v>48</v>
       </c>
       <c r="D49" s="15"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="11">
         <v>49</v>
       </c>
       <c r="D50" s="18"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="11">
         <v>50</v>
       </c>
@@ -3492,1266 +3646,1266 @@
       <c r="D51" s="15"/>
       <c r="E51" s="15"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="11">
         <v>51</v>
       </c>
       <c r="C52" s="11"/>
       <c r="D52" s="15"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="11">
         <v>52</v>
       </c>
       <c r="D53" s="15"/>
       <c r="E53" s="15"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="11">
         <v>53</v>
       </c>
       <c r="C54" s="11"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="11">
         <v>54</v>
       </c>
       <c r="C55" s="11"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="11">
         <v>55</v>
       </c>
       <c r="C56" s="11"/>
       <c r="E56" s="15"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="11">
         <v>56</v>
       </c>
       <c r="D57" s="19"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="11">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="11">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="11">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="11">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="11">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="11">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="11">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="11">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="11">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="11">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="11">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" s="11">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" s="11">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" s="11">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" s="11">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="11">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" s="11">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" s="11">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" s="11">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" s="11">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="11">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" s="11">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" s="11">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="11">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="11">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" s="11">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="11">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" s="11">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" s="11">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" s="11">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" s="11">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" s="11">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" s="11">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" s="11">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" s="11">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="11">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" s="11">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" s="11">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" s="11">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" s="11">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" s="11">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" s="11">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" s="11">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" s="11">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" s="11">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" s="11">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" s="11">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" s="11">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" s="11">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" s="11">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" s="11">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" s="11">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" s="11">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" s="11">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" s="11">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" s="11">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" s="11">
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" s="11">
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" s="11">
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" s="11">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" s="11">
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" s="11">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" s="11">
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" s="11">
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" s="11">
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" s="11">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" s="11">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" s="11">
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" s="11">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" s="11">
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" s="11">
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" s="11">
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" s="11">
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" s="11">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" s="11">
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" s="11">
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" s="11">
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" s="11">
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" s="11">
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" s="11">
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138" s="11">
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139" s="11">
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140" s="11">
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" s="11">
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" s="11">
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143" s="11">
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" s="11">
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" s="11">
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146" s="11">
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" s="11">
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148" s="11">
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149" s="11">
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150" s="11">
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151" s="11">
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152" s="11">
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153" s="11">
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154" s="11">
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155" s="11">
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156" s="11">
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157" s="11">
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158" s="11">
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159" s="11">
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A160" s="11">
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161" s="11">
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162" s="11">
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163" s="11">
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164" s="11">
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165" s="11">
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166" s="11">
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167" s="11">
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168" s="11">
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A169" s="11">
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A170" s="11">
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171" s="11">
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A172" s="11">
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A173" s="11">
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A174" s="11">
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A175" s="11">
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A176" s="11">
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A177" s="11">
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178" s="11">
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A179" s="11">
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A180" s="11">
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A181" s="11">
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A182" s="11">
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A183" s="11">
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A184" s="11">
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A185" s="11">
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A186" s="11">
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A187" s="11">
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A188" s="11">
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A189" s="11">
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A190" s="11">
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A191" s="11">
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A192" s="11">
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A193" s="11">
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A194" s="11">
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A195" s="11">
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A196" s="11">
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A197" s="11">
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A198" s="11">
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A199" s="11">
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A200" s="11">
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A201" s="11">
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A202" s="11">
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A203" s="11">
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A204" s="11">
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A205" s="11">
         <v>204</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A206" s="11">
         <v>205</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A207" s="11">
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A208" s="11">
         <v>207</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A209" s="11">
         <v>208</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A210" s="11">
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A211" s="11">
         <v>210</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A212" s="11">
         <v>211</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A213" s="11">
         <v>212</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A214" s="11">
         <v>213</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A215" s="11">
         <v>214</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A216" s="11">
         <v>215</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A217" s="11">
         <v>216</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A218" s="11">
         <v>217</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A219" s="11">
         <v>218</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A220" s="11">
         <v>219</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A221" s="11">
         <v>220</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A222" s="11">
         <v>221</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A223" s="11">
         <v>222</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A224" s="11">
         <v>223</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A225" s="11">
         <v>224</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A226" s="11">
         <v>225</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A227" s="11">
         <v>226</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A228" s="11">
         <v>227</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A229" s="11">
         <v>228</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A230" s="11">
         <v>229</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A231" s="11">
         <v>230</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A232" s="11">
         <v>231</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A233" s="11">
         <v>232</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A234" s="11">
         <v>233</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A235" s="11">
         <v>234</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A236" s="11">
         <v>235</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A237" s="11">
         <v>236</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A238" s="11">
         <v>237</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A239" s="11">
         <v>238</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A240" s="11">
         <v>239</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A241" s="11">
         <v>240</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A242" s="11">
         <v>241</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A243" s="11">
         <v>242</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A244" s="11">
         <v>243</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A245" s="11">
         <v>244</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A246" s="11">
         <v>245</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A247" s="11">
         <v>246</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A248" s="11">
         <v>247</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A249" s="11">
         <v>248</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A250" s="11">
         <v>249</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A251" s="11">
         <v>250</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A252" s="11">
         <v>251</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A253" s="11">
         <v>252</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A254" s="11">
         <v>253</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A255" s="11">
         <v>254</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A256" s="11">
         <v>255</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A257" s="11">
         <v>256</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A258" s="11">
         <v>257</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A259" s="11">
         <v>258</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A260" s="11">
         <v>259</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A261" s="11">
         <v>260</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A262" s="11">
         <v>261</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A263" s="11">
         <v>262</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A264" s="11">
         <v>263</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A265" s="11">
         <v>264</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A266" s="11">
         <v>265</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A267" s="11">
         <v>266</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A268" s="11">
         <v>267</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A269" s="11">
         <v>268</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A270" s="11">
         <v>269</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A271" s="11">
         <v>270</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A272" s="11">
         <v>271</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A273" s="11">
         <v>272</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A274" s="11">
         <v>273</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A275" s="11">
         <v>274</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A276" s="11">
         <v>275</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A277" s="11">
         <v>276</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A278" s="11">
         <v>277</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A279" s="11">
         <v>278</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A280" s="11">
         <v>279</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A281" s="11">
         <v>280</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A282" s="11">
         <v>281</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A283" s="11">
         <v>282</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A284" s="11">
         <v>283</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A285" s="11">
         <v>284</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A286" s="11">
         <v>285</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A287" s="11">
         <v>286</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A288" s="11">
         <v>287</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A289" s="11">
         <v>288</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A290" s="11">
         <v>289</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A291" s="11">
         <v>290</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A292" s="11">
         <v>291</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A293" s="11">
         <v>292</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A294" s="11">
         <v>293</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A295" s="11">
         <v>294</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A296" s="11">
         <v>295</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A297" s="11">
         <v>296</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A298" s="11">
         <v>297</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A299" s="11">
         <v>298</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A300" s="11">
         <v>299</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A301" s="11">
         <v>300</v>
       </c>
     </row>
-    <row r="1048576" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1048576" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1048576" s="11">
         <f>SUM(A2:A1048575)</f>
         <v>45150</v>
@@ -4772,16 +4926,16 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.09765625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="7.19921875" style="12" customWidth="1"/>
-    <col min="3" max="3" width="16.09765625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="8.8984375" style="13" customWidth="1"/>
-    <col min="5" max="16384" width="8.69921875" style="11"/>
+    <col min="1" max="1" width="4.125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="7.25" style="12" customWidth="1"/>
+    <col min="3" max="3" width="16.125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="8.875" style="13" customWidth="1"/>
+    <col min="5" max="16384" width="8.75" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>176</v>
       </c>
@@ -4792,7 +4946,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -4801,54 +4955,54 @@
       </c>
       <c r="D2" s="15"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D3" s="15"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D7" s="14"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D8" s="14"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D9" s="14"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D10" s="14"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D11" s="14"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D13" s="14"/>
     </row>
-    <row r="18" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="18" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D18" s="14"/>
     </row>
-    <row r="19" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="19" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D19" s="14"/>
     </row>
-    <row r="20" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="20" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
     </row>
-    <row r="21" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="21" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D21" s="14"/>
     </row>
-    <row r="22" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="22" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
     </row>
-    <row r="23" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="23" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D23" s="14"/>
     </row>
-    <row r="24" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="24" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D24" s="14"/>
     </row>
-    <row r="26" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="26" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D26" s="14"/>
     </row>
-    <row r="27" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="27" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D27" s="14"/>
       <c r="L27" s="11" t="s">
         <v>161</v>
@@ -4857,118 +5011,118 @@
         <v>160</v>
       </c>
     </row>
-    <row r="28" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="28" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D28" s="14"/>
     </row>
-    <row r="29" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="29" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
     </row>
-    <row r="30" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="30" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D30" s="14"/>
       <c r="E30" s="15"/>
     </row>
-    <row r="31" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="31" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D31" s="14"/>
       <c r="E31" s="16"/>
     </row>
-    <row r="32" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="32" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D32" s="15"/>
       <c r="E32" s="15"/>
     </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D33" s="15"/>
       <c r="E33" s="15"/>
     </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C34" s="17"/>
       <c r="D34" s="15"/>
     </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="35" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D35" s="15"/>
       <c r="E35" s="15"/>
       <c r="F35" s="15"/>
     </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="36" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D36" s="15"/>
     </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D37" s="15"/>
       <c r="E37" s="15"/>
       <c r="F37" s="15"/>
       <c r="G37" s="15"/>
     </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="38" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D38" s="15"/>
     </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="39" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D39" s="15"/>
       <c r="E39" s="15"/>
     </row>
-    <row r="40" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="40" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C40" s="17"/>
       <c r="D40" s="15"/>
     </row>
-    <row r="41" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="41" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D41" s="15"/>
       <c r="E41" s="15"/>
     </row>
-    <row r="42" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="42" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D42" s="15"/>
     </row>
-    <row r="43" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="43" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D43" s="15"/>
     </row>
-    <row r="44" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="44" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D44" s="15"/>
       <c r="E44" s="15"/>
     </row>
-    <row r="45" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="45" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D45" s="15"/>
       <c r="E45" s="18"/>
       <c r="F45" s="18"/>
       <c r="G45" s="18"/>
     </row>
-    <row r="46" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="46" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C46" s="11"/>
       <c r="D46" s="15"/>
       <c r="E46" s="15"/>
     </row>
-    <row r="48" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="48" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C48" s="11"/>
       <c r="D48" s="15"/>
       <c r="E48" s="15"/>
     </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="49" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D49" s="15"/>
     </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="50" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D50" s="18"/>
     </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="51" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C51" s="11"/>
       <c r="D51" s="15"/>
       <c r="E51" s="15"/>
     </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="52" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C52" s="11"/>
       <c r="D52" s="15"/>
     </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="53" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D53" s="15"/>
       <c r="E53" s="15"/>
     </row>
-    <row r="54" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="54" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C54" s="11"/>
     </row>
-    <row r="55" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="55" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C55" s="11"/>
     </row>
-    <row r="56" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="56" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C56" s="11"/>
       <c r="E56" s="15"/>
     </row>
-    <row r="57" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="57" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D57" s="19"/>
     </row>
   </sheetData>
@@ -4984,7 +5138,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5000,21 +5154,21 @@
       <selection activeCell="H28" activeCellId="1" sqref="R9 H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.09765625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="16.09765625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="4.125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="16.125" style="9" customWidth="1"/>
     <col min="3" max="3" width="18" style="5" customWidth="1"/>
-    <col min="4" max="16384" width="8.69921875" style="4"/>
+    <col min="4" max="16384" width="8.75" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" s="9" t="s">
         <v>115</v>
       </c>
       <c r="C1" s="4"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -5022,7 +5176,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -5030,7 +5184,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -5041,197 +5195,197 @@
         <v>163</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="C7" s="6"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="C8" s="6"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="C9" s="6"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="C10" s="6"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="C11" s="6"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>12</v>
       </c>
       <c r="C13" s="6"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>19</v>
       </c>
       <c r="C20" s="6"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>20</v>
       </c>
       <c r="C21" s="6"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>21</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>22</v>
       </c>
       <c r="C23" s="6"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>23</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>24</v>
       </c>
       <c r="C25" s="6"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>25</v>
       </c>
       <c r="C26" s="6"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>27</v>
       </c>
       <c r="C28" s="6"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>28</v>
       </c>
       <c r="C29" s="6"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>29</v>
       </c>
       <c r="C30" s="6"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>30</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>31</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="8"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>32</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="7"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>33</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>34</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>35</v>
       </c>
       <c r="B36" s="10"/>
       <c r="C36" s="8"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -5239,13 +5393,13 @@
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>37</v>
       </c>
       <c r="C38" s="8"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -5254,1328 +5408,1328 @@
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>39</v>
       </c>
       <c r="C40" s="8"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>40</v>
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>41</v>
       </c>
       <c r="B42" s="10"/>
       <c r="C42" s="8"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>42</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>43</v>
       </c>
       <c r="C44" s="8"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>44</v>
       </c>
       <c r="C45" s="8"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>45</v>
       </c>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="4">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" s="4">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" s="4">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" s="4">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" s="4">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" s="4">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" s="4">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" s="4">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" s="4">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" s="4">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" s="4">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" s="4">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" s="4">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" s="4">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" s="4">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" s="4">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" s="4">
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" s="4">
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" s="4">
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" s="4">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" s="4">
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" s="4">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" s="4">
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" s="4">
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" s="4">
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" s="4">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" s="4">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" s="4">
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" s="4">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" s="4">
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" s="4">
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" s="4">
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" s="4">
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" s="4">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" s="4">
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" s="4">
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" s="4">
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" s="4">
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" s="4">
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" s="4">
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138" s="4">
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139" s="4">
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140" s="4">
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" s="4">
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" s="4">
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143" s="4">
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" s="4">
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" s="4">
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146" s="4">
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" s="4">
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148" s="4">
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149" s="4">
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150" s="4">
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151" s="4">
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152" s="4">
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153" s="4">
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154" s="4">
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155" s="4">
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156" s="4">
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157" s="4">
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158" s="4">
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159" s="4">
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A160" s="4">
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161" s="4">
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162" s="4">
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163" s="4">
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164" s="4">
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165" s="4">
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166" s="4">
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167" s="4">
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168" s="4">
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A169" s="4">
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A170" s="4">
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171" s="4">
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A172" s="4">
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A173" s="4">
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A174" s="4">
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A175" s="4">
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A176" s="4">
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A177" s="4">
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178" s="4">
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A179" s="4">
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A180" s="4">
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A181" s="4">
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A182" s="4">
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A183" s="4">
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A184" s="4">
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A185" s="4">
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A186" s="4">
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A187" s="4">
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A188" s="4">
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A189" s="4">
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A190" s="4">
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A191" s="4">
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A192" s="4">
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A193" s="4">
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A194" s="4">
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A195" s="4">
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A196" s="4">
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A197" s="4">
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A198" s="4">
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A199" s="4">
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A200" s="4">
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A201" s="4">
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A202" s="4">
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A203" s="4">
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A204" s="4">
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A205" s="4">
         <v>204</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A206" s="4">
         <v>205</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A207" s="4">
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A208" s="4">
         <v>207</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A209" s="4">
         <v>208</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A210" s="4">
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A211" s="4">
         <v>210</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A212" s="4">
         <v>211</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A213" s="4">
         <v>212</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A214" s="4">
         <v>213</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A215" s="4">
         <v>214</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A216" s="4">
         <v>215</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A217" s="4">
         <v>216</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A218" s="4">
         <v>217</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A219" s="4">
         <v>218</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A220" s="4">
         <v>219</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A221" s="4">
         <v>220</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A222" s="4">
         <v>221</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A223" s="4">
         <v>222</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A224" s="4">
         <v>223</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A225" s="4">
         <v>224</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A226" s="4">
         <v>225</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A227" s="4">
         <v>226</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A228" s="4">
         <v>227</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A229" s="4">
         <v>228</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A230" s="4">
         <v>229</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A231" s="4">
         <v>230</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A232" s="4">
         <v>231</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A233" s="4">
         <v>232</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A234" s="4">
         <v>233</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A235" s="4">
         <v>234</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A236" s="4">
         <v>235</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A237" s="4">
         <v>236</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A238" s="4">
         <v>237</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A239" s="4">
         <v>238</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A240" s="4">
         <v>239</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A241" s="4">
         <v>240</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A242" s="4">
         <v>241</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A243" s="4">
         <v>242</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A244" s="4">
         <v>243</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A245" s="4">
         <v>244</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A246" s="4">
         <v>245</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A247" s="4">
         <v>246</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A248" s="4">
         <v>247</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A249" s="4">
         <v>248</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A250" s="4">
         <v>249</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A251" s="4">
         <v>250</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A252" s="4">
         <v>251</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A253" s="4">
         <v>252</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A254" s="4">
         <v>253</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A255" s="4">
         <v>254</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A256" s="4">
         <v>255</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A257" s="4">
         <v>256</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A258" s="4">
         <v>257</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A259" s="4">
         <v>258</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A260" s="4">
         <v>259</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A261" s="4">
         <v>260</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A262" s="4">
         <v>261</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A263" s="4">
         <v>262</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A264" s="4">
         <v>263</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A265" s="4">
         <v>264</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A266" s="4">
         <v>265</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A267" s="4">
         <v>266</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A268" s="4">
         <v>267</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A269" s="4">
         <v>268</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A270" s="4">
         <v>269</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A271" s="4">
         <v>270</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A272" s="4">
         <v>271</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A273" s="4">
         <v>272</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A274" s="4">
         <v>273</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A275" s="4">
         <v>274</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A276" s="4">
         <v>275</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A277" s="4">
         <v>276</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A278" s="4">
         <v>277</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A279" s="4">
         <v>278</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A280" s="4">
         <v>279</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A281" s="4">
         <v>280</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A282" s="4">
         <v>281</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A283" s="4">
         <v>282</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A284" s="4">
         <v>283</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A285" s="4">
         <v>284</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A286" s="4">
         <v>285</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A287" s="4">
         <v>286</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A288" s="4">
         <v>287</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A289" s="4">
         <v>288</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A290" s="4">
         <v>289</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A291" s="4">
         <v>290</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A292" s="4">
         <v>291</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A293" s="4">
         <v>292</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A294" s="4">
         <v>293</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A295" s="4">
         <v>294</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A296" s="4">
         <v>295</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A297" s="4">
         <v>296</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A298" s="4">
         <v>297</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A299" s="4">
         <v>298</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A300" s="4">
         <v>299</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A301" s="4">
         <v>300</v>
       </c>
     </row>
-    <row r="1048576" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1048576" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1048576" s="4">
         <f>SUM(A2:A1048575)</f>
         <v>45150</v>
@@ -6596,13 +6750,13 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="10" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.69921875" customWidth="1"/>
+    <col min="3" max="3" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>47</v>
       </c>
@@ -6613,7 +6767,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6627,7 +6781,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6638,7 +6792,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6649,7 +6803,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6660,1702 +6814,1702 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>204</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>205</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>207</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>208</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>210</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>211</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>212</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>213</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>214</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>215</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>216</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>217</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>218</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>219</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>220</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>221</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>222</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>223</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>224</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>225</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>226</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>227</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>228</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>229</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>230</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>231</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>232</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>233</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>234</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>235</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>236</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>237</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>238</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>239</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>240</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>241</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>242</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>243</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>244</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>245</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>246</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>247</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>248</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>249</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>250</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>251</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>252</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>253</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>254</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>255</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>256</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>257</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>258</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>259</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>260</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>261</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>262</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>263</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>264</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>265</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>266</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>267</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>268</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>269</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>270</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>271</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>272</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>273</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>274</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>275</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>276</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>277</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>278</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>279</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>280</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>281</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>282</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>283</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>284</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>285</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>286</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>287</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>288</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>289</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>290</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>291</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>292</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>293</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>294</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>295</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>296</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>297</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>298</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>299</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>300</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>301</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>302</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>303</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>304</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>305</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>306</v>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>307</v>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>308</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>309</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>310</v>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>311</v>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>312</v>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>313</v>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>314</v>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>315</v>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>316</v>
       </c>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>317</v>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>318</v>
       </c>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>319</v>
       </c>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>320</v>
       </c>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>321</v>
       </c>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>322</v>
       </c>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>323</v>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>324</v>
       </c>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>325</v>
       </c>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>326</v>
       </c>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>327</v>
       </c>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>328</v>
       </c>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>329</v>
       </c>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>330</v>
       </c>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>331</v>
       </c>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>332</v>
       </c>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>333</v>
       </c>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>334</v>
       </c>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>335</v>
       </c>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>336</v>
       </c>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>337</v>
       </c>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>338</v>
       </c>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>339</v>
       </c>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>340</v>
       </c>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>341</v>
       </c>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>342</v>
       </c>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>343</v>
       </c>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>344</v>
       </c>
@@ -8376,37 +8530,37 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="255.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="255.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>26</v>
       </c>
@@ -8424,7 +8578,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/english.xlsx
+++ b/english.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="217">
   <si>
     <t>word</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -769,6 +769,49 @@
       </rPr>
       <t>.</t>
     </r>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resolution</t>
+  </si>
+  <si>
+    <t>a firm decision to do or not to do something.</t>
+  </si>
+  <si>
+    <t>he quality of being determined or resolute.</t>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resolute</t>
+  </si>
+  <si>
+    <t>admirably</t>
+  </si>
+  <si>
+    <t>ad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in a way that arouses or deserves respect and approval.</t>
+  </si>
+  <si>
+    <t>p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>break up</t>
+  </si>
+  <si>
+    <t>disintegrate or disperse</t>
+  </si>
+  <si>
+    <t>(of a gathering) come to an end and disperse.</t>
   </si>
 </sst>
 </file>
@@ -879,7 +922,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -930,6 +973,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1214,7 +1258,7 @@
   <dimension ref="A1:M1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
@@ -2071,7 +2115,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A65" s="4">
         <v>64</v>
       </c>
@@ -2091,77 +2135,107 @@
         <v>202</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A66" s="4">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B66" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E66" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A67" s="4">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B67" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A68" s="4">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A69" s="4">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A70" s="4">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A71" s="4">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A72" s="4">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A73" s="4">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A74" s="4">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A75" s="4">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A76" s="4">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A77" s="4">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A78" s="4">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A79" s="4">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A80" s="4">
         <v>79</v>
       </c>
@@ -3287,9 +3361,10 @@
     <hyperlink ref="E63" r:id="rId5" display="https://www.google.com/search?hl=en&amp;sxsrf=APwXEdcSeJ1oQNH9KpfTXgoddEfl1ldq5w:1682664370088&amp;q=restricts&amp;si=AMnBZoFEI0LGJdD1jElhAGFwRnmo4B4j6LT70SiPRpxFRDh1f2L1gcpUemDbL_sxqr1VkjKVIBsndvX95nis954grDjng5wvVg%3D%3D&amp;expnd=1"/>
     <hyperlink ref="D65" r:id="rId6" display="https://www.google.com/search?hl=en&amp;sxsrf=APwXEddOjUjdoKzxmGM7Ith0YQpRD3f_cg:1682666445173&amp;q=morally&amp;si=AMnBZoFHF1DJLZWpTBtQDK262RMpehmuhpxPQKkjXNi2DXKA4Uckw_hrtf8Rz_pdecTi5TJBhY959Al3xtckWtkO8diJEuJnMQ%3D%3D&amp;expnd=1"/>
     <hyperlink ref="F65" r:id="rId7" display="https://www.google.com/search?hl=en&amp;sxsrf=APwXEddOjUjdoKzxmGM7Ith0YQpRD3f_cg:1682666445173&amp;q=gratitude&amp;si=AMnBZoFEI0LGJdD1jElhAGFwRnmoljuRlR5qHMBinsS7WCRctZiV06JImrRGWZBsbl8jJIeZNHdT_gRI4YDl8xj1OUTAIxNS7w%3D%3D&amp;expnd=1"/>
+    <hyperlink ref="E66" r:id="rId8" display="https://www.google.com/search?hl=en&amp;sxsrf=APwXEde9wZsPLv-soLqoyOAQNOy811iT5A:1682986820730&amp;q=resolute&amp;si=AMnBZoFm76bvId4K9j6r5bU9rVYrgS4B1d0kRmL9589zGk0I5BnshdVmKLnlpzkkKeM9vd7nBDEY_eYD7EpaUxawW7JWimtoyA%3D%3D&amp;expnd=1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -3298,7 +3373,7 @@
   <dimension ref="A1:M1048576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
@@ -3340,7 +3415,15 @@
       <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="D3" s="15"/>
+      <c r="B3" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="11">
@@ -4919,8 +5002,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" display="https://www.google.com/search?hl=en&amp;biw=1536&amp;bih=754&amp;sxsrf=APwXEddmaYS4A8dFSxJhP4urgMkh-5ROcA:1682986957926&amp;q=arouses&amp;si=AMnBZoFHF1DJLZWpTBtQDK262RMpzK3Ezeq69vJ_EhFDCKViOIa2-erd0Mfjwh0Pu_8HH3-LbxPeyq_0Tgn8YYvSZdbagAht2w%3D%3D&amp;expnd=1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/english.xlsx
+++ b/english.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="229">
   <si>
     <t>word</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -711,13 +711,86 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>the condition of being morally or legally bound to do something.</t>
+  </si>
+  <si>
+    <t>a debt of gratitude for a service or favor.</t>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resolution</t>
+  </si>
+  <si>
+    <t>a firm decision to do or not to do something.</t>
+  </si>
+  <si>
+    <t>he quality of being determined or resolute.</t>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resolute</t>
+  </si>
+  <si>
+    <t>admirably</t>
+  </si>
+  <si>
+    <t>ad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in a way that arouses or deserves respect and approval.</t>
+  </si>
+  <si>
+    <t>p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>break up</t>
+  </si>
+  <si>
+    <t>disintegrate or disperse</t>
+  </si>
+  <si>
+    <t>(of a gathering) come to an end and disperse.</t>
+  </si>
+  <si>
+    <t>v2n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resolve</t>
+  </si>
+  <si>
+    <t>settle or find a solution to (a problem, dispute, or contentious matter).</t>
+  </si>
+  <si>
+    <t>decide firmly on a course of action.</t>
+  </si>
+  <si>
+    <t>firm determination to do something.</t>
+  </si>
+  <si>
     <t>an act or course of action to which a person is morally or legally bound; a duty or commitment.</t>
-  </si>
-  <si>
-    <t>the condition of being morally or legally bound to do something.</t>
-  </si>
-  <si>
-    <t>a debt of gratitude for a service or favor.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>the standard of something as measured against other things of a similar kind; the degree of excellence of something.</t>
+  </si>
+  <si>
+    <t>a distinctive attribute or characteristic possessed by someone or something.</t>
   </si>
   <si>
     <r>
@@ -727,7 +800,6 @@
       <rPr>
         <i/>
         <sz val="12"/>
-        <color theme="1"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
@@ -738,7 +810,6 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
@@ -750,7 +821,6 @@
       <rPr>
         <i/>
         <sz val="12"/>
-        <color theme="1"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
@@ -761,7 +831,6 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
@@ -771,54 +840,21 @@
     </r>
   </si>
   <si>
-    <t>n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resolution</t>
-  </si>
-  <si>
-    <t>a firm decision to do or not to do something.</t>
-  </si>
-  <si>
-    <t>he quality of being determined or resolute.</t>
-  </si>
-  <si>
-    <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resolute</t>
-  </si>
-  <si>
-    <t>admirably</t>
-  </si>
-  <si>
-    <t>ad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>in a way that arouses or deserves respect and approval.</t>
-  </si>
-  <si>
-    <t>p</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>break up</t>
-  </si>
-  <si>
-    <t>disintegrate or disperse</t>
-  </si>
-  <si>
-    <t>(of a gathering) come to an end and disperse.</t>
+    <t>conform</t>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be similar in form or type; agree.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -885,16 +921,6 @@
     <font>
       <i/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -922,7 +948,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -968,12 +994,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1257,8 +1281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
@@ -1266,15 +1290,16 @@
     <col min="1" max="1" width="4.09765625" style="4" customWidth="1"/>
     <col min="2" max="2" width="7.19921875" style="9" customWidth="1"/>
     <col min="3" max="3" width="16.09765625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="8.8984375" style="5" customWidth="1"/>
-    <col min="5" max="16384" width="8.69921875" style="4"/>
+    <col min="4" max="4" width="8.8984375" style="14" customWidth="1"/>
+    <col min="5" max="7" width="8.69921875" style="14"/>
+    <col min="8" max="16384" width="8.69921875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="14" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1285,7 +1310,7 @@
       <c r="C2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="14" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1296,7 +1321,7 @@
       <c r="C3" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="14" t="s">
         <v>118</v>
       </c>
     </row>
@@ -1323,7 +1348,7 @@
       <c r="C6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="14" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1334,7 +1359,7 @@
       <c r="C7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="14" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1345,7 +1370,7 @@
       <c r="C8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="14" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1356,7 +1381,7 @@
       <c r="C9" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="14" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1367,7 +1392,7 @@
       <c r="C10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="14" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1378,7 +1403,7 @@
       <c r="C11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="14" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1389,7 +1414,7 @@
       <c r="C12" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="14" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1400,7 +1425,7 @@
       <c r="C13" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="14" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1411,7 +1436,7 @@
       <c r="C14" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="14" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1422,7 +1447,7 @@
       <c r="C15" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="14" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1430,7 +1455,7 @@
       <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="14" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1441,7 +1466,7 @@
       <c r="C17" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="14" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1452,7 +1477,7 @@
       <c r="C18" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="14" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1463,7 +1488,7 @@
       <c r="C19" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="14" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1474,10 +1499,10 @@
       <c r="C20" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="14" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1488,7 +1513,7 @@
       <c r="C21" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="14" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1499,10 +1524,10 @@
       <c r="C22" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="14" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1513,7 +1538,7 @@
       <c r="C23" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="14" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1524,7 +1549,7 @@
       <c r="C24" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="14" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1535,7 +1560,7 @@
       <c r="C25" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="14" t="s">
         <v>114</v>
       </c>
     </row>
@@ -1546,7 +1571,7 @@
       <c r="C26" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="14" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1557,7 +1582,7 @@
       <c r="C27" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="14" t="s">
         <v>57</v>
       </c>
       <c r="L27" s="4" t="s">
@@ -1574,7 +1599,7 @@
       <c r="C28" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="14" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1585,10 +1610,10 @@
       <c r="C29" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="14" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1599,10 +1624,10 @@
       <c r="C30" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="14" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1613,10 +1638,10 @@
       <c r="C31" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="22" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1627,13 +1652,13 @@
       <c r="C32" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="E32" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="F32" s="14" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1644,10 +1669,10 @@
       <c r="C33" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E33" s="14" t="s">
         <v>113</v>
       </c>
     </row>
@@ -1658,7 +1683,7 @@
       <c r="C34" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="14" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1669,13 +1694,13 @@
       <c r="C35" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D35" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="E35" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="F35" s="6" t="s">
+      <c r="F35" s="14" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1686,7 +1711,7 @@
       <c r="C36" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D36" s="14" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1697,16 +1722,16 @@
       <c r="C37" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D37" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="E37" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="F37" s="6" t="s">
+      <c r="F37" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="G37" s="6" t="s">
+      <c r="G37" s="14" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1717,7 +1742,7 @@
       <c r="C38" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D38" s="14" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1728,10 +1753,10 @@
       <c r="C39" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D39" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="E39" s="14" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1742,7 +1767,7 @@
       <c r="C40" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D40" s="14" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1753,10 +1778,10 @@
       <c r="C41" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="D41" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="E41" s="14" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1767,7 +1792,7 @@
       <c r="C42" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D42" s="14" t="s">
         <v>101</v>
       </c>
     </row>
@@ -1778,7 +1803,7 @@
       <c r="C43" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="D43" s="14" t="s">
         <v>103</v>
       </c>
     </row>
@@ -1789,11 +1814,11 @@
       <c r="C44" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="D44" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="E44" s="6" t="s">
-        <v>203</v>
+      <c r="E44" s="14" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.45">
@@ -1806,16 +1831,16 @@
       <c r="C45" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="D45" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="E45" s="21" t="s">
+      <c r="E45" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="F45" s="21" t="s">
+      <c r="F45" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="G45" s="21" t="s">
+      <c r="G45" s="8" t="s">
         <v>121</v>
       </c>
     </row>
@@ -1829,10 +1854,10 @@
       <c r="C46" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="D46" s="6" t="s">
+      <c r="D46" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="E46" s="6" t="s">
+      <c r="E46" s="14" t="s">
         <v>126</v>
       </c>
     </row>
@@ -1846,7 +1871,7 @@
       <c r="C47" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D47" s="14" t="s">
         <v>128</v>
       </c>
     </row>
@@ -1860,10 +1885,10 @@
       <c r="C48" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="D48" s="6" t="s">
+      <c r="D48" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="E48" s="6" t="s">
+      <c r="E48" s="14" t="s">
         <v>132</v>
       </c>
     </row>
@@ -1877,7 +1902,7 @@
       <c r="C49" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="D49" s="6" t="s">
+      <c r="D49" s="14" t="s">
         <v>135</v>
       </c>
     </row>
@@ -1891,7 +1916,7 @@
       <c r="C50" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="D50" s="21" t="s">
+      <c r="D50" s="8" t="s">
         <v>137</v>
       </c>
     </row>
@@ -1905,10 +1930,10 @@
       <c r="C51" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="D51" s="6" t="s">
+      <c r="D51" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="E51" s="6" t="s">
+      <c r="E51" s="14" t="s">
         <v>142</v>
       </c>
     </row>
@@ -1922,7 +1947,7 @@
       <c r="C52" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="D52" s="6" t="s">
+      <c r="D52" s="14" t="s">
         <v>145</v>
       </c>
     </row>
@@ -1936,10 +1961,10 @@
       <c r="C53" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="D53" s="6" t="s">
+      <c r="D53" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="E53" s="6" t="s">
+      <c r="E53" s="14" t="s">
         <v>148</v>
       </c>
     </row>
@@ -1953,7 +1978,7 @@
       <c r="C54" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="D54" s="14" t="s">
         <v>151</v>
       </c>
     </row>
@@ -1967,7 +1992,7 @@
       <c r="C55" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="D55" s="14" t="s">
         <v>154</v>
       </c>
     </row>
@@ -1981,10 +2006,10 @@
       <c r="C56" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="D56" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="E56" s="6" t="s">
+      <c r="E56" s="14" t="s">
         <v>157</v>
       </c>
     </row>
@@ -1998,7 +2023,7 @@
       <c r="C57" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="D57" s="6" t="s">
+      <c r="D57" s="14" t="s">
         <v>165</v>
       </c>
     </row>
@@ -2012,13 +2037,13 @@
       <c r="C58" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="D58" s="6" t="s">
+      <c r="D58" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="E58" s="6" t="s">
+      <c r="E58" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="F58" s="6" t="s">
+      <c r="F58" s="14" t="s">
         <v>173</v>
       </c>
     </row>
@@ -2026,7 +2051,7 @@
       <c r="A59" s="4">
         <v>58</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="D59" s="14" t="s">
         <v>176</v>
       </c>
     </row>
@@ -2040,7 +2065,7 @@
       <c r="C60" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="D60" s="6" t="s">
+      <c r="D60" s="14" t="s">
         <v>179</v>
       </c>
       <c r="E60" s="22" t="s">
@@ -2057,10 +2082,10 @@
       <c r="C61" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="D61" s="8" t="s">
+      <c r="D61" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="E61" s="8" t="s">
+      <c r="E61" s="14" t="s">
         <v>185</v>
       </c>
     </row>
@@ -2074,10 +2099,10 @@
       <c r="C62" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="D62" s="8" t="s">
+      <c r="D62" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="E62" s="8" t="s">
+      <c r="E62" s="14" t="s">
         <v>188</v>
       </c>
     </row>
@@ -2091,10 +2116,10 @@
       <c r="C63" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="D63" s="8" t="s">
+      <c r="D63" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="E63" s="23" t="s">
+      <c r="E63" s="8" t="s">
         <v>193</v>
       </c>
     </row>
@@ -2108,10 +2133,10 @@
       <c r="C64" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="D64" s="8" t="s">
+      <c r="D64" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="E64" s="8" t="s">
+      <c r="E64" s="14" t="s">
         <v>196</v>
       </c>
     </row>
@@ -2125,14 +2150,14 @@
       <c r="C65" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="D65" s="23" t="s">
+      <c r="D65" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="E65" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="E65" s="8" t="s">
+      <c r="F65" s="8" t="s">
         <v>201</v>
-      </c>
-      <c r="F65" s="23" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.45">
@@ -2140,22 +2165,22 @@
         <v>65</v>
       </c>
       <c r="B66" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="D66" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="C66" s="9" t="s">
+      <c r="E66" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="F66" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="E66" s="24" t="s">
+      <c r="G66" s="14" t="s">
         <v>207</v>
-      </c>
-      <c r="F66" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="G66" s="4" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.45">
@@ -2163,31 +2188,70 @@
         <v>66</v>
       </c>
       <c r="B67" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="D67" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="C67" s="9" t="s">
+      <c r="E67" s="14" t="s">
         <v>214</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A68" s="4">
         <v>67</v>
       </c>
+      <c r="B68" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="E68" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="F68" s="14" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A69" s="4">
         <v>68</v>
       </c>
+      <c r="B69" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="D69" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A70" s="4">
         <v>69</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.45">
@@ -3353,18 +3417,8 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="E45" r:id="rId1" display="https://www.google.com/search?sxsrf=APwXEdc_u1p7RGsdP5YgVrTzcvZuTqGykw:1682294446651&amp;q=genuineness&amp;si=AMnBZoG9fGMZkoPgk-g4eVoaZFdEOkIa0eqhSuybWt8EFZuYfKM-XYnb6pm5LRZ6NAiCPqdJ2m5y98ndipfP97DreJiijtoF72M_aGNXbBE-Byyz9ILM-uk%3D&amp;expnd=1"/>
-    <hyperlink ref="F45" r:id="rId2" display="https://www.google.com/search?sxsrf=APwXEdc_u1p7RGsdP5YgVrTzcvZuTqGykw:1682294446651&amp;q=offense&amp;si=AMnBZoFHF1DJLZWpTBtQDK262RMpDt0YejzPVVhcMf4e0jpHf5u0fqlnOZNQG3pX3U43keMzn3B_dTdUSjMGGlaDdbSE94l_KQ%3D%3D&amp;expnd=1"/>
-    <hyperlink ref="G45" r:id="rId3" display="https://www.google.com/search?sxsrf=APwXEdc_u1p7RGsdP5YgVrTzcvZuTqGykw:1682294446651&amp;q=relied&amp;si=AMnBZoEP2YukYW07_nAjizsjQPEkIwKRPkUuNSe2uwNWC1jdw-dvLF27w0SCF1l-OMfI9-h4_0UbLCZvcqG-kvuYe5zvBKgz0Q%3D%3D&amp;expnd=1"/>
-    <hyperlink ref="D50" r:id="rId4" display="https://www.google.com/search?hl=en&amp;sxsrf=APwXEde6rs_BeS9TlSWBblh7YFVUNIKAuw:1682064097989&amp;q=empowered&amp;si=AMnBZoFEI0LGJdD1jElhAGFwRnmorVJ_1KAdHUxVDnE9AbdEJnRO1N_zl4ds_syedYN5SsIFCsREy1y6C2GSHEMMsjfbOo2KfQ%3D%3D&amp;expnd=1"/>
-    <hyperlink ref="E63" r:id="rId5" display="https://www.google.com/search?hl=en&amp;sxsrf=APwXEdcSeJ1oQNH9KpfTXgoddEfl1ldq5w:1682664370088&amp;q=restricts&amp;si=AMnBZoFEI0LGJdD1jElhAGFwRnmo4B4j6LT70SiPRpxFRDh1f2L1gcpUemDbL_sxqr1VkjKVIBsndvX95nis954grDjng5wvVg%3D%3D&amp;expnd=1"/>
-    <hyperlink ref="D65" r:id="rId6" display="https://www.google.com/search?hl=en&amp;sxsrf=APwXEddOjUjdoKzxmGM7Ith0YQpRD3f_cg:1682666445173&amp;q=morally&amp;si=AMnBZoFHF1DJLZWpTBtQDK262RMpehmuhpxPQKkjXNi2DXKA4Uckw_hrtf8Rz_pdecTi5TJBhY959Al3xtckWtkO8diJEuJnMQ%3D%3D&amp;expnd=1"/>
-    <hyperlink ref="F65" r:id="rId7" display="https://www.google.com/search?hl=en&amp;sxsrf=APwXEddOjUjdoKzxmGM7Ith0YQpRD3f_cg:1682666445173&amp;q=gratitude&amp;si=AMnBZoFEI0LGJdD1jElhAGFwRnmoljuRlR5qHMBinsS7WCRctZiV06JImrRGWZBsbl8jJIeZNHdT_gRI4YDl8xj1OUTAIxNS7w%3D%3D&amp;expnd=1"/>
-    <hyperlink ref="E66" r:id="rId8" display="https://www.google.com/search?hl=en&amp;sxsrf=APwXEde9wZsPLv-soLqoyOAQNOy811iT5A:1682986820730&amp;q=resolute&amp;si=AMnBZoFm76bvId4K9j6r5bU9rVYrgS4B1d0kRmL9589zGk0I5BnshdVmKLnlpzkkKeM9vd7nBDEY_eYD7EpaUxawW7JWimtoyA%3D%3D&amp;expnd=1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3416,13 +3470,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C3" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="D3" s="21" t="s">
         <v>210</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">

--- a/english.xlsx
+++ b/english.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="word" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="236">
   <si>
     <t>word</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -848,6 +848,34 @@
   </si>
   <si>
     <t>be similar in form or type; agree.</t>
+  </si>
+  <si>
+    <t>[aa]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[uh]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shorten uh sound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>when doctor makes mouth open</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>job, hot,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[a]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dad, bad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1281,8 +1309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="E70" sqref="E70"/>
+    <sheetView topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
@@ -6890,10 +6918,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D345"/>
+  <dimension ref="A1:E345"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -6902,7 +6930,7 @@
     <col min="3" max="3" width="13.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B1" s="1" t="s">
         <v>47</v>
       </c>
@@ -6913,7 +6941,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6927,7 +6955,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6938,7 +6966,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6949,7 +6977,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6960,57 +6988,78 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B6" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C6" t="s">
+        <v>233</v>
+      </c>
+      <c r="E6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B7" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B8" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C8" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
